--- a/ExcelData/Data_Table/BossSkill.xlsx
+++ b/ExcelData/Data_Table/BossSkill.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA5CD9A-46CD-4B25-BDD7-8407FCB72E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F6F6C-0664-4D55-B4E7-95A38381DF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="22530" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BossStat_Table" sheetId="16" r:id="rId1"/>
+    <sheet name="BossSkillTable" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossStat_Table!$B$5:$AD$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BossStat_Table!$A$1:$AO$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossSkillTable!$B$5:$AD$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BossSkillTable!$A$1:$AO$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>비고</t>
-  </si>
-  <si>
-    <t>BossIndex</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>인덱스</t>
@@ -480,6 +476,10 @@
   </si>
   <si>
     <t>지연시간 프리팹</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BossSkillIndex</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1039,10 +1039,10 @@
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1050,7 +1050,7 @@
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="7.375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.875" bestFit="1" customWidth="1"/>
@@ -1123,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -1166,76 +1166,76 @@
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
       <c r="F3" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>14</v>
-      </c>
       <c r="I3" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="Q3" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="S3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="T3" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="X3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AB3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AC3" s="21" t="s">
         <v>49</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>50</v>
       </c>
       <c r="AD3" s="30"/>
       <c r="AE3" s="1"/>
@@ -1257,82 +1257,82 @@
         <v>3</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="I4" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="T4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="AD4" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="2"/>
@@ -1359,49 +1359,49 @@
         <v>4</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="T5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V5" s="27" t="s">
         <v>4</v>
@@ -1413,10 +1413,10 @@
         <v>4</v>
       </c>
       <c r="Y5" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z5" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA5" s="27" t="s">
         <v>4</v>
@@ -1443,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="24">
         <v>101001</v>
@@ -1473,25 +1473,25 @@
         <v>10</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R6" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S6" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T6" s="26">
         <v>1</v>
@@ -1537,10 +1537,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="24">
         <v>101002</v>
@@ -1567,25 +1567,25 @@
         <v>0</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R7" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S7" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T7" s="26">
         <v>20</v>
@@ -1631,10 +1631,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="24">
         <v>101003</v>
@@ -1661,25 +1661,25 @@
         <v>20</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T8" s="26">
         <v>1</v>
@@ -1725,10 +1725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="24">
         <v>101004</v>
@@ -1755,25 +1755,25 @@
         <v>0</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R9" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T9" s="26">
         <v>10</v>
@@ -1819,10 +1819,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="24">
         <v>101005</v>
@@ -1849,25 +1849,25 @@
         <v>30</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R10" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T10" s="26">
         <v>1</v>

--- a/ExcelData/Data_Table/BossSkill.xlsx
+++ b/ExcelData/Data_Table/BossSkill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CE579-3525-4495-B126-6E4A401AC7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A592F4A-ADCE-44B1-8B80-2A7A93B83F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BossSkillTable" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
   <si>
     <t>번호</t>
   </si>
@@ -527,6 +527,10 @@
   </si>
   <si>
     <t>피폭2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">false </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1192,10 +1196,10 @@
   <dimension ref="A1:AK1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1655,8 +1659,8 @@
       <c r="S6" s="26">
         <v>0</v>
       </c>
-      <c r="T6" s="27" t="b">
-        <v>0</v>
+      <c r="T6" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U6" s="27">
         <v>1</v>
@@ -1752,8 +1756,8 @@
       <c r="S7" s="26">
         <v>0</v>
       </c>
-      <c r="T7" s="27" t="b">
-        <v>0</v>
+      <c r="T7" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U7" s="27">
         <v>1</v>
@@ -1849,8 +1853,8 @@
       <c r="S8" s="26">
         <v>0</v>
       </c>
-      <c r="T8" s="27" t="b">
-        <v>0</v>
+      <c r="T8" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U8" s="27">
         <v>1</v>
@@ -1946,8 +1950,8 @@
       <c r="S9" s="26">
         <v>0</v>
       </c>
-      <c r="T9" s="27" t="b">
-        <v>0</v>
+      <c r="T9" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U9" s="27">
         <v>1</v>
@@ -2043,8 +2047,8 @@
       <c r="S10" s="26">
         <v>0</v>
       </c>
-      <c r="T10" s="27" t="b">
-        <v>0</v>
+      <c r="T10" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U10" s="27">
         <v>1</v>
@@ -2140,8 +2144,8 @@
       <c r="S11" s="26">
         <v>0</v>
       </c>
-      <c r="T11" s="27" t="b">
-        <v>0</v>
+      <c r="T11" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U11" s="27">
         <v>1</v>
@@ -2237,8 +2241,8 @@
       <c r="S12" s="26">
         <v>0</v>
       </c>
-      <c r="T12" s="27" t="b">
-        <v>0</v>
+      <c r="T12" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U12" s="27">
         <v>1</v>
@@ -2334,8 +2338,8 @@
       <c r="S13" s="26">
         <v>0</v>
       </c>
-      <c r="T13" s="27" t="b">
-        <v>0</v>
+      <c r="T13" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U13" s="27">
         <v>1</v>
@@ -2433,8 +2437,8 @@
       <c r="S14" s="26">
         <v>0</v>
       </c>
-      <c r="T14" s="27" t="b">
-        <v>0</v>
+      <c r="T14" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U14" s="27">
         <v>1</v>
@@ -2530,8 +2534,8 @@
       <c r="S15" s="26">
         <v>0</v>
       </c>
-      <c r="T15" s="27" t="b">
-        <v>0</v>
+      <c r="T15" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U15" s="27">
         <v>1</v>
@@ -2583,7 +2587,7 @@
         <v>86</v>
       </c>
       <c r="E16" s="25">
-        <v>231010</v>
+        <v>231011</v>
       </c>
       <c r="F16" s="25">
         <v>2</v>
@@ -2627,8 +2631,8 @@
       <c r="S16" s="27">
         <v>0</v>
       </c>
-      <c r="T16" s="27" t="b">
-        <v>0</v>
+      <c r="T16" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U16" s="27">
         <v>1</v>
@@ -2680,7 +2684,7 @@
         <v>86</v>
       </c>
       <c r="E17" s="32">
-        <v>231011</v>
+        <v>231012</v>
       </c>
       <c r="F17" s="32">
         <v>2</v>
@@ -2724,8 +2728,8 @@
       <c r="S17" s="34">
         <v>0</v>
       </c>
-      <c r="T17" s="34" t="b">
-        <v>0</v>
+      <c r="T17" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="U17" s="34">
         <v>1</v>
@@ -41293,7 +41297,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="30" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="3" max="26" man="1"/>
     <brk id="17" max="41" man="1"/>

--- a/ExcelData/Data_Table/BossSkill.xlsx
+++ b/ExcelData/Data_Table/BossSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A592F4A-ADCE-44B1-8B80-2A7A93B83F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E07A0-5290-4AB8-8132-FDDACDFE347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BossSkillTable" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="90">
   <si>
     <t>번호</t>
   </si>
@@ -825,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -904,9 +904,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,9 +920,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,38 +1193,38 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="T6" sqref="N6:T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="28" customWidth="1"/>
-    <col min="2" max="2" width="7.375" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.625" style="28" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="29" customWidth="1"/>
-    <col min="15" max="19" width="8.75" style="28" customWidth="1"/>
-    <col min="20" max="20" width="8.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="7.375" style="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.125" style="28" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.125" style="28" customWidth="1"/>
-    <col min="28" max="28" width="10.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="36.125" style="28" customWidth="1"/>
-    <col min="32" max="32" width="2.25" style="28" customWidth="1"/>
-    <col min="33" max="37" width="5.75" style="28" customWidth="1"/>
-    <col min="38" max="16384" width="12.625" style="28"/>
+    <col min="1" max="1" width="2.25" style="27" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="27" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.625" style="27" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="28" customWidth="1"/>
+    <col min="15" max="19" width="8.75" style="27" customWidth="1"/>
+    <col min="20" max="20" width="8.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="7.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.125" style="27" customWidth="1"/>
+    <col min="28" max="28" width="10.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="36.125" style="27" customWidth="1"/>
+    <col min="32" max="32" width="2.25" style="27" customWidth="1"/>
+    <col min="33" max="37" width="5.75" style="27" customWidth="1"/>
+    <col min="38" max="16384" width="12.625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="16.5" customHeight="1">
@@ -1274,16 +1268,16 @@
     </row>
     <row r="2" spans="1:37" ht="19.5" customHeight="1">
       <c r="A2" s="4"/>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1"/>
@@ -1311,7 +1305,7 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
-      <c r="AE2" s="46" t="s">
+      <c r="AE2" s="44" t="s">
         <v>8</v>
       </c>
       <c r="AF2" s="4"/>
@@ -1323,10 +1317,10 @@
     </row>
     <row r="3" spans="1:37" ht="16.5" customHeight="1">
       <c r="A3" s="4"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1396,7 @@
       <c r="AD3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AE3" s="47"/>
+      <c r="AE3" s="45"/>
       <c r="AF3" s="4"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
@@ -1466,7 +1460,7 @@
       <c r="S4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="30" t="s">
+      <c r="T4" s="29" t="s">
         <v>87</v>
       </c>
       <c r="U4" s="10" t="s">
@@ -1641,55 +1635,55 @@
       <c r="M6" s="25">
         <v>10</v>
       </c>
-      <c r="N6" s="26">
-        <v>0</v>
-      </c>
-      <c r="O6" s="26">
-        <v>0</v>
-      </c>
-      <c r="P6" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="26">
-        <v>0</v>
-      </c>
-      <c r="R6" s="26">
-        <v>0</v>
-      </c>
-      <c r="S6" s="26">
-        <v>0</v>
-      </c>
-      <c r="T6" s="27" t="s">
+      <c r="N6" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="U6" s="27">
+      <c r="O6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="26">
         <v>1</v>
       </c>
-      <c r="V6" s="27">
+      <c r="V6" s="26">
         <v>0</v>
       </c>
       <c r="W6" s="25">
         <v>0</v>
       </c>
-      <c r="X6" s="27">
+      <c r="X6" s="26">
         <v>0</v>
       </c>
-      <c r="Y6" s="27">
+      <c r="Y6" s="26">
         <v>4</v>
       </c>
-      <c r="Z6" s="27">
+      <c r="Z6" s="26">
         <v>0</v>
       </c>
-      <c r="AA6" s="27">
+      <c r="AA6" s="26">
         <v>0</v>
       </c>
-      <c r="AB6" s="27">
+      <c r="AB6" s="26">
         <v>971009</v>
       </c>
-      <c r="AC6" s="27">
+      <c r="AC6" s="26">
         <v>0</v>
       </c>
-      <c r="AD6" s="27">
+      <c r="AD6" s="26">
         <v>912004</v>
       </c>
       <c r="AE6" s="14"/>
@@ -1738,55 +1732,55 @@
       <c r="M7" s="25">
         <v>20</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U7" s="26">
+        <v>1</v>
+      </c>
+      <c r="V7" s="26">
         <v>0</v>
       </c>
-      <c r="O7" s="26">
+      <c r="W7" s="26">
         <v>0</v>
       </c>
-      <c r="P7" s="26">
+      <c r="X7" s="26">
         <v>0</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Y7" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="26">
         <v>0</v>
       </c>
-      <c r="R7" s="26">
+      <c r="AA7" s="26">
         <v>0</v>
       </c>
-      <c r="S7" s="26">
+      <c r="AB7" s="26">
+        <v>971009</v>
+      </c>
+      <c r="AC7" s="26">
         <v>0</v>
       </c>
-      <c r="T7" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="U7" s="27">
-        <v>1</v>
-      </c>
-      <c r="V7" s="27">
-        <v>0</v>
-      </c>
-      <c r="W7" s="27">
-        <v>0</v>
-      </c>
-      <c r="X7" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="27">
-        <v>971009</v>
-      </c>
-      <c r="AC7" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="27">
+      <c r="AD7" s="26">
         <v>912004</v>
       </c>
       <c r="AE7" s="14"/>
@@ -1835,55 +1829,55 @@
       <c r="M8" s="25">
         <v>30</v>
       </c>
-      <c r="N8" s="26">
-        <v>0</v>
-      </c>
-      <c r="O8" s="26">
-        <v>0</v>
-      </c>
-      <c r="P8" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="26">
-        <v>0</v>
-      </c>
-      <c r="R8" s="26">
-        <v>0</v>
-      </c>
-      <c r="S8" s="26">
-        <v>0</v>
-      </c>
-      <c r="T8" s="27" t="s">
+      <c r="N8" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="U8" s="27">
+      <c r="O8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" s="26">
         <v>1</v>
       </c>
-      <c r="V8" s="27">
+      <c r="V8" s="26">
         <v>0</v>
       </c>
       <c r="W8" s="25">
         <v>0</v>
       </c>
-      <c r="X8" s="27">
+      <c r="X8" s="26">
         <v>0</v>
       </c>
-      <c r="Y8" s="27">
+      <c r="Y8" s="26">
         <v>1</v>
       </c>
-      <c r="Z8" s="27">
+      <c r="Z8" s="26">
         <v>0</v>
       </c>
-      <c r="AA8" s="27">
+      <c r="AA8" s="26">
         <v>0</v>
       </c>
-      <c r="AB8" s="27">
+      <c r="AB8" s="26">
         <v>971009</v>
       </c>
-      <c r="AC8" s="27">
+      <c r="AC8" s="26">
         <v>0</v>
       </c>
-      <c r="AD8" s="27">
+      <c r="AD8" s="26">
         <v>912004</v>
       </c>
       <c r="AE8" s="14"/>
@@ -1932,55 +1926,55 @@
       <c r="M9" s="25">
         <v>30</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="26">
+        <v>1</v>
+      </c>
+      <c r="V9" s="26">
         <v>0</v>
       </c>
-      <c r="O9" s="26">
+      <c r="W9" s="26">
         <v>0</v>
       </c>
-      <c r="P9" s="26">
+      <c r="X9" s="26">
         <v>0</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Y9" s="26">
         <v>0</v>
       </c>
-      <c r="R9" s="26">
+      <c r="Z9" s="26">
         <v>0</v>
       </c>
-      <c r="S9" s="26">
+      <c r="AA9" s="26">
         <v>0</v>
       </c>
-      <c r="T9" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="U9" s="27">
-        <v>1</v>
-      </c>
-      <c r="V9" s="27">
+      <c r="AB9" s="26">
         <v>0</v>
       </c>
-      <c r="W9" s="27">
+      <c r="AC9" s="26">
         <v>0</v>
       </c>
-      <c r="X9" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="27">
+      <c r="AD9" s="26">
         <v>0</v>
       </c>
       <c r="AE9" s="14"/>
@@ -2029,55 +2023,55 @@
       <c r="M10" s="25">
         <v>50</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" s="26">
+        <v>1</v>
+      </c>
+      <c r="V10" s="26">
         <v>0</v>
       </c>
-      <c r="O10" s="26">
+      <c r="W10" s="26">
+        <v>231006</v>
+      </c>
+      <c r="X10" s="26">
         <v>0</v>
       </c>
-      <c r="P10" s="26">
+      <c r="Y10" s="26">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="26">
         <v>0</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="AA10" s="26">
         <v>0</v>
       </c>
-      <c r="R10" s="26">
+      <c r="AB10" s="26">
+        <v>971012</v>
+      </c>
+      <c r="AC10" s="26">
         <v>0</v>
       </c>
-      <c r="S10" s="26">
-        <v>0</v>
-      </c>
-      <c r="T10" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="U10" s="27">
-        <v>1</v>
-      </c>
-      <c r="V10" s="27">
-        <v>0</v>
-      </c>
-      <c r="W10" s="27">
-        <v>231006</v>
-      </c>
-      <c r="X10" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="27">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="27">
-        <v>971012</v>
-      </c>
-      <c r="AC10" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="27">
+      <c r="AD10" s="26">
         <v>0</v>
       </c>
       <c r="AE10" s="14"/>
@@ -2126,55 +2120,55 @@
       <c r="M11" s="25">
         <v>20</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" s="26">
+        <v>1</v>
+      </c>
+      <c r="V11" s="26">
         <v>0</v>
       </c>
-      <c r="O11" s="26">
+      <c r="W11" s="26">
+        <v>231007</v>
+      </c>
+      <c r="X11" s="26">
         <v>0</v>
       </c>
-      <c r="P11" s="26">
+      <c r="Y11" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="26">
         <v>0</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="AA11" s="26">
         <v>0</v>
       </c>
-      <c r="R11" s="26">
+      <c r="AB11" s="26">
         <v>0</v>
       </c>
-      <c r="S11" s="26">
+      <c r="AC11" s="26">
         <v>0</v>
       </c>
-      <c r="T11" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="U11" s="27">
-        <v>1</v>
-      </c>
-      <c r="V11" s="27">
-        <v>0</v>
-      </c>
-      <c r="W11" s="27">
-        <v>231007</v>
-      </c>
-      <c r="X11" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="27">
+      <c r="AD11" s="26">
         <v>912003</v>
       </c>
       <c r="AE11" s="14"/>
@@ -2223,55 +2217,55 @@
       <c r="M12" s="25">
         <v>30</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U12" s="26">
+        <v>1</v>
+      </c>
+      <c r="V12" s="26">
         <v>0</v>
       </c>
-      <c r="O12" s="26">
+      <c r="W12" s="26">
         <v>0</v>
       </c>
-      <c r="P12" s="26">
+      <c r="X12" s="26">
         <v>0</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Y12" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="26">
         <v>0</v>
       </c>
-      <c r="R12" s="26">
+      <c r="AA12" s="26">
         <v>0</v>
       </c>
-      <c r="S12" s="26">
+      <c r="AB12" s="26">
         <v>0</v>
       </c>
-      <c r="T12" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="U12" s="27">
-        <v>1</v>
-      </c>
-      <c r="V12" s="27">
+      <c r="AC12" s="26">
         <v>0</v>
       </c>
-      <c r="W12" s="27">
-        <v>0</v>
-      </c>
-      <c r="X12" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="27">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="27">
+      <c r="AD12" s="26">
         <v>912001</v>
       </c>
       <c r="AE12" s="14"/>
@@ -2320,55 +2314,55 @@
       <c r="M13" s="25">
         <v>50</v>
       </c>
-      <c r="N13" s="26">
-        <v>0</v>
-      </c>
-      <c r="O13" s="26">
-        <v>0</v>
-      </c>
-      <c r="P13" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="26">
-        <v>0</v>
-      </c>
-      <c r="R13" s="26">
-        <v>0</v>
-      </c>
-      <c r="S13" s="26">
-        <v>0</v>
-      </c>
-      <c r="T13" s="27" t="s">
+      <c r="N13" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="U13" s="27">
+      <c r="O13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U13" s="26">
         <v>1</v>
       </c>
-      <c r="V13" s="27">
+      <c r="V13" s="26">
         <v>0</v>
       </c>
       <c r="W13" s="25">
         <v>231009</v>
       </c>
-      <c r="X13" s="27">
+      <c r="X13" s="26">
         <v>0</v>
       </c>
-      <c r="Y13" s="27">
+      <c r="Y13" s="26">
         <v>2</v>
       </c>
-      <c r="Z13" s="27">
+      <c r="Z13" s="26">
         <v>0</v>
       </c>
-      <c r="AA13" s="27">
+      <c r="AA13" s="26">
         <v>0</v>
       </c>
-      <c r="AB13" s="27">
+      <c r="AB13" s="26">
         <v>0</v>
       </c>
-      <c r="AC13" s="27">
+      <c r="AC13" s="26">
         <v>0</v>
       </c>
-      <c r="AD13" s="27">
+      <c r="AD13" s="26">
         <v>0</v>
       </c>
       <c r="AE13" s="14"/>
@@ -2419,55 +2413,55 @@
       <c r="M14" s="25">
         <v>20</v>
       </c>
-      <c r="N14" s="26">
-        <v>0</v>
-      </c>
-      <c r="O14" s="26">
-        <v>0</v>
-      </c>
-      <c r="P14" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="26">
-        <v>0</v>
-      </c>
-      <c r="R14" s="26">
-        <v>0</v>
-      </c>
-      <c r="S14" s="26">
-        <v>0</v>
-      </c>
-      <c r="T14" s="27" t="s">
+      <c r="N14" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="U14" s="27">
+      <c r="O14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U14" s="26">
         <v>1</v>
       </c>
-      <c r="V14" s="27">
+      <c r="V14" s="26">
         <v>0</v>
       </c>
       <c r="W14" s="25">
         <v>231010</v>
       </c>
-      <c r="X14" s="27">
+      <c r="X14" s="26">
         <v>0</v>
       </c>
-      <c r="Y14" s="27">
+      <c r="Y14" s="26">
         <v>3</v>
       </c>
-      <c r="Z14" s="27">
+      <c r="Z14" s="26">
         <v>0</v>
       </c>
-      <c r="AA14" s="27">
+      <c r="AA14" s="26">
         <v>0</v>
       </c>
-      <c r="AB14" s="27">
+      <c r="AB14" s="26">
         <v>971013</v>
       </c>
-      <c r="AC14" s="27">
+      <c r="AC14" s="26">
         <v>0</v>
       </c>
-      <c r="AD14" s="27">
+      <c r="AD14" s="26">
         <v>912003</v>
       </c>
       <c r="AE14" s="14"/>
@@ -2516,55 +2510,55 @@
       <c r="M15" s="25">
         <v>30</v>
       </c>
-      <c r="N15" s="26">
-        <v>0</v>
-      </c>
-      <c r="O15" s="26">
-        <v>0</v>
-      </c>
-      <c r="P15" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>0</v>
-      </c>
-      <c r="R15" s="26">
-        <v>0</v>
-      </c>
-      <c r="S15" s="26">
-        <v>0</v>
-      </c>
-      <c r="T15" s="27" t="s">
+      <c r="N15" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="U15" s="27">
+      <c r="O15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U15" s="26">
         <v>1</v>
       </c>
-      <c r="V15" s="27">
+      <c r="V15" s="26">
         <v>0</v>
       </c>
       <c r="W15" s="25">
         <v>231010</v>
       </c>
-      <c r="X15" s="27">
+      <c r="X15" s="26">
         <v>0</v>
       </c>
-      <c r="Y15" s="27">
+      <c r="Y15" s="26">
         <v>3</v>
       </c>
-      <c r="Z15" s="27">
+      <c r="Z15" s="26">
         <v>0</v>
       </c>
-      <c r="AA15" s="27">
+      <c r="AA15" s="26">
         <v>0</v>
       </c>
-      <c r="AB15" s="27">
+      <c r="AB15" s="26">
         <v>0</v>
       </c>
-      <c r="AC15" s="27">
+      <c r="AC15" s="26">
         <v>0</v>
       </c>
-      <c r="AD15" s="27">
+      <c r="AD15" s="26">
         <v>912001</v>
       </c>
       <c r="AE15" s="14"/>
@@ -2613,55 +2607,55 @@
       <c r="M16" s="25">
         <v>10</v>
       </c>
-      <c r="N16" s="26">
-        <v>0</v>
-      </c>
-      <c r="O16" s="25">
-        <v>0</v>
-      </c>
-      <c r="P16" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="27">
-        <v>0</v>
-      </c>
-      <c r="R16" s="27">
-        <v>0</v>
-      </c>
-      <c r="S16" s="27">
-        <v>0</v>
-      </c>
-      <c r="T16" s="27" t="s">
+      <c r="N16" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="U16" s="27">
+      <c r="O16" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S16" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U16" s="26">
         <v>1</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="26">
         <v>0</v>
       </c>
       <c r="W16" s="25">
         <v>231011</v>
       </c>
-      <c r="X16" s="27">
+      <c r="X16" s="26">
         <v>0</v>
       </c>
-      <c r="Y16" s="27">
+      <c r="Y16" s="26">
         <v>1</v>
       </c>
-      <c r="Z16" s="27">
+      <c r="Z16" s="26">
         <v>0</v>
       </c>
-      <c r="AA16" s="27">
+      <c r="AA16" s="26">
         <v>0</v>
       </c>
-      <c r="AB16" s="27">
+      <c r="AB16" s="26">
         <v>0</v>
       </c>
-      <c r="AC16" s="27">
+      <c r="AC16" s="26">
         <v>0</v>
       </c>
-      <c r="AD16" s="27">
+      <c r="AD16" s="26">
         <v>912006</v>
       </c>
       <c r="AE16" s="14"/>
@@ -2677,91 +2671,91 @@
       <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>231012</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>2</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="31">
         <v>2</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="31">
         <v>40</v>
       </c>
-      <c r="I17" s="32">
+      <c r="I17" s="31">
         <v>0</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="31">
         <v>3</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="31">
         <v>3</v>
       </c>
-      <c r="L17" s="32">
+      <c r="L17" s="31">
         <v>2</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="31">
         <v>10</v>
       </c>
-      <c r="N17" s="33">
+      <c r="N17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="U17" s="32">
+        <v>1</v>
+      </c>
+      <c r="V17" s="32">
         <v>0</v>
       </c>
-      <c r="O17" s="32">
+      <c r="W17" s="32">
         <v>0</v>
       </c>
-      <c r="P17" s="32">
+      <c r="X17" s="32">
         <v>0</v>
       </c>
-      <c r="Q17" s="34">
+      <c r="Y17" s="32">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="32">
         <v>0</v>
       </c>
-      <c r="R17" s="34">
+      <c r="AA17" s="32">
         <v>0</v>
       </c>
-      <c r="S17" s="34">
+      <c r="AB17" s="32">
         <v>0</v>
       </c>
-      <c r="T17" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="U17" s="34">
-        <v>1</v>
-      </c>
-      <c r="V17" s="34">
+      <c r="AC17" s="32">
         <v>0</v>
       </c>
-      <c r="W17" s="34">
-        <v>0</v>
-      </c>
-      <c r="X17" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="34">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="34">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="27">
+      <c r="AD17" s="26">
         <v>912006</v>
       </c>
-      <c r="AE17" s="35"/>
+      <c r="AE17" s="33"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
@@ -2771,38 +2765,38 @@
     </row>
     <row r="18" spans="1:37" ht="16.5" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>13</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="43"/>
-      <c r="AE18" s="44"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="42"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
@@ -2812,38 +2806,38 @@
     </row>
     <row r="19" spans="1:37" ht="16.5" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <v>14</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="45"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="43"/>
       <c r="AF19" s="4"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
@@ -2853,38 +2847,38 @@
     </row>
     <row r="20" spans="1:37" ht="16.5" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <v>15</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="45"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="43"/>
       <c r="AF20" s="4"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
@@ -2894,38 +2888,38 @@
     </row>
     <row r="21" spans="1:37" ht="16.5" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="31">
+      <c r="B21" s="30">
         <v>16</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="38"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="45"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="43"/>
       <c r="AF21" s="4"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
@@ -2935,38 +2929,38 @@
     </row>
     <row r="22" spans="1:37" ht="16.5" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="31">
+      <c r="B22" s="30">
         <v>17</v>
       </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="38"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="45"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="43"/>
       <c r="AF22" s="4"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -2976,38 +2970,38 @@
     </row>
     <row r="23" spans="1:37" ht="16.5" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="31">
+      <c r="B23" s="30">
         <v>18</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="45"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="43"/>
       <c r="AF23" s="4"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>

--- a/ExcelData/Data_Table/BossSkill.xlsx
+++ b/ExcelData/Data_Table/BossSkill.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E07A0-5290-4AB8-8132-FDDACDFE347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE1DD36-06B6-4370-AD1D-FB133B0EE9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BossSkillTable" sheetId="16" r:id="rId1"/>
+    <sheet name="BossSkill_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossSkillTable!$B$5:$AE$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BossSkillTable!$A$1:$AP$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossSkill_Table!$B$5:$AE$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BossSkill_Table!$A$1:$AP$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1193,7 +1193,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="N6:T17"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/ExcelData/Data_Table/BossSkill.xlsx
+++ b/ExcelData/Data_Table/BossSkill.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E07A0-5290-4AB8-8132-FDDACDFE347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B575C9-9A53-4260-BF94-E272D27BFDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BossSkillTable" sheetId="16" r:id="rId1"/>
+    <sheet name="BossSkill_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossSkillTable!$B$5:$AE$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BossSkillTable!$A$1:$AP$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BossSkill_Table!$B$5:$AE$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BossSkill_Table!$A$1:$AP$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1193,7 +1193,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="N6:T17"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/ExcelData/Data_Table/BossSkill.xlsx
+++ b/ExcelData/Data_Table/BossSkill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C41F60C-13EB-40A2-A4D7-F3ACC2421113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3738D5F6-BF33-4213-A4CA-2BBF8778D87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="615" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BossSkill_Table" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="98">
   <si>
     <t>번호</t>
   </si>
@@ -817,6 +817,10 @@
     <t>보스 PosAttack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">true </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -826,7 +830,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,6 +978,14 @@
       <color rgb="FFFF0000"/>
       <name val="calibri"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -1162,7 +1174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1308,6 +1320,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="176" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,10 +1557,10 @@
   <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1622,16 +1637,16 @@
     </row>
     <row r="2" spans="1:38" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="52" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="5"/>
@@ -1668,7 +1683,7 @@
       <c r="AE2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="50" t="s">
         <v>8</v>
       </c>
       <c r="AG2" s="1"/>
@@ -1680,10 +1695,10 @@
     </row>
     <row r="3" spans="1:38" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1762,7 +1777,7 @@
       <c r="AE3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="50"/>
+      <c r="AF3" s="51"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
@@ -2007,8 +2022,8 @@
       <c r="M6" s="39">
         <v>10</v>
       </c>
-      <c r="N6" s="40" t="s">
-        <v>78</v>
+      <c r="N6" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O6" s="40" t="s">
         <v>78</v>
@@ -2102,8 +2117,8 @@
       <c r="M7" s="39">
         <v>20</v>
       </c>
-      <c r="N7" s="40" t="s">
-        <v>78</v>
+      <c r="N7" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O7" s="40" t="s">
         <v>78</v>
@@ -2197,8 +2212,8 @@
       <c r="M8" s="39">
         <v>30</v>
       </c>
-      <c r="N8" s="40" t="s">
-        <v>78</v>
+      <c r="N8" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O8" s="40" t="s">
         <v>78</v>
@@ -2287,13 +2302,13 @@
         <v>3</v>
       </c>
       <c r="L9" s="39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="39">
         <v>30</v>
       </c>
-      <c r="N9" s="40" t="s">
-        <v>78</v>
+      <c r="N9" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O9" s="40" t="s">
         <v>78</v>
@@ -2382,13 +2397,13 @@
         <v>4</v>
       </c>
       <c r="L10" s="39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="39">
         <v>50</v>
       </c>
-      <c r="N10" s="40" t="s">
-        <v>78</v>
+      <c r="N10" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O10" s="40" t="s">
         <v>78</v>
@@ -2482,8 +2497,8 @@
       <c r="M11" s="39">
         <v>20</v>
       </c>
-      <c r="N11" s="40" t="s">
-        <v>78</v>
+      <c r="N11" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O11" s="40" t="s">
         <v>78</v>
@@ -2577,8 +2592,8 @@
       <c r="M12" s="39">
         <v>30</v>
       </c>
-      <c r="N12" s="40" t="s">
-        <v>78</v>
+      <c r="N12" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O12" s="40" t="s">
         <v>78</v>
@@ -2667,13 +2682,13 @@
         <v>4</v>
       </c>
       <c r="L13" s="39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="39">
         <v>50</v>
       </c>
-      <c r="N13" s="40" t="s">
-        <v>78</v>
+      <c r="N13" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O13" s="40" t="s">
         <v>78</v>
@@ -2769,8 +2784,8 @@
       <c r="M14" s="39">
         <v>20</v>
       </c>
-      <c r="N14" s="40" t="s">
-        <v>78</v>
+      <c r="N14" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O14" s="40" t="s">
         <v>78</v>
@@ -2864,8 +2879,8 @@
       <c r="M15" s="39">
         <v>30</v>
       </c>
-      <c r="N15" s="40" t="s">
-        <v>78</v>
+      <c r="N15" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O15" s="40" t="s">
         <v>78</v>
@@ -2959,8 +2974,8 @@
       <c r="M16" s="39">
         <v>10</v>
       </c>
-      <c r="N16" s="40" t="s">
-        <v>78</v>
+      <c r="N16" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O16" s="40" t="s">
         <v>78</v>
@@ -3054,8 +3069,8 @@
       <c r="M17" s="42">
         <v>10</v>
       </c>
-      <c r="N17" s="40" t="s">
-        <v>78</v>
+      <c r="N17" s="49" t="s">
+        <v>97</v>
       </c>
       <c r="O17" s="40" t="s">
         <v>78</v>

--- a/ExcelData/Data_Table/BossSkill.xlsx
+++ b/ExcelData/Data_Table/BossSkill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582A75A6-A664-44FC-A33E-38958A77966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24540" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24540" windowHeight="14430"/>
   </bookViews>
   <sheets>
     <sheet name="BossSkill_Table" sheetId="16" r:id="rId1"/>
@@ -1581,12 +1580,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2140,17 +2139,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.25" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="5" bestFit="1" customWidth="1"/>
@@ -2182,7 +2181,7 @@
     <col min="39" max="16384" width="12.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="16.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2221,7 +2220,7 @@
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:38" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="37" t="s">
         <v>0</v>
@@ -2272,7 +2271,7 @@
       </c>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -2359,7 +2358,7 @@
       <c r="AF3" s="38"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" ht="16.5" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>1</v>
@@ -2456,7 +2455,7 @@
       </c>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" ht="16.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
         <v>4</v>
@@ -2553,7 +2552,7 @@
       </c>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" ht="16.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>1</v>
@@ -2565,7 +2564,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>231001</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -2633,14 +2632,14 @@
       <c r="AA6" s="36">
         <v>0</v>
       </c>
-      <c r="AB6" s="36">
-        <v>0</v>
+      <c r="AB6" s="3">
+        <v>971017</v>
       </c>
       <c r="AC6" s="36" t="s">
         <v>45</v>
       </c>
       <c r="AD6" s="3">
-        <v>0</v>
+        <v>971017</v>
       </c>
       <c r="AE6" s="4">
         <v>0</v>
@@ -2648,7 +2647,7 @@
       <c r="AF6" s="30"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="16.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>2</v>
@@ -2660,7 +2659,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="3">
-        <v>2</v>
+        <v>231002</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
@@ -2728,14 +2727,14 @@
       <c r="AA7" s="36">
         <v>0</v>
       </c>
-      <c r="AB7" s="36">
-        <v>0</v>
+      <c r="AB7" s="3">
+        <v>971015</v>
       </c>
       <c r="AC7" s="36" t="s">
         <v>45</v>
       </c>
       <c r="AD7" s="3">
-        <v>0</v>
+        <v>971015</v>
       </c>
       <c r="AE7" s="4">
         <v>0</v>
@@ -2743,7 +2742,7 @@
       <c r="AF7" s="30"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" ht="16.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>3</v>
@@ -2755,7 +2754,7 @@
         <v>47</v>
       </c>
       <c r="E8" s="3">
-        <v>3</v>
+        <v>231003</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -2809,7 +2808,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W8" s="3">
-        <v>4</v>
+        <v>231004</v>
       </c>
       <c r="X8" s="4">
         <v>0</v>
@@ -2823,14 +2822,14 @@
       <c r="AA8" s="36">
         <v>0</v>
       </c>
-      <c r="AB8" s="36">
-        <v>0</v>
+      <c r="AB8" s="3">
+        <v>971014</v>
       </c>
       <c r="AC8" s="36" t="s">
         <v>48</v>
       </c>
       <c r="AD8" s="3">
-        <v>0</v>
+        <v>971014</v>
       </c>
       <c r="AE8" s="4">
         <v>0</v>
@@ -2838,7 +2837,7 @@
       <c r="AF8" s="30"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" ht="16.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>3</v>
@@ -2850,7 +2849,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="3">
-        <v>4</v>
+        <v>231004</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -2904,7 +2903,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W9" s="3">
-        <v>5</v>
+        <v>231005</v>
       </c>
       <c r="X9" s="4">
         <v>0</v>
@@ -2918,14 +2917,14 @@
       <c r="AA9" s="36">
         <v>0</v>
       </c>
-      <c r="AB9" s="36">
-        <v>0</v>
+      <c r="AB9" s="3">
+        <v>971014</v>
       </c>
       <c r="AC9" s="36" t="s">
         <v>48</v>
       </c>
       <c r="AD9" s="3">
-        <v>0</v>
+        <v>971014</v>
       </c>
       <c r="AE9" s="4">
         <v>0</v>
@@ -2933,7 +2932,7 @@
       <c r="AF9" s="30"/>
       <c r="AG9" s="1"/>
     </row>
-    <row r="10" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>3</v>
@@ -2945,7 +2944,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="3">
-        <v>5</v>
+        <v>231005</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -3013,14 +3012,14 @@
       <c r="AA10" s="36">
         <v>0</v>
       </c>
-      <c r="AB10" s="36">
-        <v>0</v>
+      <c r="AB10" s="3">
+        <v>971014</v>
       </c>
       <c r="AC10" s="36" t="s">
         <v>48</v>
       </c>
       <c r="AD10" s="3">
-        <v>0</v>
+        <v>971014</v>
       </c>
       <c r="AE10" s="4">
         <v>0</v>
@@ -3028,7 +3027,7 @@
       <c r="AF10" s="30"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>6</v>
@@ -3040,7 +3039,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="3">
-        <v>6</v>
+        <v>231006</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -3108,14 +3107,14 @@
       <c r="AA11" s="36">
         <v>0</v>
       </c>
-      <c r="AB11" s="36">
-        <v>0</v>
+      <c r="AB11" s="3">
+        <v>971017</v>
       </c>
       <c r="AC11" s="36" t="s">
         <v>48</v>
       </c>
       <c r="AD11" s="3">
-        <v>0</v>
+        <v>971017</v>
       </c>
       <c r="AE11" s="4">
         <v>0</v>
@@ -3123,7 +3122,7 @@
       <c r="AF11" s="30"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" ht="16.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>7</v>
@@ -3135,7 +3134,7 @@
         <v>52</v>
       </c>
       <c r="E12" s="3">
-        <v>7</v>
+        <v>231007</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -3218,7 +3217,7 @@
       <c r="AF12" s="30"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" ht="16.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>8</v>
@@ -3230,7 +3229,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>231008</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
@@ -3284,7 +3283,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W13" s="3">
-        <v>9</v>
+        <v>231009</v>
       </c>
       <c r="X13" s="4">
         <v>0</v>
@@ -3313,7 +3312,7 @@
       <c r="AF13" s="30"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" ht="16.5" customHeight="1">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -3327,7 +3326,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>9</v>
+        <v>231009</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -3381,7 +3380,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W14" s="3">
-        <v>10</v>
+        <v>231010</v>
       </c>
       <c r="X14" s="4">
         <v>0</v>
@@ -3410,7 +3409,7 @@
       <c r="AF14" s="30"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" ht="16.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>10</v>
@@ -3422,7 +3421,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="3">
-        <v>10</v>
+        <v>231010</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -3476,7 +3475,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W15" s="3">
-        <v>11</v>
+        <v>231011</v>
       </c>
       <c r="X15" s="4">
         <v>0</v>
@@ -3505,7 +3504,7 @@
       <c r="AF15" s="30"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16" spans="1:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" ht="16.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>11</v>
@@ -3517,7 +3516,7 @@
         <v>57</v>
       </c>
       <c r="E16" s="3">
-        <v>11</v>
+        <v>231011</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -3600,7 +3599,7 @@
       <c r="AF16" s="30"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="16.5" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>12</v>
@@ -3612,7 +3611,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="3">
-        <v>12</v>
+        <v>231012</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -3695,7 +3694,7 @@
       <c r="AF17" s="15"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="16.5" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>13</v>
@@ -3707,7 +3706,7 @@
         <v>99</v>
       </c>
       <c r="E18" s="3">
-        <v>13</v>
+        <v>231013</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -3761,7 +3760,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W18" s="3">
-        <v>14</v>
+        <v>231014</v>
       </c>
       <c r="X18" s="4">
         <v>0</v>
@@ -3790,7 +3789,7 @@
       <c r="AF18" s="15"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="16.5" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>14</v>
@@ -3802,7 +3801,7 @@
         <v>101</v>
       </c>
       <c r="E19" s="3">
-        <v>14</v>
+        <v>231014</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -3856,7 +3855,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W19" s="3">
-        <v>15</v>
+        <v>231015</v>
       </c>
       <c r="X19" s="4">
         <v>0</v>
@@ -3887,7 +3886,7 @@
       </c>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="16.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>15</v>
@@ -3899,7 +3898,7 @@
         <v>104</v>
       </c>
       <c r="E20" s="3">
-        <v>15</v>
+        <v>231015</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -3953,7 +3952,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W20" s="3">
-        <v>16</v>
+        <v>231016</v>
       </c>
       <c r="X20" s="4">
         <v>0</v>
@@ -3982,7 +3981,7 @@
       <c r="AF20" s="19"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="16.5" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>16</v>
@@ -3994,7 +3993,7 @@
         <v>109</v>
       </c>
       <c r="E21" s="3">
-        <v>16</v>
+        <v>231016</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -4048,7 +4047,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W21" s="3">
-        <v>17</v>
+        <v>231017</v>
       </c>
       <c r="X21" s="4">
         <v>0</v>
@@ -4077,7 +4076,7 @@
       <c r="AF21" s="19"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="16.5" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>17</v>
@@ -4089,7 +4088,7 @@
         <v>110</v>
       </c>
       <c r="E22" s="3">
-        <v>17</v>
+        <v>231017</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -4143,7 +4142,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W22" s="3">
-        <v>18</v>
+        <v>231018</v>
       </c>
       <c r="X22" s="4">
         <v>0</v>
@@ -4172,7 +4171,7 @@
       <c r="AF22" s="19"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="16.5" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>18</v>
@@ -4184,7 +4183,7 @@
         <v>111</v>
       </c>
       <c r="E23" s="3">
-        <v>18</v>
+        <v>231018</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -4238,7 +4237,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W23" s="3">
-        <v>19</v>
+        <v>231019</v>
       </c>
       <c r="X23" s="4">
         <v>0</v>
@@ -4267,7 +4266,7 @@
       <c r="AF23" s="19"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="16.5" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>19</v>
@@ -4279,7 +4278,7 @@
         <v>112</v>
       </c>
       <c r="E24" s="3">
-        <v>19</v>
+        <v>231019</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -4333,7 +4332,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W24" s="3">
-        <v>20</v>
+        <v>231020</v>
       </c>
       <c r="X24" s="4">
         <v>0</v>
@@ -4362,7 +4361,7 @@
       <c r="AF24" s="16"/>
       <c r="AG24" s="22"/>
     </row>
-    <row r="25" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="16.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>20</v>
@@ -4374,7 +4373,7 @@
         <v>114</v>
       </c>
       <c r="E25" s="3">
-        <v>20</v>
+        <v>231020</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -4428,7 +4427,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W25" s="3">
-        <v>19</v>
+        <v>231021</v>
       </c>
       <c r="X25" s="4">
         <v>0</v>
@@ -4457,7 +4456,7 @@
       <c r="AF25" s="16"/>
       <c r="AG25" s="22"/>
     </row>
-    <row r="26" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="16.5" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>21</v>
@@ -4469,7 +4468,7 @@
         <v>116</v>
       </c>
       <c r="E26" s="3">
-        <v>21</v>
+        <v>231021</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
@@ -4552,7 +4551,7 @@
       <c r="AF26" s="18"/>
       <c r="AG26" s="22"/>
     </row>
-    <row r="27" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="16.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>22</v>
@@ -4564,7 +4563,7 @@
         <v>118</v>
       </c>
       <c r="E27" s="3">
-        <v>22</v>
+        <v>231022</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -4647,7 +4646,7 @@
       <c r="AF27" s="16"/>
       <c r="AG27" s="22"/>
     </row>
-    <row r="28" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="16.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>23</v>
@@ -4659,7 +4658,7 @@
         <v>120</v>
       </c>
       <c r="E28" s="3">
-        <v>23</v>
+        <v>231023</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -4713,7 +4712,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W28" s="3">
-        <v>24</v>
+        <v>231024</v>
       </c>
       <c r="X28" s="4">
         <v>5</v>
@@ -4742,7 +4741,7 @@
       <c r="AF28" s="16"/>
       <c r="AG28" s="22"/>
     </row>
-    <row r="29" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="16.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>24</v>
@@ -4754,7 +4753,7 @@
         <v>122</v>
       </c>
       <c r="E29" s="3">
-        <v>24</v>
+        <v>231024</v>
       </c>
       <c r="F29" s="3">
         <v>2</v>
@@ -4837,7 +4836,7 @@
       <c r="AF29" s="16"/>
       <c r="AG29" s="22"/>
     </row>
-    <row r="30" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="16.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>25</v>
@@ -4849,7 +4848,7 @@
         <v>124</v>
       </c>
       <c r="E30" s="3">
-        <v>25</v>
+        <v>231025</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
@@ -4903,7 +4902,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W30" s="3">
-        <v>26</v>
+        <v>231025</v>
       </c>
       <c r="X30" s="4">
         <v>0</v>
@@ -4932,7 +4931,7 @@
       <c r="AF30" s="16"/>
       <c r="AG30" s="22"/>
     </row>
-    <row r="31" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="16.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>26</v>
@@ -4944,7 +4943,7 @@
         <v>126</v>
       </c>
       <c r="E31" s="3">
-        <v>26</v>
+        <v>231026</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -5029,7 +5028,7 @@
       </c>
       <c r="AG31" s="22"/>
     </row>
-    <row r="32" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="16.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>27</v>
@@ -5041,7 +5040,7 @@
         <v>129</v>
       </c>
       <c r="E32" s="3">
-        <v>27</v>
+        <v>231027</v>
       </c>
       <c r="F32" s="3">
         <v>2</v>
@@ -5095,7 +5094,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W32" s="3">
-        <v>28</v>
+        <v>231028</v>
       </c>
       <c r="X32" s="4">
         <v>0</v>
@@ -5124,7 +5123,7 @@
       <c r="AF32" s="16"/>
       <c r="AG32" s="22"/>
     </row>
-    <row r="33" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="16.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>28</v>
@@ -5136,7 +5135,7 @@
         <v>131</v>
       </c>
       <c r="E33" s="3">
-        <v>28</v>
+        <v>231028</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
@@ -5190,7 +5189,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="W33" s="3">
-        <v>29</v>
+        <v>231029</v>
       </c>
       <c r="X33" s="4">
         <v>0</v>
@@ -5219,7 +5218,7 @@
       <c r="AF33" s="16"/>
       <c r="AG33" s="22"/>
     </row>
-    <row r="34" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="16.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
         <v>29</v>
@@ -5231,7 +5230,7 @@
         <v>133</v>
       </c>
       <c r="E34" s="3">
-        <v>29</v>
+        <v>231029</v>
       </c>
       <c r="F34" s="3">
         <v>2</v>
@@ -5314,7 +5313,7 @@
       <c r="AF34" s="16"/>
       <c r="AG34" s="22"/>
     </row>
-    <row r="35" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="16.5" customHeight="1">
       <c r="A35" s="20"/>
       <c r="B35" s="21">
         <v>30</v>
@@ -5350,7 +5349,7 @@
       <c r="AE35" s="18"/>
       <c r="AG35" s="22"/>
     </row>
-    <row r="36" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="16.5" customHeight="1">
       <c r="A36" s="20"/>
       <c r="B36" s="23">
         <v>31</v>
@@ -5368,7 +5367,7 @@
       <c r="AE36" s="25"/>
       <c r="AG36" s="22"/>
     </row>
-    <row r="37" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="16.5" customHeight="1">
       <c r="A37" s="20"/>
       <c r="B37" s="23">
         <v>32</v>
@@ -5386,7 +5385,7 @@
       <c r="AE37" s="25"/>
       <c r="AG37" s="22"/>
     </row>
-    <row r="38" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="16.5" customHeight="1">
       <c r="A38" s="20"/>
       <c r="B38" s="23">
         <v>33</v>
@@ -5404,7 +5403,7 @@
       <c r="AE38" s="25"/>
       <c r="AG38" s="22"/>
     </row>
-    <row r="39" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="16.5" customHeight="1">
       <c r="A39" s="20"/>
       <c r="B39" s="23">
         <v>34</v>
@@ -5422,7 +5421,7 @@
       <c r="AE39" s="25"/>
       <c r="AG39" s="22"/>
     </row>
-    <row r="40" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="16.5" customHeight="1">
       <c r="A40" s="20"/>
       <c r="B40" s="23">
         <v>35</v>
@@ -5440,7 +5439,7 @@
       <c r="AE40" s="25"/>
       <c r="AG40" s="22"/>
     </row>
-    <row r="41" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="16.5" customHeight="1">
       <c r="A41" s="20"/>
       <c r="B41" s="23">
         <v>36</v>
@@ -5458,7 +5457,7 @@
       <c r="AE41" s="25"/>
       <c r="AG41" s="22"/>
     </row>
-    <row r="42" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="16.5" customHeight="1">
       <c r="A42" s="20"/>
       <c r="B42" s="23">
         <v>37</v>
@@ -5476,7 +5475,7 @@
       <c r="AE42" s="25"/>
       <c r="AG42" s="22"/>
     </row>
-    <row r="43" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="16.5" customHeight="1">
       <c r="A43" s="20"/>
       <c r="B43" s="23">
         <v>38</v>
@@ -5494,7 +5493,7 @@
       <c r="AE43" s="25"/>
       <c r="AG43" s="22"/>
     </row>
-    <row r="44" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="16.5" customHeight="1">
       <c r="A44" s="20"/>
       <c r="B44" s="23">
         <v>39</v>
@@ -5513,7 +5512,7 @@
       <c r="AF44" s="25"/>
       <c r="AG44" s="22"/>
     </row>
-    <row r="45" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="16.5" customHeight="1">
       <c r="A45" s="20"/>
       <c r="B45" s="23">
         <v>40</v>
@@ -5531,7 +5530,7 @@
       <c r="AE45" s="25"/>
       <c r="AG45" s="22"/>
     </row>
-    <row r="46" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="16.5" customHeight="1">
       <c r="A46" s="20"/>
       <c r="B46" s="23">
         <v>41</v>
@@ -5549,7 +5548,7 @@
       <c r="AE46" s="25"/>
       <c r="AG46" s="22"/>
     </row>
-    <row r="47" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="16.5" customHeight="1">
       <c r="A47" s="20"/>
       <c r="B47" s="23">
         <v>42</v>
@@ -5567,7 +5566,7 @@
       <c r="AE47" s="25"/>
       <c r="AG47" s="22"/>
     </row>
-    <row r="48" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="16.5" customHeight="1">
       <c r="A48" s="20"/>
       <c r="B48" s="23">
         <v>43</v>
@@ -5585,7 +5584,7 @@
       <c r="AE48" s="25"/>
       <c r="AG48" s="22"/>
     </row>
-    <row r="49" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="16.5" customHeight="1">
       <c r="A49" s="20"/>
       <c r="B49" s="23">
         <v>44</v>
@@ -5603,7 +5602,7 @@
       <c r="AE49" s="25"/>
       <c r="AG49" s="22"/>
     </row>
-    <row r="50" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="16.5" customHeight="1">
       <c r="A50" s="20"/>
       <c r="B50" s="23">
         <v>45</v>
@@ -5621,7 +5620,7 @@
       <c r="AE50" s="25"/>
       <c r="AG50" s="22"/>
     </row>
-    <row r="51" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="16.5" customHeight="1">
       <c r="A51" s="20"/>
       <c r="B51" s="23">
         <v>46</v>
@@ -5639,7 +5638,7 @@
       <c r="AE51" s="25"/>
       <c r="AG51" s="22"/>
     </row>
-    <row r="52" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="16.5" customHeight="1">
       <c r="A52" s="20"/>
       <c r="B52" s="23">
         <v>47</v>
@@ -5657,7 +5656,7 @@
       <c r="AE52" s="25"/>
       <c r="AG52" s="22"/>
     </row>
-    <row r="53" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" ht="16.5" customHeight="1">
       <c r="A53" s="20"/>
       <c r="B53" s="23">
         <v>48</v>
@@ -5675,7 +5674,7 @@
       <c r="AE53" s="25"/>
       <c r="AG53" s="22"/>
     </row>
-    <row r="54" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" ht="16.5" customHeight="1">
       <c r="A54" s="20"/>
       <c r="B54" s="23">
         <v>49</v>
@@ -5693,7 +5692,7 @@
       <c r="AE54" s="25"/>
       <c r="AG54" s="22"/>
     </row>
-    <row r="55" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" ht="16.5" customHeight="1">
       <c r="A55" s="20"/>
       <c r="B55" s="23">
         <v>50</v>
@@ -5711,7 +5710,7 @@
       <c r="AE55" s="25"/>
       <c r="AG55" s="22"/>
     </row>
-    <row r="56" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" ht="16.5" customHeight="1">
       <c r="A56" s="20"/>
       <c r="B56" s="23">
         <v>51</v>
@@ -5729,7 +5728,7 @@
       <c r="AE56" s="25"/>
       <c r="AG56" s="22"/>
     </row>
-    <row r="57" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" ht="16.5" customHeight="1">
       <c r="A57" s="20"/>
       <c r="B57" s="23">
         <v>52</v>
@@ -5747,7 +5746,7 @@
       <c r="AE57" s="25"/>
       <c r="AG57" s="22"/>
     </row>
-    <row r="58" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" ht="16.5" customHeight="1">
       <c r="A58" s="20"/>
       <c r="B58" s="23">
         <v>53</v>
@@ -5765,7 +5764,7 @@
       <c r="AE58" s="25"/>
       <c r="AG58" s="22"/>
     </row>
-    <row r="59" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" ht="16.5" customHeight="1">
       <c r="A59" s="20"/>
       <c r="B59" s="23">
         <v>54</v>
@@ -5783,7 +5782,7 @@
       <c r="AE59" s="25"/>
       <c r="AG59" s="22"/>
     </row>
-    <row r="60" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" ht="16.5" customHeight="1">
       <c r="A60" s="20"/>
       <c r="B60" s="23">
         <v>55</v>
@@ -5801,7 +5800,7 @@
       <c r="AE60" s="25"/>
       <c r="AG60" s="22"/>
     </row>
-    <row r="61" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" ht="16.5" customHeight="1">
       <c r="A61" s="20"/>
       <c r="B61" s="23">
         <v>56</v>
@@ -5819,7 +5818,7 @@
       <c r="AE61" s="25"/>
       <c r="AG61" s="22"/>
     </row>
-    <row r="62" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" ht="16.5" customHeight="1">
       <c r="A62" s="20"/>
       <c r="B62" s="23">
         <v>57</v>
@@ -5837,7 +5836,7 @@
       <c r="AE62" s="25"/>
       <c r="AG62" s="22"/>
     </row>
-    <row r="63" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" ht="16.5" customHeight="1">
       <c r="A63" s="20"/>
       <c r="B63" s="23">
         <v>58</v>
@@ -5855,7 +5854,7 @@
       <c r="AE63" s="25"/>
       <c r="AG63" s="22"/>
     </row>
-    <row r="64" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" ht="16.5" customHeight="1">
       <c r="A64" s="20"/>
       <c r="B64" s="23">
         <v>59</v>
@@ -5873,7 +5872,7 @@
       <c r="AE64" s="25"/>
       <c r="AG64" s="22"/>
     </row>
-    <row r="65" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="16.5" customHeight="1">
       <c r="A65" s="20"/>
       <c r="B65" s="23">
         <v>60</v>
@@ -5891,7 +5890,7 @@
       <c r="AE65" s="25"/>
       <c r="AG65" s="22"/>
     </row>
-    <row r="66" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" ht="16.5" customHeight="1">
       <c r="A66" s="20"/>
       <c r="B66" s="23">
         <v>61</v>
@@ -5909,7 +5908,7 @@
       <c r="AE66" s="25"/>
       <c r="AG66" s="22"/>
     </row>
-    <row r="67" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" ht="16.5" customHeight="1">
       <c r="A67" s="20"/>
       <c r="B67" s="23">
         <v>62</v>
@@ -5927,7 +5926,7 @@
       <c r="AE67" s="25"/>
       <c r="AG67" s="22"/>
     </row>
-    <row r="68" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" ht="16.5" customHeight="1">
       <c r="A68" s="20"/>
       <c r="B68" s="23">
         <v>63</v>
@@ -5945,7 +5944,7 @@
       <c r="AE68" s="25"/>
       <c r="AG68" s="22"/>
     </row>
-    <row r="69" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" ht="16.5" customHeight="1">
       <c r="A69" s="20"/>
       <c r="B69" s="23">
         <v>64</v>
@@ -5963,7 +5962,7 @@
       <c r="AE69" s="25"/>
       <c r="AG69" s="22"/>
     </row>
-    <row r="70" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" ht="16.5" customHeight="1">
       <c r="A70" s="20"/>
       <c r="B70" s="23">
         <v>65</v>
@@ -5981,7 +5980,7 @@
       <c r="AE70" s="25"/>
       <c r="AG70" s="22"/>
     </row>
-    <row r="71" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" ht="16.5" customHeight="1">
       <c r="A71" s="20"/>
       <c r="B71" s="23">
         <v>66</v>
@@ -5999,7 +5998,7 @@
       <c r="AE71" s="25"/>
       <c r="AG71" s="22"/>
     </row>
-    <row r="72" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" ht="16.5" customHeight="1">
       <c r="A72" s="20"/>
       <c r="B72" s="23">
         <v>67</v>
@@ -6017,7 +6016,7 @@
       <c r="AE72" s="25"/>
       <c r="AG72" s="22"/>
     </row>
-    <row r="73" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" ht="16.5" customHeight="1">
       <c r="A73" s="20"/>
       <c r="B73" s="23">
         <v>68</v>
@@ -6035,7 +6034,7 @@
       <c r="AE73" s="25"/>
       <c r="AG73" s="22"/>
     </row>
-    <row r="74" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" ht="16.5" customHeight="1">
       <c r="A74" s="20"/>
       <c r="B74" s="23">
         <v>69</v>
@@ -6053,7 +6052,7 @@
       <c r="AE74" s="25"/>
       <c r="AG74" s="22"/>
     </row>
-    <row r="75" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" ht="16.5" customHeight="1">
       <c r="A75" s="20"/>
       <c r="B75" s="23">
         <v>70</v>
@@ -6071,7 +6070,7 @@
       <c r="AE75" s="25"/>
       <c r="AG75" s="22"/>
     </row>
-    <row r="76" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" ht="16.5" customHeight="1">
       <c r="A76" s="20"/>
       <c r="B76" s="23">
         <v>71</v>
@@ -6089,7 +6088,7 @@
       <c r="AE76" s="25"/>
       <c r="AG76" s="22"/>
     </row>
-    <row r="77" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" ht="16.5" customHeight="1">
       <c r="A77" s="20"/>
       <c r="B77" s="23">
         <v>72</v>
@@ -6107,7 +6106,7 @@
       <c r="AE77" s="25"/>
       <c r="AG77" s="22"/>
     </row>
-    <row r="78" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" ht="16.5" customHeight="1">
       <c r="A78" s="20"/>
       <c r="B78" s="23">
         <v>73</v>
@@ -6125,7 +6124,7 @@
       <c r="AE78" s="25"/>
       <c r="AG78" s="22"/>
     </row>
-    <row r="79" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" ht="16.5" customHeight="1">
       <c r="A79" s="20"/>
       <c r="B79" s="23">
         <v>74</v>
@@ -6143,7 +6142,7 @@
       <c r="AE79" s="25"/>
       <c r="AG79" s="22"/>
     </row>
-    <row r="80" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" ht="16.5" customHeight="1">
       <c r="A80" s="20"/>
       <c r="B80" s="23">
         <v>75</v>
@@ -6162,7 +6161,7 @@
       <c r="AF80" s="25"/>
       <c r="AG80" s="22"/>
     </row>
-    <row r="81" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" ht="16.5" customHeight="1">
       <c r="A81" s="20"/>
       <c r="B81" s="23">
         <v>76</v>
@@ -6180,7 +6179,7 @@
       <c r="AE81" s="25"/>
       <c r="AG81" s="22"/>
     </row>
-    <row r="82" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" ht="16.5" customHeight="1">
       <c r="A82" s="20"/>
       <c r="B82" s="23">
         <v>77</v>
@@ -6198,7 +6197,7 @@
       <c r="AE82" s="25"/>
       <c r="AG82" s="22"/>
     </row>
-    <row r="83" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" ht="16.5" customHeight="1">
       <c r="A83" s="20"/>
       <c r="B83" s="23">
         <v>78</v>
@@ -6216,7 +6215,7 @@
       <c r="AE83" s="25"/>
       <c r="AG83" s="22"/>
     </row>
-    <row r="84" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" ht="16.5" customHeight="1">
       <c r="A84" s="20"/>
       <c r="B84" s="23">
         <v>79</v>
@@ -6234,7 +6233,7 @@
       <c r="AE84" s="25"/>
       <c r="AG84" s="22"/>
     </row>
-    <row r="85" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" ht="16.5" customHeight="1">
       <c r="A85" s="20"/>
       <c r="B85" s="23">
         <v>80</v>
@@ -6252,7 +6251,7 @@
       <c r="AE85" s="25"/>
       <c r="AG85" s="22"/>
     </row>
-    <row r="86" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:33" ht="16.5" customHeight="1">
       <c r="A86" s="20"/>
       <c r="B86" s="23">
         <v>81</v>
@@ -6270,7 +6269,7 @@
       <c r="AE86" s="25"/>
       <c r="AG86" s="22"/>
     </row>
-    <row r="87" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:33" ht="16.5" customHeight="1">
       <c r="A87" s="20"/>
       <c r="B87" s="23">
         <v>82</v>
@@ -6288,7 +6287,7 @@
       <c r="AE87" s="25"/>
       <c r="AG87" s="22"/>
     </row>
-    <row r="88" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:33" ht="16.5" customHeight="1">
       <c r="A88" s="20"/>
       <c r="B88" s="23">
         <v>83</v>
@@ -6306,7 +6305,7 @@
       <c r="AE88" s="25"/>
       <c r="AG88" s="22"/>
     </row>
-    <row r="89" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:33" ht="16.5" customHeight="1">
       <c r="A89" s="20"/>
       <c r="B89" s="23">
         <v>84</v>
@@ -6324,7 +6323,7 @@
       <c r="AE89" s="25"/>
       <c r="AG89" s="22"/>
     </row>
-    <row r="90" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:33" ht="16.5" customHeight="1">
       <c r="A90" s="20"/>
       <c r="B90" s="23">
         <v>85</v>
@@ -6342,7 +6341,7 @@
       <c r="AE90" s="25"/>
       <c r="AG90" s="22"/>
     </row>
-    <row r="91" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:33" ht="16.5" customHeight="1">
       <c r="A91" s="20"/>
       <c r="B91" s="23">
         <v>86</v>
@@ -6360,7 +6359,7 @@
       <c r="AE91" s="25"/>
       <c r="AG91" s="22"/>
     </row>
-    <row r="92" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:33" ht="16.5" customHeight="1">
       <c r="A92" s="20"/>
       <c r="B92" s="23">
         <v>87</v>
@@ -6378,7 +6377,7 @@
       <c r="AE92" s="25"/>
       <c r="AG92" s="22"/>
     </row>
-    <row r="93" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:33" ht="16.5" customHeight="1">
       <c r="A93" s="20"/>
       <c r="B93" s="23">
         <v>88</v>
@@ -6396,7 +6395,7 @@
       <c r="AE93" s="25"/>
       <c r="AG93" s="22"/>
     </row>
-    <row r="94" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:33" ht="16.5" customHeight="1">
       <c r="A94" s="20"/>
       <c r="B94" s="23">
         <v>89</v>
@@ -6414,7 +6413,7 @@
       <c r="AE94" s="25"/>
       <c r="AG94" s="22"/>
     </row>
-    <row r="95" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:33" ht="16.5" customHeight="1">
       <c r="A95" s="20"/>
       <c r="B95" s="23">
         <v>90</v>
@@ -6432,7 +6431,7 @@
       <c r="AE95" s="25"/>
       <c r="AG95" s="22"/>
     </row>
-    <row r="96" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:33" ht="16.5" customHeight="1">
       <c r="A96" s="20"/>
       <c r="B96" s="23">
         <v>91</v>
@@ -6450,7 +6449,7 @@
       <c r="AE96" s="25"/>
       <c r="AG96" s="22"/>
     </row>
-    <row r="97" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:33" ht="16.5" customHeight="1">
       <c r="A97" s="20"/>
       <c r="B97" s="23">
         <v>92</v>
@@ -6468,7 +6467,7 @@
       <c r="AE97" s="25"/>
       <c r="AG97" s="22"/>
     </row>
-    <row r="98" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:33" ht="16.5" customHeight="1">
       <c r="A98" s="20"/>
       <c r="B98" s="23">
         <v>93</v>
@@ -6486,7 +6485,7 @@
       <c r="AE98" s="25"/>
       <c r="AG98" s="22"/>
     </row>
-    <row r="99" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:33" ht="16.5" customHeight="1">
       <c r="A99" s="20"/>
       <c r="B99" s="23">
         <v>94</v>
@@ -6504,7 +6503,7 @@
       <c r="AE99" s="25"/>
       <c r="AG99" s="22"/>
     </row>
-    <row r="100" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:33" ht="16.5" customHeight="1">
       <c r="A100" s="20"/>
       <c r="B100" s="23">
         <v>95</v>
@@ -6522,7 +6521,7 @@
       <c r="AE100" s="25"/>
       <c r="AG100" s="22"/>
     </row>
-    <row r="101" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:33" ht="16.5" customHeight="1">
       <c r="A101" s="20"/>
       <c r="B101" s="23">
         <v>96</v>
@@ -6540,7 +6539,7 @@
       <c r="AE101" s="25"/>
       <c r="AG101" s="22"/>
     </row>
-    <row r="102" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:33" ht="16.5" customHeight="1">
       <c r="A102" s="20"/>
       <c r="B102" s="23">
         <v>97</v>
@@ -6558,7 +6557,7 @@
       <c r="AE102" s="25"/>
       <c r="AG102" s="22"/>
     </row>
-    <row r="103" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:33" ht="16.5" customHeight="1">
       <c r="A103" s="20"/>
       <c r="B103" s="23">
         <v>98</v>
@@ -6576,7 +6575,7 @@
       <c r="AE103" s="25"/>
       <c r="AG103" s="22"/>
     </row>
-    <row r="104" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:33" ht="16.5" customHeight="1">
       <c r="A104" s="20"/>
       <c r="B104" s="23">
         <v>99</v>
@@ -6594,7 +6593,7 @@
       <c r="AE104" s="25"/>
       <c r="AG104" s="22"/>
     </row>
-    <row r="105" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:33" ht="16.5" customHeight="1">
       <c r="A105" s="20"/>
       <c r="B105" s="23">
         <v>100</v>
@@ -6612,7 +6611,7 @@
       <c r="AE105" s="25"/>
       <c r="AG105" s="22"/>
     </row>
-    <row r="106" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:33" ht="16.5" customHeight="1">
       <c r="A106" s="20"/>
       <c r="B106" s="26"/>
       <c r="Q106" s="25"/>
@@ -6628,7 +6627,7 @@
       <c r="AE106" s="25"/>
       <c r="AG106" s="22"/>
     </row>
-    <row r="107" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:33" ht="16.5" customHeight="1">
       <c r="A107" s="20"/>
       <c r="B107" s="26"/>
       <c r="Q107" s="25"/>
@@ -6644,7 +6643,7 @@
       <c r="AE107" s="25"/>
       <c r="AG107" s="22"/>
     </row>
-    <row r="108" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:33" ht="16.5" customHeight="1">
       <c r="A108" s="20"/>
       <c r="B108" s="26"/>
       <c r="Q108" s="25"/>
@@ -6660,7 +6659,7 @@
       <c r="AE108" s="25"/>
       <c r="AG108" s="22"/>
     </row>
-    <row r="109" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:33" ht="16.5" customHeight="1">
       <c r="A109" s="20"/>
       <c r="B109" s="26"/>
       <c r="Q109" s="25"/>
@@ -6676,7 +6675,7 @@
       <c r="AE109" s="25"/>
       <c r="AG109" s="22"/>
     </row>
-    <row r="110" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:33" ht="16.5" customHeight="1">
       <c r="A110" s="20"/>
       <c r="B110" s="26"/>
       <c r="Q110" s="25"/>
@@ -6692,7 +6691,7 @@
       <c r="AE110" s="25"/>
       <c r="AG110" s="22"/>
     </row>
-    <row r="111" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:33" ht="16.5" customHeight="1">
       <c r="A111" s="20"/>
       <c r="B111" s="26"/>
       <c r="Q111" s="25"/>
@@ -6708,7 +6707,7 @@
       <c r="AE111" s="25"/>
       <c r="AG111" s="22"/>
     </row>
-    <row r="112" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:33" ht="16.5" customHeight="1">
       <c r="A112" s="20"/>
       <c r="B112" s="26"/>
       <c r="Q112" s="25"/>
@@ -6724,7 +6723,7 @@
       <c r="AE112" s="25"/>
       <c r="AG112" s="22"/>
     </row>
-    <row r="113" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:33" ht="16.5" customHeight="1">
       <c r="A113" s="20"/>
       <c r="B113" s="26"/>
       <c r="Q113" s="25"/>
@@ -6740,7 +6739,7 @@
       <c r="AE113" s="25"/>
       <c r="AG113" s="22"/>
     </row>
-    <row r="114" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:33" ht="16.5" customHeight="1">
       <c r="A114" s="20"/>
       <c r="B114" s="26"/>
       <c r="Q114" s="25"/>
@@ -6756,7 +6755,7 @@
       <c r="AE114" s="25"/>
       <c r="AG114" s="22"/>
     </row>
-    <row r="115" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:33" ht="16.5" customHeight="1">
       <c r="A115" s="20"/>
       <c r="B115" s="26"/>
       <c r="Q115" s="25"/>
@@ -6772,7 +6771,7 @@
       <c r="AE115" s="25"/>
       <c r="AG115" s="22"/>
     </row>
-    <row r="116" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:33" ht="16.5" customHeight="1">
       <c r="A116" s="20"/>
       <c r="B116" s="26"/>
       <c r="Q116" s="25"/>
@@ -6788,7 +6787,7 @@
       <c r="AE116" s="25"/>
       <c r="AG116" s="22"/>
     </row>
-    <row r="117" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:33" ht="16.5" customHeight="1">
       <c r="A117" s="20"/>
       <c r="B117" s="26"/>
       <c r="Q117" s="25"/>
@@ -6804,7 +6803,7 @@
       <c r="AE117" s="25"/>
       <c r="AG117" s="22"/>
     </row>
-    <row r="118" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:33" ht="16.5" customHeight="1">
       <c r="A118" s="20"/>
       <c r="B118" s="26"/>
       <c r="Q118" s="25"/>
@@ -6820,7 +6819,7 @@
       <c r="AE118" s="25"/>
       <c r="AG118" s="22"/>
     </row>
-    <row r="119" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:33" ht="16.5" customHeight="1">
       <c r="A119" s="20"/>
       <c r="B119" s="26"/>
       <c r="Q119" s="25"/>
@@ -6836,7 +6835,7 @@
       <c r="AE119" s="25"/>
       <c r="AG119" s="22"/>
     </row>
-    <row r="120" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:33" ht="16.5" customHeight="1">
       <c r="A120" s="20"/>
       <c r="B120" s="26"/>
       <c r="Q120" s="25"/>
@@ -6852,7 +6851,7 @@
       <c r="AE120" s="25"/>
       <c r="AG120" s="22"/>
     </row>
-    <row r="121" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:33" ht="16.5" customHeight="1">
       <c r="A121" s="20"/>
       <c r="B121" s="26"/>
       <c r="Q121" s="25"/>
@@ -6868,7 +6867,7 @@
       <c r="AE121" s="25"/>
       <c r="AG121" s="22"/>
     </row>
-    <row r="122" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:33" ht="16.5" customHeight="1">
       <c r="A122" s="20"/>
       <c r="B122" s="26"/>
       <c r="Q122" s="25"/>
@@ -6884,7 +6883,7 @@
       <c r="AE122" s="25"/>
       <c r="AG122" s="22"/>
     </row>
-    <row r="123" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:33" ht="16.5" customHeight="1">
       <c r="A123" s="20"/>
       <c r="B123" s="26"/>
       <c r="Q123" s="25"/>
@@ -6900,7 +6899,7 @@
       <c r="AE123" s="25"/>
       <c r="AG123" s="22"/>
     </row>
-    <row r="124" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:33" ht="16.5" customHeight="1">
       <c r="A124" s="20"/>
       <c r="B124" s="26"/>
       <c r="Q124" s="25"/>
@@ -6916,7 +6915,7 @@
       <c r="AE124" s="25"/>
       <c r="AG124" s="22"/>
     </row>
-    <row r="125" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:33" ht="16.5" customHeight="1">
       <c r="A125" s="20"/>
       <c r="B125" s="26"/>
       <c r="Q125" s="25"/>
@@ -6932,7 +6931,7 @@
       <c r="AE125" s="25"/>
       <c r="AG125" s="22"/>
     </row>
-    <row r="126" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:33" ht="16.5" customHeight="1">
       <c r="A126" s="20"/>
       <c r="B126" s="26"/>
       <c r="Q126" s="25"/>
@@ -6948,7 +6947,7 @@
       <c r="AE126" s="25"/>
       <c r="AG126" s="22"/>
     </row>
-    <row r="127" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:33" ht="16.5" customHeight="1">
       <c r="A127" s="20"/>
       <c r="B127" s="26"/>
       <c r="Q127" s="25"/>
@@ -6964,7 +6963,7 @@
       <c r="AE127" s="25"/>
       <c r="AG127" s="22"/>
     </row>
-    <row r="128" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:33" ht="16.5" customHeight="1">
       <c r="A128" s="20"/>
       <c r="B128" s="26"/>
       <c r="Q128" s="25"/>
@@ -6980,7 +6979,7 @@
       <c r="AE128" s="25"/>
       <c r="AG128" s="22"/>
     </row>
-    <row r="129" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:33" ht="16.5" customHeight="1">
       <c r="A129" s="20"/>
       <c r="B129" s="26"/>
       <c r="Q129" s="25"/>
@@ -6996,7 +6995,7 @@
       <c r="AE129" s="25"/>
       <c r="AG129" s="22"/>
     </row>
-    <row r="130" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:33" ht="16.5" customHeight="1">
       <c r="A130" s="20"/>
       <c r="B130" s="26"/>
       <c r="Q130" s="25"/>
@@ -7012,7 +7011,7 @@
       <c r="AE130" s="25"/>
       <c r="AG130" s="22"/>
     </row>
-    <row r="131" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:33" ht="16.5" customHeight="1">
       <c r="A131" s="20"/>
       <c r="B131" s="26"/>
       <c r="Q131" s="25"/>
@@ -7028,7 +7027,7 @@
       <c r="AE131" s="25"/>
       <c r="AG131" s="22"/>
     </row>
-    <row r="132" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:33" ht="16.5" customHeight="1">
       <c r="A132" s="20"/>
       <c r="B132" s="26"/>
       <c r="Q132" s="25"/>
@@ -7044,7 +7043,7 @@
       <c r="AE132" s="25"/>
       <c r="AG132" s="22"/>
     </row>
-    <row r="133" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:33" ht="16.5" customHeight="1">
       <c r="A133" s="20"/>
       <c r="B133" s="26"/>
       <c r="Q133" s="25"/>
@@ -7060,7 +7059,7 @@
       <c r="AE133" s="25"/>
       <c r="AG133" s="22"/>
     </row>
-    <row r="134" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:33" ht="16.5" customHeight="1">
       <c r="A134" s="20"/>
       <c r="B134" s="26"/>
       <c r="Q134" s="25"/>
@@ -7076,7 +7075,7 @@
       <c r="AE134" s="25"/>
       <c r="AG134" s="22"/>
     </row>
-    <row r="135" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:33" ht="16.5" customHeight="1">
       <c r="A135" s="20"/>
       <c r="B135" s="26"/>
       <c r="Q135" s="25"/>
@@ -7092,7 +7091,7 @@
       <c r="AE135" s="25"/>
       <c r="AG135" s="22"/>
     </row>
-    <row r="136" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:33" ht="16.5" customHeight="1">
       <c r="A136" s="20"/>
       <c r="B136" s="26"/>
       <c r="Q136" s="25"/>
@@ -7108,7 +7107,7 @@
       <c r="AE136" s="25"/>
       <c r="AG136" s="22"/>
     </row>
-    <row r="137" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:33" ht="16.5" customHeight="1">
       <c r="A137" s="20"/>
       <c r="B137" s="26"/>
       <c r="Q137" s="25"/>
@@ -7124,7 +7123,7 @@
       <c r="AE137" s="25"/>
       <c r="AG137" s="22"/>
     </row>
-    <row r="138" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:33" ht="16.5" customHeight="1">
       <c r="A138" s="20"/>
       <c r="B138" s="26"/>
       <c r="Q138" s="25"/>
@@ -7140,7 +7139,7 @@
       <c r="AE138" s="25"/>
       <c r="AG138" s="22"/>
     </row>
-    <row r="139" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:33" ht="16.5" customHeight="1">
       <c r="A139" s="20"/>
       <c r="B139" s="26"/>
       <c r="Q139" s="25"/>
@@ -7156,7 +7155,7 @@
       <c r="AE139" s="25"/>
       <c r="AG139" s="22"/>
     </row>
-    <row r="140" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:33" ht="16.5" customHeight="1">
       <c r="A140" s="20"/>
       <c r="B140" s="26"/>
       <c r="Q140" s="25"/>
@@ -7172,7 +7171,7 @@
       <c r="AE140" s="25"/>
       <c r="AG140" s="22"/>
     </row>
-    <row r="141" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:33" ht="16.5" customHeight="1">
       <c r="A141" s="20"/>
       <c r="B141" s="26"/>
       <c r="Q141" s="25"/>
@@ -7188,7 +7187,7 @@
       <c r="AE141" s="25"/>
       <c r="AG141" s="22"/>
     </row>
-    <row r="142" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:33" ht="16.5" customHeight="1">
       <c r="A142" s="20"/>
       <c r="B142" s="26"/>
       <c r="Q142" s="25"/>
@@ -7204,7 +7203,7 @@
       <c r="AE142" s="25"/>
       <c r="AG142" s="22"/>
     </row>
-    <row r="143" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:33" ht="16.5" customHeight="1">
       <c r="A143" s="20"/>
       <c r="B143" s="26"/>
       <c r="Q143" s="25"/>
@@ -7220,7 +7219,7 @@
       <c r="AE143" s="25"/>
       <c r="AG143" s="22"/>
     </row>
-    <row r="144" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:33" ht="16.5" customHeight="1">
       <c r="A144" s="20"/>
       <c r="B144" s="26"/>
       <c r="Q144" s="25"/>
@@ -7236,7 +7235,7 @@
       <c r="AE144" s="25"/>
       <c r="AG144" s="22"/>
     </row>
-    <row r="145" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:33" ht="16.5" customHeight="1">
       <c r="A145" s="20"/>
       <c r="B145" s="26"/>
       <c r="Q145" s="25"/>
@@ -7252,7 +7251,7 @@
       <c r="AE145" s="25"/>
       <c r="AG145" s="22"/>
     </row>
-    <row r="146" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:33" ht="16.5" customHeight="1">
       <c r="A146" s="20"/>
       <c r="B146" s="26"/>
       <c r="Q146" s="25"/>
@@ -7268,7 +7267,7 @@
       <c r="AE146" s="25"/>
       <c r="AG146" s="22"/>
     </row>
-    <row r="147" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:33" ht="16.5" customHeight="1">
       <c r="A147" s="20"/>
       <c r="B147" s="26"/>
       <c r="Q147" s="25"/>
@@ -7284,7 +7283,7 @@
       <c r="AE147" s="25"/>
       <c r="AG147" s="22"/>
     </row>
-    <row r="148" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:33" ht="16.5" customHeight="1">
       <c r="A148" s="20"/>
       <c r="B148" s="26"/>
       <c r="Q148" s="25"/>
@@ -7300,7 +7299,7 @@
       <c r="AE148" s="25"/>
       <c r="AG148" s="22"/>
     </row>
-    <row r="149" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:33" ht="16.5" customHeight="1">
       <c r="A149" s="20"/>
       <c r="B149" s="26"/>
       <c r="Q149" s="25"/>
@@ -7316,7 +7315,7 @@
       <c r="AE149" s="25"/>
       <c r="AG149" s="22"/>
     </row>
-    <row r="150" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:33" ht="16.5" customHeight="1">
       <c r="A150" s="20"/>
       <c r="B150" s="26"/>
       <c r="Q150" s="25"/>
@@ -7332,7 +7331,7 @@
       <c r="AE150" s="25"/>
       <c r="AG150" s="22"/>
     </row>
-    <row r="151" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:33" ht="16.5" customHeight="1">
       <c r="A151" s="20"/>
       <c r="B151" s="26"/>
       <c r="Q151" s="25"/>
@@ -7348,7 +7347,7 @@
       <c r="AE151" s="25"/>
       <c r="AG151" s="22"/>
     </row>
-    <row r="152" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:33" ht="16.5" customHeight="1">
       <c r="A152" s="20"/>
       <c r="B152" s="26"/>
       <c r="Q152" s="25"/>
@@ -7364,7 +7363,7 @@
       <c r="AE152" s="25"/>
       <c r="AG152" s="22"/>
     </row>
-    <row r="153" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:33" ht="16.5" customHeight="1">
       <c r="A153" s="20"/>
       <c r="B153" s="26"/>
       <c r="Q153" s="25"/>
@@ -7380,7 +7379,7 @@
       <c r="AE153" s="25"/>
       <c r="AG153" s="22"/>
     </row>
-    <row r="154" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:33" ht="16.5" customHeight="1">
       <c r="A154" s="20"/>
       <c r="B154" s="26"/>
       <c r="Q154" s="25"/>
@@ -7396,7 +7395,7 @@
       <c r="AE154" s="25"/>
       <c r="AG154" s="22"/>
     </row>
-    <row r="155" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:33" ht="16.5" customHeight="1">
       <c r="A155" s="20"/>
       <c r="B155" s="26"/>
       <c r="Q155" s="25"/>
@@ -7412,7 +7411,7 @@
       <c r="AE155" s="25"/>
       <c r="AG155" s="22"/>
     </row>
-    <row r="156" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:33" ht="16.5" customHeight="1">
       <c r="A156" s="20"/>
       <c r="B156" s="26"/>
       <c r="Q156" s="25"/>
@@ -7428,7 +7427,7 @@
       <c r="AE156" s="25"/>
       <c r="AG156" s="22"/>
     </row>
-    <row r="157" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:33" ht="16.5" customHeight="1">
       <c r="A157" s="20"/>
       <c r="B157" s="26"/>
       <c r="Q157" s="25"/>
@@ -7444,7 +7443,7 @@
       <c r="AE157" s="25"/>
       <c r="AG157" s="22"/>
     </row>
-    <row r="158" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:33" ht="16.5" customHeight="1">
       <c r="A158" s="20"/>
       <c r="B158" s="26"/>
       <c r="Q158" s="25"/>
@@ -7460,7 +7459,7 @@
       <c r="AE158" s="25"/>
       <c r="AG158" s="22"/>
     </row>
-    <row r="159" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:33" ht="16.5" customHeight="1">
       <c r="A159" s="20"/>
       <c r="B159" s="26"/>
       <c r="Q159" s="25"/>
@@ -7476,7 +7475,7 @@
       <c r="AE159" s="25"/>
       <c r="AG159" s="22"/>
     </row>
-    <row r="160" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:33" ht="16.5" customHeight="1">
       <c r="A160" s="20"/>
       <c r="B160" s="26"/>
       <c r="Q160" s="25"/>
@@ -7492,7 +7491,7 @@
       <c r="AE160" s="25"/>
       <c r="AG160" s="22"/>
     </row>
-    <row r="161" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:33" ht="16.5" customHeight="1">
       <c r="A161" s="20"/>
       <c r="B161" s="26"/>
       <c r="Q161" s="25"/>
@@ -7508,7 +7507,7 @@
       <c r="AE161" s="25"/>
       <c r="AG161" s="22"/>
     </row>
-    <row r="162" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:33" ht="16.5" customHeight="1">
       <c r="A162" s="20"/>
       <c r="B162" s="26"/>
       <c r="Q162" s="25"/>
@@ -7524,7 +7523,7 @@
       <c r="AE162" s="25"/>
       <c r="AG162" s="22"/>
     </row>
-    <row r="163" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:33" ht="16.5" customHeight="1">
       <c r="A163" s="20"/>
       <c r="B163" s="26"/>
       <c r="Q163" s="25"/>
@@ -7540,7 +7539,7 @@
       <c r="AE163" s="25"/>
       <c r="AG163" s="22"/>
     </row>
-    <row r="164" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:33" ht="16.5" customHeight="1">
       <c r="A164" s="20"/>
       <c r="B164" s="26"/>
       <c r="Q164" s="25"/>
@@ -7556,7 +7555,7 @@
       <c r="AE164" s="25"/>
       <c r="AG164" s="22"/>
     </row>
-    <row r="165" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:33" ht="16.5" customHeight="1">
       <c r="A165" s="20"/>
       <c r="B165" s="26"/>
       <c r="Q165" s="25"/>
@@ -7572,7 +7571,7 @@
       <c r="AE165" s="25"/>
       <c r="AG165" s="22"/>
     </row>
-    <row r="166" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:33" ht="16.5" customHeight="1">
       <c r="A166" s="20"/>
       <c r="B166" s="26"/>
       <c r="Q166" s="25"/>
@@ -7588,7 +7587,7 @@
       <c r="AE166" s="25"/>
       <c r="AG166" s="22"/>
     </row>
-    <row r="167" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:33" ht="16.5" customHeight="1">
       <c r="A167" s="20"/>
       <c r="B167" s="26"/>
       <c r="Q167" s="25"/>
@@ -7604,7 +7603,7 @@
       <c r="AE167" s="25"/>
       <c r="AG167" s="22"/>
     </row>
-    <row r="168" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:33" ht="16.5" customHeight="1">
       <c r="A168" s="20"/>
       <c r="B168" s="26"/>
       <c r="Q168" s="25"/>
@@ -7620,7 +7619,7 @@
       <c r="AE168" s="25"/>
       <c r="AG168" s="22"/>
     </row>
-    <row r="169" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:33" ht="16.5" customHeight="1">
       <c r="A169" s="20"/>
       <c r="B169" s="26"/>
       <c r="Q169" s="25"/>
@@ -7636,7 +7635,7 @@
       <c r="AE169" s="25"/>
       <c r="AG169" s="22"/>
     </row>
-    <row r="170" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:33" ht="12.75">
       <c r="Q170" s="25"/>
       <c r="R170" s="25"/>
       <c r="S170" s="25"/>
@@ -7649,7 +7648,7 @@
       <c r="AD170" s="25"/>
       <c r="AE170" s="25"/>
     </row>
-    <row r="171" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:33" ht="12.75">
       <c r="Q171" s="25"/>
       <c r="R171" s="25"/>
       <c r="S171" s="25"/>
@@ -7662,7 +7661,7 @@
       <c r="AD171" s="25"/>
       <c r="AE171" s="25"/>
     </row>
-    <row r="172" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:33" ht="12.75">
       <c r="Q172" s="25"/>
       <c r="R172" s="25"/>
       <c r="S172" s="25"/>
@@ -7675,7 +7674,7 @@
       <c r="AD172" s="25"/>
       <c r="AE172" s="25"/>
     </row>
-    <row r="173" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:33" ht="12.75">
       <c r="Q173" s="25"/>
       <c r="R173" s="25"/>
       <c r="S173" s="25"/>
@@ -7688,7 +7687,7 @@
       <c r="AD173" s="25"/>
       <c r="AE173" s="25"/>
     </row>
-    <row r="174" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:33" ht="12.75">
       <c r="Q174" s="25"/>
       <c r="R174" s="25"/>
       <c r="S174" s="25"/>
@@ -7701,7 +7700,7 @@
       <c r="AD174" s="25"/>
       <c r="AE174" s="25"/>
     </row>
-    <row r="175" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:33" ht="12.75">
       <c r="Q175" s="25"/>
       <c r="R175" s="25"/>
       <c r="S175" s="25"/>
@@ -7714,7 +7713,7 @@
       <c r="AD175" s="25"/>
       <c r="AE175" s="25"/>
     </row>
-    <row r="176" spans="1:33" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:33" ht="12.75">
       <c r="Q176" s="25"/>
       <c r="R176" s="25"/>
       <c r="S176" s="25"/>
@@ -7727,7 +7726,7 @@
       <c r="AD176" s="25"/>
       <c r="AE176" s="25"/>
     </row>
-    <row r="177" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="17:31" ht="12.75">
       <c r="Q177" s="25"/>
       <c r="R177" s="25"/>
       <c r="S177" s="25"/>
@@ -7740,7 +7739,7 @@
       <c r="AD177" s="25"/>
       <c r="AE177" s="25"/>
     </row>
-    <row r="178" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="17:31" ht="12.75">
       <c r="Q178" s="25"/>
       <c r="R178" s="25"/>
       <c r="S178" s="25"/>
@@ -7753,7 +7752,7 @@
       <c r="AD178" s="25"/>
       <c r="AE178" s="25"/>
     </row>
-    <row r="179" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="17:31" ht="12.75">
       <c r="Q179" s="25"/>
       <c r="R179" s="25"/>
       <c r="S179" s="25"/>
@@ -7766,7 +7765,7 @@
       <c r="AD179" s="25"/>
       <c r="AE179" s="25"/>
     </row>
-    <row r="180" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="17:31" ht="12.75">
       <c r="Q180" s="25"/>
       <c r="R180" s="25"/>
       <c r="S180" s="25"/>
@@ -7779,7 +7778,7 @@
       <c r="AD180" s="25"/>
       <c r="AE180" s="25"/>
     </row>
-    <row r="181" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="17:31" ht="12.75">
       <c r="Q181" s="25"/>
       <c r="R181" s="25"/>
       <c r="S181" s="25"/>
@@ -7792,7 +7791,7 @@
       <c r="AD181" s="25"/>
       <c r="AE181" s="25"/>
     </row>
-    <row r="182" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="17:31" ht="12.75">
       <c r="Q182" s="25"/>
       <c r="R182" s="25"/>
       <c r="S182" s="25"/>
@@ -7805,7 +7804,7 @@
       <c r="AD182" s="25"/>
       <c r="AE182" s="25"/>
     </row>
-    <row r="183" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="17:31" ht="12.75">
       <c r="Q183" s="25"/>
       <c r="R183" s="25"/>
       <c r="S183" s="25"/>
@@ -7818,7 +7817,7 @@
       <c r="AD183" s="25"/>
       <c r="AE183" s="25"/>
     </row>
-    <row r="184" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="17:31" ht="12.75">
       <c r="Q184" s="25"/>
       <c r="R184" s="25"/>
       <c r="S184" s="25"/>
@@ -7831,7 +7830,7 @@
       <c r="AD184" s="25"/>
       <c r="AE184" s="25"/>
     </row>
-    <row r="185" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="17:31" ht="12.75">
       <c r="Q185" s="25"/>
       <c r="R185" s="25"/>
       <c r="S185" s="25"/>
@@ -7844,7 +7843,7 @@
       <c r="AD185" s="25"/>
       <c r="AE185" s="25"/>
     </row>
-    <row r="186" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="17:31" ht="12.75">
       <c r="Q186" s="25"/>
       <c r="R186" s="25"/>
       <c r="S186" s="25"/>
@@ -7857,7 +7856,7 @@
       <c r="AD186" s="25"/>
       <c r="AE186" s="25"/>
     </row>
-    <row r="187" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="17:31" ht="12.75">
       <c r="Q187" s="25"/>
       <c r="R187" s="25"/>
       <c r="S187" s="25"/>
@@ -7870,7 +7869,7 @@
       <c r="AD187" s="25"/>
       <c r="AE187" s="25"/>
     </row>
-    <row r="188" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="17:31" ht="12.75">
       <c r="Q188" s="25"/>
       <c r="R188" s="25"/>
       <c r="S188" s="25"/>
@@ -7883,7 +7882,7 @@
       <c r="AD188" s="25"/>
       <c r="AE188" s="25"/>
     </row>
-    <row r="189" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="17:31" ht="12.75">
       <c r="Q189" s="25"/>
       <c r="R189" s="25"/>
       <c r="S189" s="25"/>
@@ -7896,7 +7895,7 @@
       <c r="AD189" s="25"/>
       <c r="AE189" s="25"/>
     </row>
-    <row r="190" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="17:31" ht="12.75">
       <c r="Q190" s="25"/>
       <c r="R190" s="25"/>
       <c r="S190" s="25"/>
@@ -7909,7 +7908,7 @@
       <c r="AD190" s="25"/>
       <c r="AE190" s="25"/>
     </row>
-    <row r="191" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="17:31" ht="12.75">
       <c r="Q191" s="25"/>
       <c r="R191" s="25"/>
       <c r="S191" s="25"/>
@@ -7922,7 +7921,7 @@
       <c r="AD191" s="25"/>
       <c r="AE191" s="25"/>
     </row>
-    <row r="192" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="17:31" ht="12.75">
       <c r="Q192" s="25"/>
       <c r="R192" s="25"/>
       <c r="S192" s="25"/>
@@ -7935,7 +7934,7 @@
       <c r="AD192" s="25"/>
       <c r="AE192" s="25"/>
     </row>
-    <row r="193" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="17:31" ht="12.75">
       <c r="Q193" s="25"/>
       <c r="R193" s="25"/>
       <c r="S193" s="25"/>
@@ -7948,7 +7947,7 @@
       <c r="AD193" s="25"/>
       <c r="AE193" s="25"/>
     </row>
-    <row r="194" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="17:31" ht="12.75">
       <c r="Q194" s="25"/>
       <c r="R194" s="25"/>
       <c r="S194" s="25"/>
@@ -7961,7 +7960,7 @@
       <c r="AD194" s="25"/>
       <c r="AE194" s="25"/>
     </row>
-    <row r="195" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="17:31" ht="12.75">
       <c r="Q195" s="25"/>
       <c r="R195" s="25"/>
       <c r="S195" s="25"/>
@@ -7974,7 +7973,7 @@
       <c r="AD195" s="25"/>
       <c r="AE195" s="25"/>
     </row>
-    <row r="196" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="17:31" ht="12.75">
       <c r="Q196" s="25"/>
       <c r="R196" s="25"/>
       <c r="S196" s="25"/>
@@ -7987,7 +7986,7 @@
       <c r="AD196" s="25"/>
       <c r="AE196" s="25"/>
     </row>
-    <row r="197" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="17:31" ht="12.75">
       <c r="Q197" s="25"/>
       <c r="R197" s="25"/>
       <c r="S197" s="25"/>
@@ -8000,7 +7999,7 @@
       <c r="AD197" s="25"/>
       <c r="AE197" s="25"/>
     </row>
-    <row r="198" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="17:31" ht="12.75">
       <c r="Q198" s="25"/>
       <c r="R198" s="25"/>
       <c r="S198" s="25"/>
@@ -8013,7 +8012,7 @@
       <c r="AD198" s="25"/>
       <c r="AE198" s="25"/>
     </row>
-    <row r="199" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="17:31" ht="12.75">
       <c r="Q199" s="25"/>
       <c r="R199" s="25"/>
       <c r="S199" s="25"/>
@@ -8026,7 +8025,7 @@
       <c r="AD199" s="25"/>
       <c r="AE199" s="25"/>
     </row>
-    <row r="200" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="17:31" ht="12.75">
       <c r="Q200" s="25"/>
       <c r="R200" s="25"/>
       <c r="S200" s="25"/>
@@ -8039,7 +8038,7 @@
       <c r="AD200" s="25"/>
       <c r="AE200" s="25"/>
     </row>
-    <row r="201" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="17:31" ht="12.75">
       <c r="Q201" s="25"/>
       <c r="R201" s="25"/>
       <c r="S201" s="25"/>
@@ -8052,7 +8051,7 @@
       <c r="AD201" s="25"/>
       <c r="AE201" s="25"/>
     </row>
-    <row r="202" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="17:31" ht="12.75">
       <c r="Q202" s="25"/>
       <c r="R202" s="25"/>
       <c r="S202" s="25"/>
@@ -8065,7 +8064,7 @@
       <c r="AD202" s="25"/>
       <c r="AE202" s="25"/>
     </row>
-    <row r="203" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="17:31" ht="12.75">
       <c r="Q203" s="25"/>
       <c r="R203" s="25"/>
       <c r="S203" s="25"/>
@@ -8078,7 +8077,7 @@
       <c r="AD203" s="25"/>
       <c r="AE203" s="25"/>
     </row>
-    <row r="204" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="17:31" ht="12.75">
       <c r="Q204" s="25"/>
       <c r="R204" s="25"/>
       <c r="S204" s="25"/>
@@ -8091,7 +8090,7 @@
       <c r="AD204" s="25"/>
       <c r="AE204" s="25"/>
     </row>
-    <row r="205" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="17:31" ht="12.75">
       <c r="Q205" s="25"/>
       <c r="R205" s="25"/>
       <c r="S205" s="25"/>
@@ -8104,7 +8103,7 @@
       <c r="AD205" s="25"/>
       <c r="AE205" s="25"/>
     </row>
-    <row r="206" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="17:31" ht="12.75">
       <c r="Q206" s="25"/>
       <c r="R206" s="25"/>
       <c r="S206" s="25"/>
@@ -8117,7 +8116,7 @@
       <c r="AD206" s="25"/>
       <c r="AE206" s="25"/>
     </row>
-    <row r="207" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="17:31" ht="12.75">
       <c r="Q207" s="25"/>
       <c r="R207" s="25"/>
       <c r="S207" s="25"/>
@@ -8130,7 +8129,7 @@
       <c r="AD207" s="25"/>
       <c r="AE207" s="25"/>
     </row>
-    <row r="208" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="17:31" ht="12.75">
       <c r="Q208" s="25"/>
       <c r="R208" s="25"/>
       <c r="S208" s="25"/>
@@ -8143,7 +8142,7 @@
       <c r="AD208" s="25"/>
       <c r="AE208" s="25"/>
     </row>
-    <row r="209" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="17:31" ht="12.75">
       <c r="Q209" s="25"/>
       <c r="R209" s="25"/>
       <c r="S209" s="25"/>
@@ -8156,7 +8155,7 @@
       <c r="AD209" s="25"/>
       <c r="AE209" s="25"/>
     </row>
-    <row r="210" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="17:31" ht="12.75">
       <c r="Q210" s="25"/>
       <c r="R210" s="25"/>
       <c r="S210" s="25"/>
@@ -8169,7 +8168,7 @@
       <c r="AD210" s="25"/>
       <c r="AE210" s="25"/>
     </row>
-    <row r="211" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="17:31" ht="12.75">
       <c r="Q211" s="25"/>
       <c r="R211" s="25"/>
       <c r="S211" s="25"/>
@@ -8182,7 +8181,7 @@
       <c r="AD211" s="25"/>
       <c r="AE211" s="25"/>
     </row>
-    <row r="212" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="17:31" ht="12.75">
       <c r="Q212" s="25"/>
       <c r="R212" s="25"/>
       <c r="S212" s="25"/>
@@ -8195,7 +8194,7 @@
       <c r="AD212" s="25"/>
       <c r="AE212" s="25"/>
     </row>
-    <row r="213" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="17:31" ht="12.75">
       <c r="Q213" s="25"/>
       <c r="R213" s="25"/>
       <c r="S213" s="25"/>
@@ -8208,7 +8207,7 @@
       <c r="AD213" s="25"/>
       <c r="AE213" s="25"/>
     </row>
-    <row r="214" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="17:31" ht="12.75">
       <c r="Q214" s="25"/>
       <c r="R214" s="25"/>
       <c r="S214" s="25"/>
@@ -8221,7 +8220,7 @@
       <c r="AD214" s="25"/>
       <c r="AE214" s="25"/>
     </row>
-    <row r="215" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="17:31" ht="12.75">
       <c r="Q215" s="25"/>
       <c r="R215" s="25"/>
       <c r="S215" s="25"/>
@@ -8234,7 +8233,7 @@
       <c r="AD215" s="25"/>
       <c r="AE215" s="25"/>
     </row>
-    <row r="216" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="17:31" ht="12.75">
       <c r="Q216" s="25"/>
       <c r="R216" s="25"/>
       <c r="S216" s="25"/>
@@ -8247,7 +8246,7 @@
       <c r="AD216" s="25"/>
       <c r="AE216" s="25"/>
     </row>
-    <row r="217" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="17:31" ht="12.75">
       <c r="Q217" s="25"/>
       <c r="R217" s="25"/>
       <c r="S217" s="25"/>
@@ -8260,7 +8259,7 @@
       <c r="AD217" s="25"/>
       <c r="AE217" s="25"/>
     </row>
-    <row r="218" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="17:31" ht="12.75">
       <c r="Q218" s="25"/>
       <c r="R218" s="25"/>
       <c r="S218" s="25"/>
@@ -8273,7 +8272,7 @@
       <c r="AD218" s="25"/>
       <c r="AE218" s="25"/>
     </row>
-    <row r="219" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="17:31" ht="12.75">
       <c r="Q219" s="25"/>
       <c r="R219" s="25"/>
       <c r="S219" s="25"/>
@@ -8286,7 +8285,7 @@
       <c r="AD219" s="25"/>
       <c r="AE219" s="25"/>
     </row>
-    <row r="220" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="17:31" ht="12.75">
       <c r="Q220" s="25"/>
       <c r="R220" s="25"/>
       <c r="S220" s="25"/>
@@ -8299,7 +8298,7 @@
       <c r="AD220" s="25"/>
       <c r="AE220" s="25"/>
     </row>
-    <row r="221" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="17:31" ht="12.75">
       <c r="Q221" s="25"/>
       <c r="R221" s="25"/>
       <c r="S221" s="25"/>
@@ -8312,7 +8311,7 @@
       <c r="AD221" s="25"/>
       <c r="AE221" s="25"/>
     </row>
-    <row r="222" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="17:31" ht="12.75">
       <c r="Q222" s="25"/>
       <c r="R222" s="25"/>
       <c r="S222" s="25"/>
@@ -8325,7 +8324,7 @@
       <c r="AD222" s="25"/>
       <c r="AE222" s="25"/>
     </row>
-    <row r="223" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="17:31" ht="12.75">
       <c r="Q223" s="25"/>
       <c r="R223" s="25"/>
       <c r="S223" s="25"/>
@@ -8338,7 +8337,7 @@
       <c r="AD223" s="25"/>
       <c r="AE223" s="25"/>
     </row>
-    <row r="224" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="17:31" ht="12.75">
       <c r="Q224" s="25"/>
       <c r="R224" s="25"/>
       <c r="S224" s="25"/>
@@ -8351,7 +8350,7 @@
       <c r="AD224" s="25"/>
       <c r="AE224" s="25"/>
     </row>
-    <row r="225" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="17:31" ht="12.75">
       <c r="Q225" s="25"/>
       <c r="R225" s="25"/>
       <c r="S225" s="25"/>
@@ -8364,7 +8363,7 @@
       <c r="AD225" s="25"/>
       <c r="AE225" s="25"/>
     </row>
-    <row r="226" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="17:31" ht="12.75">
       <c r="Q226" s="25"/>
       <c r="R226" s="25"/>
       <c r="S226" s="25"/>
@@ -8377,7 +8376,7 @@
       <c r="AD226" s="25"/>
       <c r="AE226" s="25"/>
     </row>
-    <row r="227" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="17:31" ht="12.75">
       <c r="Q227" s="25"/>
       <c r="R227" s="25"/>
       <c r="S227" s="25"/>
@@ -8390,7 +8389,7 @@
       <c r="AD227" s="25"/>
       <c r="AE227" s="25"/>
     </row>
-    <row r="228" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="17:31" ht="12.75">
       <c r="Q228" s="25"/>
       <c r="R228" s="25"/>
       <c r="S228" s="25"/>
@@ -8403,7 +8402,7 @@
       <c r="AD228" s="25"/>
       <c r="AE228" s="25"/>
     </row>
-    <row r="229" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="17:31" ht="12.75">
       <c r="Q229" s="25"/>
       <c r="R229" s="25"/>
       <c r="S229" s="25"/>
@@ -8416,7 +8415,7 @@
       <c r="AD229" s="25"/>
       <c r="AE229" s="25"/>
     </row>
-    <row r="230" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="17:31" ht="12.75">
       <c r="Q230" s="25"/>
       <c r="R230" s="25"/>
       <c r="S230" s="25"/>
@@ -8429,7 +8428,7 @@
       <c r="AD230" s="25"/>
       <c r="AE230" s="25"/>
     </row>
-    <row r="231" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="17:31" ht="12.75">
       <c r="Q231" s="25"/>
       <c r="R231" s="25"/>
       <c r="S231" s="25"/>
@@ -8442,7 +8441,7 @@
       <c r="AD231" s="25"/>
       <c r="AE231" s="25"/>
     </row>
-    <row r="232" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="17:31" ht="12.75">
       <c r="Q232" s="25"/>
       <c r="R232" s="25"/>
       <c r="S232" s="25"/>
@@ -8455,7 +8454,7 @@
       <c r="AD232" s="25"/>
       <c r="AE232" s="25"/>
     </row>
-    <row r="233" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="17:31" ht="12.75">
       <c r="Q233" s="25"/>
       <c r="R233" s="25"/>
       <c r="S233" s="25"/>
@@ -8468,7 +8467,7 @@
       <c r="AD233" s="25"/>
       <c r="AE233" s="25"/>
     </row>
-    <row r="234" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="17:31" ht="12.75">
       <c r="Q234" s="25"/>
       <c r="R234" s="25"/>
       <c r="S234" s="25"/>
@@ -8481,7 +8480,7 @@
       <c r="AD234" s="25"/>
       <c r="AE234" s="25"/>
     </row>
-    <row r="235" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="17:31" ht="12.75">
       <c r="Q235" s="25"/>
       <c r="R235" s="25"/>
       <c r="S235" s="25"/>
@@ -8494,7 +8493,7 @@
       <c r="AD235" s="25"/>
       <c r="AE235" s="25"/>
     </row>
-    <row r="236" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="17:31" ht="12.75">
       <c r="Q236" s="25"/>
       <c r="R236" s="25"/>
       <c r="S236" s="25"/>
@@ -8507,7 +8506,7 @@
       <c r="AD236" s="25"/>
       <c r="AE236" s="25"/>
     </row>
-    <row r="237" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="17:31" ht="12.75">
       <c r="Q237" s="25"/>
       <c r="R237" s="25"/>
       <c r="S237" s="25"/>
@@ -8520,7 +8519,7 @@
       <c r="AD237" s="25"/>
       <c r="AE237" s="25"/>
     </row>
-    <row r="238" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="17:31" ht="12.75">
       <c r="Q238" s="25"/>
       <c r="R238" s="25"/>
       <c r="S238" s="25"/>
@@ -8533,7 +8532,7 @@
       <c r="AD238" s="25"/>
       <c r="AE238" s="25"/>
     </row>
-    <row r="239" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="17:31" ht="12.75">
       <c r="Q239" s="25"/>
       <c r="R239" s="25"/>
       <c r="S239" s="25"/>
@@ -8546,7 +8545,7 @@
       <c r="AD239" s="25"/>
       <c r="AE239" s="25"/>
     </row>
-    <row r="240" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="17:31" ht="12.75">
       <c r="Q240" s="25"/>
       <c r="R240" s="25"/>
       <c r="S240" s="25"/>
@@ -8559,7 +8558,7 @@
       <c r="AD240" s="25"/>
       <c r="AE240" s="25"/>
     </row>
-    <row r="241" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="17:31" ht="12.75">
       <c r="Q241" s="25"/>
       <c r="R241" s="25"/>
       <c r="S241" s="25"/>
@@ -8572,7 +8571,7 @@
       <c r="AD241" s="25"/>
       <c r="AE241" s="25"/>
     </row>
-    <row r="242" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="17:31" ht="12.75">
       <c r="Q242" s="25"/>
       <c r="R242" s="25"/>
       <c r="S242" s="25"/>
@@ -8585,7 +8584,7 @@
       <c r="AD242" s="25"/>
       <c r="AE242" s="25"/>
     </row>
-    <row r="243" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="17:31" ht="12.75">
       <c r="Q243" s="25"/>
       <c r="R243" s="25"/>
       <c r="S243" s="25"/>
@@ -8598,7 +8597,7 @@
       <c r="AD243" s="25"/>
       <c r="AE243" s="25"/>
     </row>
-    <row r="244" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="17:31" ht="12.75">
       <c r="Q244" s="25"/>
       <c r="R244" s="25"/>
       <c r="S244" s="25"/>
@@ -8611,7 +8610,7 @@
       <c r="AD244" s="25"/>
       <c r="AE244" s="25"/>
     </row>
-    <row r="245" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="17:31" ht="12.75">
       <c r="Q245" s="25"/>
       <c r="R245" s="25"/>
       <c r="S245" s="25"/>
@@ -8624,7 +8623,7 @@
       <c r="AD245" s="25"/>
       <c r="AE245" s="25"/>
     </row>
-    <row r="246" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="17:31" ht="12.75">
       <c r="Q246" s="25"/>
       <c r="R246" s="25"/>
       <c r="S246" s="25"/>
@@ -8637,7 +8636,7 @@
       <c r="AD246" s="25"/>
       <c r="AE246" s="25"/>
     </row>
-    <row r="247" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="17:31" ht="12.75">
       <c r="Q247" s="25"/>
       <c r="R247" s="25"/>
       <c r="S247" s="25"/>
@@ -8650,7 +8649,7 @@
       <c r="AD247" s="25"/>
       <c r="AE247" s="25"/>
     </row>
-    <row r="248" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="17:31" ht="12.75">
       <c r="Q248" s="25"/>
       <c r="R248" s="25"/>
       <c r="S248" s="25"/>
@@ -8663,7 +8662,7 @@
       <c r="AD248" s="25"/>
       <c r="AE248" s="25"/>
     </row>
-    <row r="249" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="17:31" ht="12.75">
       <c r="Q249" s="25"/>
       <c r="R249" s="25"/>
       <c r="S249" s="25"/>
@@ -8676,7 +8675,7 @@
       <c r="AD249" s="25"/>
       <c r="AE249" s="25"/>
     </row>
-    <row r="250" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="17:31" ht="12.75">
       <c r="Q250" s="25"/>
       <c r="R250" s="25"/>
       <c r="S250" s="25"/>
@@ -8689,7 +8688,7 @@
       <c r="AD250" s="25"/>
       <c r="AE250" s="25"/>
     </row>
-    <row r="251" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="17:31" ht="12.75">
       <c r="Q251" s="25"/>
       <c r="R251" s="25"/>
       <c r="S251" s="25"/>
@@ -8702,7 +8701,7 @@
       <c r="AD251" s="25"/>
       <c r="AE251" s="25"/>
     </row>
-    <row r="252" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="17:31" ht="12.75">
       <c r="Q252" s="25"/>
       <c r="R252" s="25"/>
       <c r="S252" s="25"/>
@@ -8715,7 +8714,7 @@
       <c r="AD252" s="25"/>
       <c r="AE252" s="25"/>
     </row>
-    <row r="253" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="17:31" ht="12.75">
       <c r="Q253" s="25"/>
       <c r="R253" s="25"/>
       <c r="S253" s="25"/>
@@ -8728,7 +8727,7 @@
       <c r="AD253" s="25"/>
       <c r="AE253" s="25"/>
     </row>
-    <row r="254" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="17:31" ht="12.75">
       <c r="Q254" s="25"/>
       <c r="R254" s="25"/>
       <c r="S254" s="25"/>
@@ -8741,7 +8740,7 @@
       <c r="AD254" s="25"/>
       <c r="AE254" s="25"/>
     </row>
-    <row r="255" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="17:31" ht="12.75">
       <c r="Q255" s="25"/>
       <c r="R255" s="25"/>
       <c r="S255" s="25"/>
@@ -8754,7 +8753,7 @@
       <c r="AD255" s="25"/>
       <c r="AE255" s="25"/>
     </row>
-    <row r="256" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="17:31" ht="12.75">
       <c r="Q256" s="25"/>
       <c r="R256" s="25"/>
       <c r="S256" s="25"/>
@@ -8767,7 +8766,7 @@
       <c r="AD256" s="25"/>
       <c r="AE256" s="25"/>
     </row>
-    <row r="257" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="17:31" ht="12.75">
       <c r="Q257" s="25"/>
       <c r="R257" s="25"/>
       <c r="S257" s="25"/>
@@ -8780,7 +8779,7 @@
       <c r="AD257" s="25"/>
       <c r="AE257" s="25"/>
     </row>
-    <row r="258" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="17:31" ht="12.75">
       <c r="Q258" s="25"/>
       <c r="R258" s="25"/>
       <c r="S258" s="25"/>
@@ -8793,7 +8792,7 @@
       <c r="AD258" s="25"/>
       <c r="AE258" s="25"/>
     </row>
-    <row r="259" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="17:31" ht="12.75">
       <c r="Q259" s="25"/>
       <c r="R259" s="25"/>
       <c r="S259" s="25"/>
@@ -8806,7 +8805,7 @@
       <c r="AD259" s="25"/>
       <c r="AE259" s="25"/>
     </row>
-    <row r="260" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="17:31" ht="12.75">
       <c r="Q260" s="25"/>
       <c r="R260" s="25"/>
       <c r="S260" s="25"/>
@@ -8819,7 +8818,7 @@
       <c r="AD260" s="25"/>
       <c r="AE260" s="25"/>
     </row>
-    <row r="261" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="17:31" ht="12.75">
       <c r="Q261" s="25"/>
       <c r="R261" s="25"/>
       <c r="S261" s="25"/>
@@ -8832,7 +8831,7 @@
       <c r="AD261" s="25"/>
       <c r="AE261" s="25"/>
     </row>
-    <row r="262" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="17:31" ht="12.75">
       <c r="Q262" s="25"/>
       <c r="R262" s="25"/>
       <c r="S262" s="25"/>
@@ -8845,7 +8844,7 @@
       <c r="AD262" s="25"/>
       <c r="AE262" s="25"/>
     </row>
-    <row r="263" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="17:31" ht="12.75">
       <c r="Q263" s="25"/>
       <c r="R263" s="25"/>
       <c r="S263" s="25"/>
@@ -8858,7 +8857,7 @@
       <c r="AD263" s="25"/>
       <c r="AE263" s="25"/>
     </row>
-    <row r="264" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="17:31" ht="12.75">
       <c r="Q264" s="25"/>
       <c r="R264" s="25"/>
       <c r="S264" s="25"/>
@@ -8871,7 +8870,7 @@
       <c r="AD264" s="25"/>
       <c r="AE264" s="25"/>
     </row>
-    <row r="265" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="17:31" ht="12.75">
       <c r="Q265" s="25"/>
       <c r="R265" s="25"/>
       <c r="S265" s="25"/>
@@ -8884,7 +8883,7 @@
       <c r="AD265" s="25"/>
       <c r="AE265" s="25"/>
     </row>
-    <row r="266" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="17:31" ht="12.75">
       <c r="Q266" s="25"/>
       <c r="R266" s="25"/>
       <c r="S266" s="25"/>
@@ -8897,7 +8896,7 @@
       <c r="AD266" s="25"/>
       <c r="AE266" s="25"/>
     </row>
-    <row r="267" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="17:31" ht="12.75">
       <c r="Q267" s="25"/>
       <c r="R267" s="25"/>
       <c r="S267" s="25"/>
@@ -8910,7 +8909,7 @@
       <c r="AD267" s="25"/>
       <c r="AE267" s="25"/>
     </row>
-    <row r="268" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="17:31" ht="12.75">
       <c r="Q268" s="25"/>
       <c r="R268" s="25"/>
       <c r="S268" s="25"/>
@@ -8923,7 +8922,7 @@
       <c r="AD268" s="25"/>
       <c r="AE268" s="25"/>
     </row>
-    <row r="269" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="17:31" ht="12.75">
       <c r="Q269" s="25"/>
       <c r="R269" s="25"/>
       <c r="S269" s="25"/>
@@ -8936,7 +8935,7 @@
       <c r="AD269" s="25"/>
       <c r="AE269" s="25"/>
     </row>
-    <row r="270" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="17:31" ht="12.75">
       <c r="Q270" s="25"/>
       <c r="R270" s="25"/>
       <c r="S270" s="25"/>
@@ -8949,7 +8948,7 @@
       <c r="AD270" s="25"/>
       <c r="AE270" s="25"/>
     </row>
-    <row r="271" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="17:31" ht="12.75">
       <c r="Q271" s="25"/>
       <c r="R271" s="25"/>
       <c r="S271" s="25"/>
@@ -8962,7 +8961,7 @@
       <c r="AD271" s="25"/>
       <c r="AE271" s="25"/>
     </row>
-    <row r="272" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="17:31" ht="12.75">
       <c r="Q272" s="25"/>
       <c r="R272" s="25"/>
       <c r="S272" s="25"/>
@@ -8975,7 +8974,7 @@
       <c r="AD272" s="25"/>
       <c r="AE272" s="25"/>
     </row>
-    <row r="273" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="17:31" ht="12.75">
       <c r="Q273" s="25"/>
       <c r="R273" s="25"/>
       <c r="S273" s="25"/>
@@ -8988,7 +8987,7 @@
       <c r="AD273" s="25"/>
       <c r="AE273" s="25"/>
     </row>
-    <row r="274" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="17:31" ht="12.75">
       <c r="Q274" s="25"/>
       <c r="R274" s="25"/>
       <c r="S274" s="25"/>
@@ -9001,7 +9000,7 @@
       <c r="AD274" s="25"/>
       <c r="AE274" s="25"/>
     </row>
-    <row r="275" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="17:31" ht="12.75">
       <c r="Q275" s="25"/>
       <c r="R275" s="25"/>
       <c r="S275" s="25"/>
@@ -9014,7 +9013,7 @@
       <c r="AD275" s="25"/>
       <c r="AE275" s="25"/>
     </row>
-    <row r="276" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="17:31" ht="12.75">
       <c r="Q276" s="25"/>
       <c r="R276" s="25"/>
       <c r="S276" s="25"/>
@@ -9027,7 +9026,7 @@
       <c r="AD276" s="25"/>
       <c r="AE276" s="25"/>
     </row>
-    <row r="277" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="17:31" ht="12.75">
       <c r="Q277" s="25"/>
       <c r="R277" s="25"/>
       <c r="S277" s="25"/>
@@ -9040,7 +9039,7 @@
       <c r="AD277" s="25"/>
       <c r="AE277" s="25"/>
     </row>
-    <row r="278" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="17:31" ht="12.75">
       <c r="Q278" s="25"/>
       <c r="R278" s="25"/>
       <c r="S278" s="25"/>
@@ -9053,7 +9052,7 @@
       <c r="AD278" s="25"/>
       <c r="AE278" s="25"/>
     </row>
-    <row r="279" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="17:31" ht="12.75">
       <c r="Q279" s="25"/>
       <c r="R279" s="25"/>
       <c r="S279" s="25"/>
@@ -9066,7 +9065,7 @@
       <c r="AD279" s="25"/>
       <c r="AE279" s="25"/>
     </row>
-    <row r="280" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="17:31" ht="12.75">
       <c r="Q280" s="25"/>
       <c r="R280" s="25"/>
       <c r="S280" s="25"/>
@@ -9079,7 +9078,7 @@
       <c r="AD280" s="25"/>
       <c r="AE280" s="25"/>
     </row>
-    <row r="281" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="17:31" ht="12.75">
       <c r="Q281" s="25"/>
       <c r="R281" s="25"/>
       <c r="S281" s="25"/>
@@ -9092,7 +9091,7 @@
       <c r="AD281" s="25"/>
       <c r="AE281" s="25"/>
     </row>
-    <row r="282" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="17:31" ht="12.75">
       <c r="Q282" s="25"/>
       <c r="R282" s="25"/>
       <c r="S282" s="25"/>
@@ -9105,7 +9104,7 @@
       <c r="AD282" s="25"/>
       <c r="AE282" s="25"/>
     </row>
-    <row r="283" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="17:31" ht="12.75">
       <c r="Q283" s="25"/>
       <c r="R283" s="25"/>
       <c r="S283" s="25"/>
@@ -9118,7 +9117,7 @@
       <c r="AD283" s="25"/>
       <c r="AE283" s="25"/>
     </row>
-    <row r="284" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="17:31" ht="12.75">
       <c r="Q284" s="25"/>
       <c r="R284" s="25"/>
       <c r="S284" s="25"/>
@@ -9131,7 +9130,7 @@
       <c r="AD284" s="25"/>
       <c r="AE284" s="25"/>
     </row>
-    <row r="285" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="17:31" ht="12.75">
       <c r="Q285" s="25"/>
       <c r="R285" s="25"/>
       <c r="S285" s="25"/>
@@ -9144,7 +9143,7 @@
       <c r="AD285" s="25"/>
       <c r="AE285" s="25"/>
     </row>
-    <row r="286" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="17:31" ht="12.75">
       <c r="Q286" s="25"/>
       <c r="R286" s="25"/>
       <c r="S286" s="25"/>
@@ -9157,7 +9156,7 @@
       <c r="AD286" s="25"/>
       <c r="AE286" s="25"/>
     </row>
-    <row r="287" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="17:31" ht="12.75">
       <c r="Q287" s="25"/>
       <c r="R287" s="25"/>
       <c r="S287" s="25"/>
@@ -9170,7 +9169,7 @@
       <c r="AD287" s="25"/>
       <c r="AE287" s="25"/>
     </row>
-    <row r="288" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="17:31" ht="12.75">
       <c r="Q288" s="25"/>
       <c r="R288" s="25"/>
       <c r="S288" s="25"/>
@@ -9183,7 +9182,7 @@
       <c r="AD288" s="25"/>
       <c r="AE288" s="25"/>
     </row>
-    <row r="289" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="17:31" ht="12.75">
       <c r="Q289" s="25"/>
       <c r="R289" s="25"/>
       <c r="S289" s="25"/>
@@ -9196,7 +9195,7 @@
       <c r="AD289" s="25"/>
       <c r="AE289" s="25"/>
     </row>
-    <row r="290" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="17:31" ht="12.75">
       <c r="Q290" s="25"/>
       <c r="R290" s="25"/>
       <c r="S290" s="25"/>
@@ -9209,7 +9208,7 @@
       <c r="AD290" s="25"/>
       <c r="AE290" s="25"/>
     </row>
-    <row r="291" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="17:31" ht="12.75">
       <c r="Q291" s="25"/>
       <c r="R291" s="25"/>
       <c r="S291" s="25"/>
@@ -9222,7 +9221,7 @@
       <c r="AD291" s="25"/>
       <c r="AE291" s="25"/>
     </row>
-    <row r="292" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="17:31" ht="12.75">
       <c r="Q292" s="25"/>
       <c r="R292" s="25"/>
       <c r="S292" s="25"/>
@@ -9235,7 +9234,7 @@
       <c r="AD292" s="25"/>
       <c r="AE292" s="25"/>
     </row>
-    <row r="293" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="17:31" ht="12.75">
       <c r="Q293" s="25"/>
       <c r="R293" s="25"/>
       <c r="S293" s="25"/>
@@ -9248,7 +9247,7 @@
       <c r="AD293" s="25"/>
       <c r="AE293" s="25"/>
     </row>
-    <row r="294" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="17:31" ht="12.75">
       <c r="Q294" s="25"/>
       <c r="R294" s="25"/>
       <c r="S294" s="25"/>
@@ -9261,7 +9260,7 @@
       <c r="AD294" s="25"/>
       <c r="AE294" s="25"/>
     </row>
-    <row r="295" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="17:31" ht="12.75">
       <c r="Q295" s="25"/>
       <c r="R295" s="25"/>
       <c r="S295" s="25"/>
@@ -9274,7 +9273,7 @@
       <c r="AD295" s="25"/>
       <c r="AE295" s="25"/>
     </row>
-    <row r="296" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="17:31" ht="12.75">
       <c r="Q296" s="25"/>
       <c r="R296" s="25"/>
       <c r="S296" s="25"/>
@@ -9287,7 +9286,7 @@
       <c r="AD296" s="25"/>
       <c r="AE296" s="25"/>
     </row>
-    <row r="297" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="17:31" ht="12.75">
       <c r="Q297" s="25"/>
       <c r="R297" s="25"/>
       <c r="S297" s="25"/>
@@ -9300,7 +9299,7 @@
       <c r="AD297" s="25"/>
       <c r="AE297" s="25"/>
     </row>
-    <row r="298" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="17:31" ht="12.75">
       <c r="Q298" s="25"/>
       <c r="R298" s="25"/>
       <c r="S298" s="25"/>
@@ -9313,7 +9312,7 @@
       <c r="AD298" s="25"/>
       <c r="AE298" s="25"/>
     </row>
-    <row r="299" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="17:31" ht="12.75">
       <c r="Q299" s="25"/>
       <c r="R299" s="25"/>
       <c r="S299" s="25"/>
@@ -9326,7 +9325,7 @@
       <c r="AD299" s="25"/>
       <c r="AE299" s="25"/>
     </row>
-    <row r="300" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="17:31" ht="12.75">
       <c r="Q300" s="25"/>
       <c r="R300" s="25"/>
       <c r="S300" s="25"/>
@@ -9339,7 +9338,7 @@
       <c r="AD300" s="25"/>
       <c r="AE300" s="25"/>
     </row>
-    <row r="301" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="17:31" ht="12.75">
       <c r="Q301" s="25"/>
       <c r="R301" s="25"/>
       <c r="S301" s="25"/>
@@ -9352,7 +9351,7 @@
       <c r="AD301" s="25"/>
       <c r="AE301" s="25"/>
     </row>
-    <row r="302" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="17:31" ht="12.75">
       <c r="Q302" s="25"/>
       <c r="R302" s="25"/>
       <c r="S302" s="25"/>
@@ -9365,7 +9364,7 @@
       <c r="AD302" s="25"/>
       <c r="AE302" s="25"/>
     </row>
-    <row r="303" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="17:31" ht="12.75">
       <c r="Q303" s="25"/>
       <c r="R303" s="25"/>
       <c r="S303" s="25"/>
@@ -9378,7 +9377,7 @@
       <c r="AD303" s="25"/>
       <c r="AE303" s="25"/>
     </row>
-    <row r="304" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="17:31" ht="12.75">
       <c r="Q304" s="25"/>
       <c r="R304" s="25"/>
       <c r="S304" s="25"/>
@@ -9391,7 +9390,7 @@
       <c r="AD304" s="25"/>
       <c r="AE304" s="25"/>
     </row>
-    <row r="305" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="17:31" ht="12.75">
       <c r="Q305" s="25"/>
       <c r="R305" s="25"/>
       <c r="S305" s="25"/>
@@ -9404,7 +9403,7 @@
       <c r="AD305" s="25"/>
       <c r="AE305" s="25"/>
     </row>
-    <row r="306" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="17:31" ht="12.75">
       <c r="Q306" s="25"/>
       <c r="R306" s="25"/>
       <c r="S306" s="25"/>
@@ -9417,7 +9416,7 @@
       <c r="AD306" s="25"/>
       <c r="AE306" s="25"/>
     </row>
-    <row r="307" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="17:31" ht="12.75">
       <c r="Q307" s="25"/>
       <c r="R307" s="25"/>
       <c r="S307" s="25"/>
@@ -9430,7 +9429,7 @@
       <c r="AD307" s="25"/>
       <c r="AE307" s="25"/>
     </row>
-    <row r="308" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="17:31" ht="12.75">
       <c r="Q308" s="25"/>
       <c r="R308" s="25"/>
       <c r="S308" s="25"/>
@@ -9443,7 +9442,7 @@
       <c r="AD308" s="25"/>
       <c r="AE308" s="25"/>
     </row>
-    <row r="309" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="17:31" ht="12.75">
       <c r="Q309" s="25"/>
       <c r="R309" s="25"/>
       <c r="S309" s="25"/>
@@ -9456,7 +9455,7 @@
       <c r="AD309" s="25"/>
       <c r="AE309" s="25"/>
     </row>
-    <row r="310" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="17:31" ht="12.75">
       <c r="Q310" s="25"/>
       <c r="R310" s="25"/>
       <c r="S310" s="25"/>
@@ -9469,7 +9468,7 @@
       <c r="AD310" s="25"/>
       <c r="AE310" s="25"/>
     </row>
-    <row r="311" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="17:31" ht="12.75">
       <c r="Q311" s="25"/>
       <c r="R311" s="25"/>
       <c r="S311" s="25"/>
@@ -9482,7 +9481,7 @@
       <c r="AD311" s="25"/>
       <c r="AE311" s="25"/>
     </row>
-    <row r="312" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="17:31" ht="12.75">
       <c r="Q312" s="25"/>
       <c r="R312" s="25"/>
       <c r="S312" s="25"/>
@@ -9495,7 +9494,7 @@
       <c r="AD312" s="25"/>
       <c r="AE312" s="25"/>
     </row>
-    <row r="313" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="17:31" ht="12.75">
       <c r="Q313" s="25"/>
       <c r="R313" s="25"/>
       <c r="S313" s="25"/>
@@ -9508,7 +9507,7 @@
       <c r="AD313" s="25"/>
       <c r="AE313" s="25"/>
     </row>
-    <row r="314" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="17:31" ht="12.75">
       <c r="Q314" s="25"/>
       <c r="R314" s="25"/>
       <c r="S314" s="25"/>
@@ -9521,7 +9520,7 @@
       <c r="AD314" s="25"/>
       <c r="AE314" s="25"/>
     </row>
-    <row r="315" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="17:31" ht="12.75">
       <c r="Q315" s="25"/>
       <c r="R315" s="25"/>
       <c r="S315" s="25"/>
@@ -9534,7 +9533,7 @@
       <c r="AD315" s="25"/>
       <c r="AE315" s="25"/>
     </row>
-    <row r="316" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="17:31" ht="12.75">
       <c r="Q316" s="25"/>
       <c r="R316" s="25"/>
       <c r="S316" s="25"/>
@@ -9547,7 +9546,7 @@
       <c r="AD316" s="25"/>
       <c r="AE316" s="25"/>
     </row>
-    <row r="317" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="17:31" ht="12.75">
       <c r="Q317" s="25"/>
       <c r="R317" s="25"/>
       <c r="S317" s="25"/>
@@ -9560,7 +9559,7 @@
       <c r="AD317" s="25"/>
       <c r="AE317" s="25"/>
     </row>
-    <row r="318" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="17:31" ht="12.75">
       <c r="Q318" s="25"/>
       <c r="R318" s="25"/>
       <c r="S318" s="25"/>
@@ -9573,7 +9572,7 @@
       <c r="AD318" s="25"/>
       <c r="AE318" s="25"/>
     </row>
-    <row r="319" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="17:31" ht="12.75">
       <c r="Q319" s="25"/>
       <c r="R319" s="25"/>
       <c r="S319" s="25"/>
@@ -9586,7 +9585,7 @@
       <c r="AD319" s="25"/>
       <c r="AE319" s="25"/>
     </row>
-    <row r="320" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="17:31" ht="12.75">
       <c r="Q320" s="25"/>
       <c r="R320" s="25"/>
       <c r="S320" s="25"/>
@@ -9599,7 +9598,7 @@
       <c r="AD320" s="25"/>
       <c r="AE320" s="25"/>
     </row>
-    <row r="321" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="17:31" ht="12.75">
       <c r="Q321" s="25"/>
       <c r="R321" s="25"/>
       <c r="S321" s="25"/>
@@ -9612,7 +9611,7 @@
       <c r="AD321" s="25"/>
       <c r="AE321" s="25"/>
     </row>
-    <row r="322" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="17:31" ht="12.75">
       <c r="Q322" s="25"/>
       <c r="R322" s="25"/>
       <c r="S322" s="25"/>
@@ -9625,7 +9624,7 @@
       <c r="AD322" s="25"/>
       <c r="AE322" s="25"/>
     </row>
-    <row r="323" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="17:31" ht="12.75">
       <c r="Q323" s="25"/>
       <c r="R323" s="25"/>
       <c r="S323" s="25"/>
@@ -9638,7 +9637,7 @@
       <c r="AD323" s="25"/>
       <c r="AE323" s="25"/>
     </row>
-    <row r="324" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="17:31" ht="12.75">
       <c r="Q324" s="25"/>
       <c r="R324" s="25"/>
       <c r="S324" s="25"/>
@@ -9651,7 +9650,7 @@
       <c r="AD324" s="25"/>
       <c r="AE324" s="25"/>
     </row>
-    <row r="325" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="17:31" ht="12.75">
       <c r="Q325" s="25"/>
       <c r="R325" s="25"/>
       <c r="S325" s="25"/>
@@ -9664,7 +9663,7 @@
       <c r="AD325" s="25"/>
       <c r="AE325" s="25"/>
     </row>
-    <row r="326" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="17:31" ht="12.75">
       <c r="Q326" s="25"/>
       <c r="R326" s="25"/>
       <c r="S326" s="25"/>
@@ -9677,7 +9676,7 @@
       <c r="AD326" s="25"/>
       <c r="AE326" s="25"/>
     </row>
-    <row r="327" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="17:31" ht="12.75">
       <c r="Q327" s="25"/>
       <c r="R327" s="25"/>
       <c r="S327" s="25"/>
@@ -9690,7 +9689,7 @@
       <c r="AD327" s="25"/>
       <c r="AE327" s="25"/>
     </row>
-    <row r="328" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="17:31" ht="12.75">
       <c r="Q328" s="25"/>
       <c r="R328" s="25"/>
       <c r="S328" s="25"/>
@@ -9703,7 +9702,7 @@
       <c r="AD328" s="25"/>
       <c r="AE328" s="25"/>
     </row>
-    <row r="329" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="17:31" ht="12.75">
       <c r="Q329" s="25"/>
       <c r="R329" s="25"/>
       <c r="S329" s="25"/>
@@ -9716,7 +9715,7 @@
       <c r="AD329" s="25"/>
       <c r="AE329" s="25"/>
     </row>
-    <row r="330" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="17:31" ht="12.75">
       <c r="Q330" s="25"/>
       <c r="R330" s="25"/>
       <c r="S330" s="25"/>
@@ -9729,7 +9728,7 @@
       <c r="AD330" s="25"/>
       <c r="AE330" s="25"/>
     </row>
-    <row r="331" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="17:31" ht="12.75">
       <c r="Q331" s="25"/>
       <c r="R331" s="25"/>
       <c r="S331" s="25"/>
@@ -9742,7 +9741,7 @@
       <c r="AD331" s="25"/>
       <c r="AE331" s="25"/>
     </row>
-    <row r="332" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="17:31" ht="12.75">
       <c r="Q332" s="25"/>
       <c r="R332" s="25"/>
       <c r="S332" s="25"/>
@@ -9755,7 +9754,7 @@
       <c r="AD332" s="25"/>
       <c r="AE332" s="25"/>
     </row>
-    <row r="333" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="17:31" ht="12.75">
       <c r="Q333" s="25"/>
       <c r="R333" s="25"/>
       <c r="S333" s="25"/>
@@ -9768,7 +9767,7 @@
       <c r="AD333" s="25"/>
       <c r="AE333" s="25"/>
     </row>
-    <row r="334" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="17:31" ht="12.75">
       <c r="Q334" s="25"/>
       <c r="R334" s="25"/>
       <c r="S334" s="25"/>
@@ -9781,7 +9780,7 @@
       <c r="AD334" s="25"/>
       <c r="AE334" s="25"/>
     </row>
-    <row r="335" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="17:31" ht="12.75">
       <c r="Q335" s="25"/>
       <c r="R335" s="25"/>
       <c r="S335" s="25"/>
@@ -9794,7 +9793,7 @@
       <c r="AD335" s="25"/>
       <c r="AE335" s="25"/>
     </row>
-    <row r="336" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="17:31" ht="12.75">
       <c r="Q336" s="25"/>
       <c r="R336" s="25"/>
       <c r="S336" s="25"/>
@@ -9807,7 +9806,7 @@
       <c r="AD336" s="25"/>
       <c r="AE336" s="25"/>
     </row>
-    <row r="337" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="17:31" ht="12.75">
       <c r="Q337" s="25"/>
       <c r="R337" s="25"/>
       <c r="S337" s="25"/>
@@ -9820,7 +9819,7 @@
       <c r="AD337" s="25"/>
       <c r="AE337" s="25"/>
     </row>
-    <row r="338" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="17:31" ht="12.75">
       <c r="Q338" s="25"/>
       <c r="R338" s="25"/>
       <c r="S338" s="25"/>
@@ -9833,7 +9832,7 @@
       <c r="AD338" s="25"/>
       <c r="AE338" s="25"/>
     </row>
-    <row r="339" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="17:31" ht="12.75">
       <c r="Q339" s="25"/>
       <c r="R339" s="25"/>
       <c r="S339" s="25"/>
@@ -9846,7 +9845,7 @@
       <c r="AD339" s="25"/>
       <c r="AE339" s="25"/>
     </row>
-    <row r="340" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="17:31" ht="12.75">
       <c r="Q340" s="25"/>
       <c r="R340" s="25"/>
       <c r="S340" s="25"/>
@@ -9859,7 +9858,7 @@
       <c r="AD340" s="25"/>
       <c r="AE340" s="25"/>
     </row>
-    <row r="341" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="17:31" ht="12.75">
       <c r="Q341" s="25"/>
       <c r="R341" s="25"/>
       <c r="S341" s="25"/>
@@ -9872,7 +9871,7 @@
       <c r="AD341" s="25"/>
       <c r="AE341" s="25"/>
     </row>
-    <row r="342" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="17:31" ht="12.75">
       <c r="Q342" s="25"/>
       <c r="R342" s="25"/>
       <c r="S342" s="25"/>
@@ -9885,7 +9884,7 @@
       <c r="AD342" s="25"/>
       <c r="AE342" s="25"/>
     </row>
-    <row r="343" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="17:31" ht="12.75">
       <c r="Q343" s="25"/>
       <c r="R343" s="25"/>
       <c r="S343" s="25"/>
@@ -9898,7 +9897,7 @@
       <c r="AD343" s="25"/>
       <c r="AE343" s="25"/>
     </row>
-    <row r="344" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="17:31" ht="12.75">
       <c r="Q344" s="25"/>
       <c r="R344" s="25"/>
       <c r="S344" s="25"/>
@@ -9911,7 +9910,7 @@
       <c r="AD344" s="25"/>
       <c r="AE344" s="25"/>
     </row>
-    <row r="345" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="17:31" ht="12.75">
       <c r="Q345" s="25"/>
       <c r="R345" s="25"/>
       <c r="S345" s="25"/>
@@ -9924,7 +9923,7 @@
       <c r="AD345" s="25"/>
       <c r="AE345" s="25"/>
     </row>
-    <row r="346" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="17:31" ht="12.75">
       <c r="Q346" s="25"/>
       <c r="R346" s="25"/>
       <c r="S346" s="25"/>
@@ -9937,7 +9936,7 @@
       <c r="AD346" s="25"/>
       <c r="AE346" s="25"/>
     </row>
-    <row r="347" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="17:31" ht="12.75">
       <c r="Q347" s="25"/>
       <c r="R347" s="25"/>
       <c r="S347" s="25"/>
@@ -9950,7 +9949,7 @@
       <c r="AD347" s="25"/>
       <c r="AE347" s="25"/>
     </row>
-    <row r="348" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="17:31" ht="12.75">
       <c r="Q348" s="25"/>
       <c r="R348" s="25"/>
       <c r="S348" s="25"/>
@@ -9963,7 +9962,7 @@
       <c r="AD348" s="25"/>
       <c r="AE348" s="25"/>
     </row>
-    <row r="349" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="17:31" ht="12.75">
       <c r="Q349" s="25"/>
       <c r="R349" s="25"/>
       <c r="S349" s="25"/>
@@ -9976,7 +9975,7 @@
       <c r="AD349" s="25"/>
       <c r="AE349" s="25"/>
     </row>
-    <row r="350" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="17:31" ht="12.75">
       <c r="Q350" s="25"/>
       <c r="R350" s="25"/>
       <c r="S350" s="25"/>
@@ -9989,7 +9988,7 @@
       <c r="AD350" s="25"/>
       <c r="AE350" s="25"/>
     </row>
-    <row r="351" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="17:31" ht="12.75">
       <c r="Q351" s="25"/>
       <c r="R351" s="25"/>
       <c r="S351" s="25"/>
@@ -10002,7 +10001,7 @@
       <c r="AD351" s="25"/>
       <c r="AE351" s="25"/>
     </row>
-    <row r="352" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="17:31" ht="12.75">
       <c r="Q352" s="25"/>
       <c r="R352" s="25"/>
       <c r="S352" s="25"/>
@@ -10015,7 +10014,7 @@
       <c r="AD352" s="25"/>
       <c r="AE352" s="25"/>
     </row>
-    <row r="353" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="17:31" ht="12.75">
       <c r="Q353" s="25"/>
       <c r="R353" s="25"/>
       <c r="S353" s="25"/>
@@ -10028,7 +10027,7 @@
       <c r="AD353" s="25"/>
       <c r="AE353" s="25"/>
     </row>
-    <row r="354" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="17:31" ht="12.75">
       <c r="Q354" s="25"/>
       <c r="R354" s="25"/>
       <c r="S354" s="25"/>
@@ -10041,7 +10040,7 @@
       <c r="AD354" s="25"/>
       <c r="AE354" s="25"/>
     </row>
-    <row r="355" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="17:31" ht="12.75">
       <c r="Q355" s="25"/>
       <c r="R355" s="25"/>
       <c r="S355" s="25"/>
@@ -10054,7 +10053,7 @@
       <c r="AD355" s="25"/>
       <c r="AE355" s="25"/>
     </row>
-    <row r="356" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="17:31" ht="12.75">
       <c r="Q356" s="25"/>
       <c r="R356" s="25"/>
       <c r="S356" s="25"/>
@@ -10067,7 +10066,7 @@
       <c r="AD356" s="25"/>
       <c r="AE356" s="25"/>
     </row>
-    <row r="357" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="17:31" ht="12.75">
       <c r="Q357" s="25"/>
       <c r="R357" s="25"/>
       <c r="S357" s="25"/>
@@ -10080,7 +10079,7 @@
       <c r="AD357" s="25"/>
       <c r="AE357" s="25"/>
     </row>
-    <row r="358" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="17:31" ht="12.75">
       <c r="Q358" s="25"/>
       <c r="R358" s="25"/>
       <c r="S358" s="25"/>
@@ -10093,7 +10092,7 @@
       <c r="AD358" s="25"/>
       <c r="AE358" s="25"/>
     </row>
-    <row r="359" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="17:31" ht="12.75">
       <c r="Q359" s="25"/>
       <c r="R359" s="25"/>
       <c r="S359" s="25"/>
@@ -10106,7 +10105,7 @@
       <c r="AD359" s="25"/>
       <c r="AE359" s="25"/>
     </row>
-    <row r="360" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="17:31" ht="12.75">
       <c r="Q360" s="25"/>
       <c r="R360" s="25"/>
       <c r="S360" s="25"/>
@@ -10119,7 +10118,7 @@
       <c r="AD360" s="25"/>
       <c r="AE360" s="25"/>
     </row>
-    <row r="361" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="17:31" ht="12.75">
       <c r="Q361" s="25"/>
       <c r="R361" s="25"/>
       <c r="S361" s="25"/>
@@ -10132,7 +10131,7 @@
       <c r="AD361" s="25"/>
       <c r="AE361" s="25"/>
     </row>
-    <row r="362" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="17:31" ht="12.75">
       <c r="Q362" s="25"/>
       <c r="R362" s="25"/>
       <c r="S362" s="25"/>
@@ -10145,7 +10144,7 @@
       <c r="AD362" s="25"/>
       <c r="AE362" s="25"/>
     </row>
-    <row r="363" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="17:31" ht="12.75">
       <c r="Q363" s="25"/>
       <c r="R363" s="25"/>
       <c r="S363" s="25"/>
@@ -10158,7 +10157,7 @@
       <c r="AD363" s="25"/>
       <c r="AE363" s="25"/>
     </row>
-    <row r="364" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="17:31" ht="12.75">
       <c r="Q364" s="25"/>
       <c r="R364" s="25"/>
       <c r="S364" s="25"/>
@@ -10171,7 +10170,7 @@
       <c r="AD364" s="25"/>
       <c r="AE364" s="25"/>
     </row>
-    <row r="365" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="17:31" ht="12.75">
       <c r="Q365" s="25"/>
       <c r="R365" s="25"/>
       <c r="S365" s="25"/>
@@ -10184,7 +10183,7 @@
       <c r="AD365" s="25"/>
       <c r="AE365" s="25"/>
     </row>
-    <row r="366" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="17:31" ht="12.75">
       <c r="Q366" s="25"/>
       <c r="R366" s="25"/>
       <c r="S366" s="25"/>
@@ -10197,7 +10196,7 @@
       <c r="AD366" s="25"/>
       <c r="AE366" s="25"/>
     </row>
-    <row r="367" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="17:31" ht="12.75">
       <c r="Q367" s="25"/>
       <c r="R367" s="25"/>
       <c r="S367" s="25"/>
@@ -10210,7 +10209,7 @@
       <c r="AD367" s="25"/>
       <c r="AE367" s="25"/>
     </row>
-    <row r="368" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="17:31" ht="12.75">
       <c r="Q368" s="25"/>
       <c r="R368" s="25"/>
       <c r="S368" s="25"/>
@@ -10223,7 +10222,7 @@
       <c r="AD368" s="25"/>
       <c r="AE368" s="25"/>
     </row>
-    <row r="369" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="17:31" ht="12.75">
       <c r="Q369" s="25"/>
       <c r="R369" s="25"/>
       <c r="S369" s="25"/>
@@ -10236,7 +10235,7 @@
       <c r="AD369" s="25"/>
       <c r="AE369" s="25"/>
     </row>
-    <row r="370" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="17:31" ht="12.75">
       <c r="Q370" s="25"/>
       <c r="R370" s="25"/>
       <c r="S370" s="25"/>
@@ -10249,7 +10248,7 @@
       <c r="AD370" s="25"/>
       <c r="AE370" s="25"/>
     </row>
-    <row r="371" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="17:31" ht="12.75">
       <c r="Q371" s="25"/>
       <c r="R371" s="25"/>
       <c r="S371" s="25"/>
@@ -10262,7 +10261,7 @@
       <c r="AD371" s="25"/>
       <c r="AE371" s="25"/>
     </row>
-    <row r="372" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="17:31" ht="12.75">
       <c r="Q372" s="25"/>
       <c r="R372" s="25"/>
       <c r="S372" s="25"/>
@@ -10275,7 +10274,7 @@
       <c r="AD372" s="25"/>
       <c r="AE372" s="25"/>
     </row>
-    <row r="373" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="17:31" ht="12.75">
       <c r="Q373" s="25"/>
       <c r="R373" s="25"/>
       <c r="S373" s="25"/>
@@ -10288,7 +10287,7 @@
       <c r="AD373" s="25"/>
       <c r="AE373" s="25"/>
     </row>
-    <row r="374" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="17:31" ht="12.75">
       <c r="Q374" s="25"/>
       <c r="R374" s="25"/>
       <c r="S374" s="25"/>
@@ -10301,7 +10300,7 @@
       <c r="AD374" s="25"/>
       <c r="AE374" s="25"/>
     </row>
-    <row r="375" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="17:31" ht="12.75">
       <c r="Q375" s="25"/>
       <c r="R375" s="25"/>
       <c r="S375" s="25"/>
@@ -10314,7 +10313,7 @@
       <c r="AD375" s="25"/>
       <c r="AE375" s="25"/>
     </row>
-    <row r="376" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="17:31" ht="12.75">
       <c r="Q376" s="25"/>
       <c r="R376" s="25"/>
       <c r="S376" s="25"/>
@@ -10327,7 +10326,7 @@
       <c r="AD376" s="25"/>
       <c r="AE376" s="25"/>
     </row>
-    <row r="377" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="17:31" ht="12.75">
       <c r="Q377" s="25"/>
       <c r="R377" s="25"/>
       <c r="S377" s="25"/>
@@ -10340,7 +10339,7 @@
       <c r="AD377" s="25"/>
       <c r="AE377" s="25"/>
     </row>
-    <row r="378" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="17:31" ht="12.75">
       <c r="Q378" s="25"/>
       <c r="R378" s="25"/>
       <c r="S378" s="25"/>
@@ -10353,7 +10352,7 @@
       <c r="AD378" s="25"/>
       <c r="AE378" s="25"/>
     </row>
-    <row r="379" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="17:31" ht="12.75">
       <c r="Q379" s="25"/>
       <c r="R379" s="25"/>
       <c r="S379" s="25"/>
@@ -10366,7 +10365,7 @@
       <c r="AD379" s="25"/>
       <c r="AE379" s="25"/>
     </row>
-    <row r="380" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="17:31" ht="12.75">
       <c r="Q380" s="25"/>
       <c r="R380" s="25"/>
       <c r="S380" s="25"/>
@@ -10379,7 +10378,7 @@
       <c r="AD380" s="25"/>
       <c r="AE380" s="25"/>
     </row>
-    <row r="381" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="17:31" ht="12.75">
       <c r="Q381" s="25"/>
       <c r="R381" s="25"/>
       <c r="S381" s="25"/>
@@ -10392,7 +10391,7 @@
       <c r="AD381" s="25"/>
       <c r="AE381" s="25"/>
     </row>
-    <row r="382" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="17:31" ht="12.75">
       <c r="Q382" s="25"/>
       <c r="R382" s="25"/>
       <c r="S382" s="25"/>
@@ -10405,7 +10404,7 @@
       <c r="AD382" s="25"/>
       <c r="AE382" s="25"/>
     </row>
-    <row r="383" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="17:31" ht="12.75">
       <c r="Q383" s="25"/>
       <c r="R383" s="25"/>
       <c r="S383" s="25"/>
@@ -10418,7 +10417,7 @@
       <c r="AD383" s="25"/>
       <c r="AE383" s="25"/>
     </row>
-    <row r="384" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="17:31" ht="12.75">
       <c r="Q384" s="25"/>
       <c r="R384" s="25"/>
       <c r="S384" s="25"/>
@@ -10431,7 +10430,7 @@
       <c r="AD384" s="25"/>
       <c r="AE384" s="25"/>
     </row>
-    <row r="385" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="17:31" ht="12.75">
       <c r="Q385" s="25"/>
       <c r="R385" s="25"/>
       <c r="S385" s="25"/>
@@ -10444,7 +10443,7 @@
       <c r="AD385" s="25"/>
       <c r="AE385" s="25"/>
     </row>
-    <row r="386" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="17:31" ht="12.75">
       <c r="Q386" s="25"/>
       <c r="R386" s="25"/>
       <c r="S386" s="25"/>
@@ -10457,7 +10456,7 @@
       <c r="AD386" s="25"/>
       <c r="AE386" s="25"/>
     </row>
-    <row r="387" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="17:31" ht="12.75">
       <c r="Q387" s="25"/>
       <c r="R387" s="25"/>
       <c r="S387" s="25"/>
@@ -10470,7 +10469,7 @@
       <c r="AD387" s="25"/>
       <c r="AE387" s="25"/>
     </row>
-    <row r="388" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="17:31" ht="12.75">
       <c r="Q388" s="25"/>
       <c r="R388" s="25"/>
       <c r="S388" s="25"/>
@@ -10483,7 +10482,7 @@
       <c r="AD388" s="25"/>
       <c r="AE388" s="25"/>
     </row>
-    <row r="389" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="17:31" ht="12.75">
       <c r="Q389" s="25"/>
       <c r="R389" s="25"/>
       <c r="S389" s="25"/>
@@ -10496,7 +10495,7 @@
       <c r="AD389" s="25"/>
       <c r="AE389" s="25"/>
     </row>
-    <row r="390" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="17:31" ht="12.75">
       <c r="Q390" s="25"/>
       <c r="R390" s="25"/>
       <c r="S390" s="25"/>
@@ -10509,7 +10508,7 @@
       <c r="AD390" s="25"/>
       <c r="AE390" s="25"/>
     </row>
-    <row r="391" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="17:31" ht="12.75">
       <c r="Q391" s="25"/>
       <c r="R391" s="25"/>
       <c r="S391" s="25"/>
@@ -10522,7 +10521,7 @@
       <c r="AD391" s="25"/>
       <c r="AE391" s="25"/>
     </row>
-    <row r="392" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="17:31" ht="12.75">
       <c r="Q392" s="25"/>
       <c r="R392" s="25"/>
       <c r="S392" s="25"/>
@@ -10535,7 +10534,7 @@
       <c r="AD392" s="25"/>
       <c r="AE392" s="25"/>
     </row>
-    <row r="393" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="17:31" ht="12.75">
       <c r="Q393" s="25"/>
       <c r="R393" s="25"/>
       <c r="S393" s="25"/>
@@ -10548,7 +10547,7 @@
       <c r="AD393" s="25"/>
       <c r="AE393" s="25"/>
     </row>
-    <row r="394" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="17:31" ht="12.75">
       <c r="Q394" s="25"/>
       <c r="R394" s="25"/>
       <c r="S394" s="25"/>
@@ -10561,7 +10560,7 @@
       <c r="AD394" s="25"/>
       <c r="AE394" s="25"/>
     </row>
-    <row r="395" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="17:31" ht="12.75">
       <c r="Q395" s="25"/>
       <c r="R395" s="25"/>
       <c r="S395" s="25"/>
@@ -10574,7 +10573,7 @@
       <c r="AD395" s="25"/>
       <c r="AE395" s="25"/>
     </row>
-    <row r="396" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="17:31" ht="12.75">
       <c r="Q396" s="25"/>
       <c r="R396" s="25"/>
       <c r="S396" s="25"/>
@@ -10587,7 +10586,7 @@
       <c r="AD396" s="25"/>
       <c r="AE396" s="25"/>
     </row>
-    <row r="397" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="17:31" ht="12.75">
       <c r="Q397" s="25"/>
       <c r="R397" s="25"/>
       <c r="S397" s="25"/>
@@ -10600,7 +10599,7 @@
       <c r="AD397" s="25"/>
       <c r="AE397" s="25"/>
     </row>
-    <row r="398" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="17:31" ht="12.75">
       <c r="Q398" s="25"/>
       <c r="R398" s="25"/>
       <c r="S398" s="25"/>
@@ -10613,7 +10612,7 @@
       <c r="AD398" s="25"/>
       <c r="AE398" s="25"/>
     </row>
-    <row r="399" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="17:31" ht="12.75">
       <c r="Q399" s="25"/>
       <c r="R399" s="25"/>
       <c r="S399" s="25"/>
@@ -10626,7 +10625,7 @@
       <c r="AD399" s="25"/>
       <c r="AE399" s="25"/>
     </row>
-    <row r="400" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="17:31" ht="12.75">
       <c r="Q400" s="25"/>
       <c r="R400" s="25"/>
       <c r="S400" s="25"/>
@@ -10639,7 +10638,7 @@
       <c r="AD400" s="25"/>
       <c r="AE400" s="25"/>
     </row>
-    <row r="401" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="17:31" ht="12.75">
       <c r="Q401" s="25"/>
       <c r="R401" s="25"/>
       <c r="S401" s="25"/>
@@ -10652,7 +10651,7 @@
       <c r="AD401" s="25"/>
       <c r="AE401" s="25"/>
     </row>
-    <row r="402" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="17:31" ht="12.75">
       <c r="Q402" s="25"/>
       <c r="R402" s="25"/>
       <c r="S402" s="25"/>
@@ -10665,7 +10664,7 @@
       <c r="AD402" s="25"/>
       <c r="AE402" s="25"/>
     </row>
-    <row r="403" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="17:31" ht="12.75">
       <c r="Q403" s="25"/>
       <c r="R403" s="25"/>
       <c r="S403" s="25"/>
@@ -10678,7 +10677,7 @@
       <c r="AD403" s="25"/>
       <c r="AE403" s="25"/>
     </row>
-    <row r="404" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="17:31" ht="12.75">
       <c r="Q404" s="25"/>
       <c r="R404" s="25"/>
       <c r="S404" s="25"/>
@@ -10691,7 +10690,7 @@
       <c r="AD404" s="25"/>
       <c r="AE404" s="25"/>
     </row>
-    <row r="405" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="17:31" ht="12.75">
       <c r="Q405" s="25"/>
       <c r="R405" s="25"/>
       <c r="S405" s="25"/>
@@ -10704,7 +10703,7 @@
       <c r="AD405" s="25"/>
       <c r="AE405" s="25"/>
     </row>
-    <row r="406" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="17:31" ht="12.75">
       <c r="Q406" s="25"/>
       <c r="R406" s="25"/>
       <c r="S406" s="25"/>
@@ -10717,7 +10716,7 @@
       <c r="AD406" s="25"/>
       <c r="AE406" s="25"/>
     </row>
-    <row r="407" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="17:31" ht="12.75">
       <c r="Q407" s="25"/>
       <c r="R407" s="25"/>
       <c r="S407" s="25"/>
@@ -10730,7 +10729,7 @@
       <c r="AD407" s="25"/>
       <c r="AE407" s="25"/>
     </row>
-    <row r="408" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="17:31" ht="12.75">
       <c r="Q408" s="25"/>
       <c r="R408" s="25"/>
       <c r="S408" s="25"/>
@@ -10743,7 +10742,7 @@
       <c r="AD408" s="25"/>
       <c r="AE408" s="25"/>
     </row>
-    <row r="409" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="17:31" ht="12.75">
       <c r="Q409" s="25"/>
       <c r="R409" s="25"/>
       <c r="S409" s="25"/>
@@ -10756,7 +10755,7 @@
       <c r="AD409" s="25"/>
       <c r="AE409" s="25"/>
     </row>
-    <row r="410" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="17:31" ht="12.75">
       <c r="Q410" s="25"/>
       <c r="R410" s="25"/>
       <c r="S410" s="25"/>
@@ -10769,7 +10768,7 @@
       <c r="AD410" s="25"/>
       <c r="AE410" s="25"/>
     </row>
-    <row r="411" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="17:31" ht="12.75">
       <c r="Q411" s="25"/>
       <c r="R411" s="25"/>
       <c r="S411" s="25"/>
@@ -10782,7 +10781,7 @@
       <c r="AD411" s="25"/>
       <c r="AE411" s="25"/>
     </row>
-    <row r="412" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="17:31" ht="12.75">
       <c r="Q412" s="25"/>
       <c r="R412" s="25"/>
       <c r="S412" s="25"/>
@@ -10795,7 +10794,7 @@
       <c r="AD412" s="25"/>
       <c r="AE412" s="25"/>
     </row>
-    <row r="413" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="17:31" ht="12.75">
       <c r="Q413" s="25"/>
       <c r="R413" s="25"/>
       <c r="S413" s="25"/>
@@ -10808,7 +10807,7 @@
       <c r="AD413" s="25"/>
       <c r="AE413" s="25"/>
     </row>
-    <row r="414" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="17:31" ht="12.75">
       <c r="Q414" s="25"/>
       <c r="R414" s="25"/>
       <c r="S414" s="25"/>
@@ -10821,7 +10820,7 @@
       <c r="AD414" s="25"/>
       <c r="AE414" s="25"/>
     </row>
-    <row r="415" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="17:31" ht="12.75">
       <c r="Q415" s="25"/>
       <c r="R415" s="25"/>
       <c r="S415" s="25"/>
@@ -10834,7 +10833,7 @@
       <c r="AD415" s="25"/>
       <c r="AE415" s="25"/>
     </row>
-    <row r="416" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="17:31" ht="12.75">
       <c r="Q416" s="25"/>
       <c r="R416" s="25"/>
       <c r="S416" s="25"/>
@@ -10847,7 +10846,7 @@
       <c r="AD416" s="25"/>
       <c r="AE416" s="25"/>
     </row>
-    <row r="417" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="17:31" ht="12.75">
       <c r="Q417" s="25"/>
       <c r="R417" s="25"/>
       <c r="S417" s="25"/>
@@ -10860,7 +10859,7 @@
       <c r="AD417" s="25"/>
       <c r="AE417" s="25"/>
     </row>
-    <row r="418" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="17:31" ht="12.75">
       <c r="Q418" s="25"/>
       <c r="R418" s="25"/>
       <c r="S418" s="25"/>
@@ -10873,7 +10872,7 @@
       <c r="AD418" s="25"/>
       <c r="AE418" s="25"/>
     </row>
-    <row r="419" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="17:31" ht="12.75">
       <c r="Q419" s="25"/>
       <c r="R419" s="25"/>
       <c r="S419" s="25"/>
@@ -10886,7 +10885,7 @@
       <c r="AD419" s="25"/>
       <c r="AE419" s="25"/>
     </row>
-    <row r="420" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="17:31" ht="12.75">
       <c r="Q420" s="25"/>
       <c r="R420" s="25"/>
       <c r="S420" s="25"/>
@@ -10899,7 +10898,7 @@
       <c r="AD420" s="25"/>
       <c r="AE420" s="25"/>
     </row>
-    <row r="421" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="17:31" ht="12.75">
       <c r="Q421" s="25"/>
       <c r="R421" s="25"/>
       <c r="S421" s="25"/>
@@ -10912,7 +10911,7 @@
       <c r="AD421" s="25"/>
       <c r="AE421" s="25"/>
     </row>
-    <row r="422" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="17:31" ht="12.75">
       <c r="Q422" s="25"/>
       <c r="R422" s="25"/>
       <c r="S422" s="25"/>
@@ -10925,7 +10924,7 @@
       <c r="AD422" s="25"/>
       <c r="AE422" s="25"/>
     </row>
-    <row r="423" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="17:31" ht="12.75">
       <c r="Q423" s="25"/>
       <c r="R423" s="25"/>
       <c r="S423" s="25"/>
@@ -10938,7 +10937,7 @@
       <c r="AD423" s="25"/>
       <c r="AE423" s="25"/>
     </row>
-    <row r="424" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="17:31" ht="12.75">
       <c r="Q424" s="25"/>
       <c r="R424" s="25"/>
       <c r="S424" s="25"/>
@@ -10951,7 +10950,7 @@
       <c r="AD424" s="25"/>
       <c r="AE424" s="25"/>
     </row>
-    <row r="425" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="17:31" ht="12.75">
       <c r="Q425" s="25"/>
       <c r="R425" s="25"/>
       <c r="S425" s="25"/>
@@ -10964,7 +10963,7 @@
       <c r="AD425" s="25"/>
       <c r="AE425" s="25"/>
     </row>
-    <row r="426" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="17:31" ht="12.75">
       <c r="Q426" s="25"/>
       <c r="R426" s="25"/>
       <c r="S426" s="25"/>
@@ -10977,7 +10976,7 @@
       <c r="AD426" s="25"/>
       <c r="AE426" s="25"/>
     </row>
-    <row r="427" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="17:31" ht="12.75">
       <c r="Q427" s="25"/>
       <c r="R427" s="25"/>
       <c r="S427" s="25"/>
@@ -10990,7 +10989,7 @@
       <c r="AD427" s="25"/>
       <c r="AE427" s="25"/>
     </row>
-    <row r="428" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="17:31" ht="12.75">
       <c r="Q428" s="25"/>
       <c r="R428" s="25"/>
       <c r="S428" s="25"/>
@@ -11003,7 +11002,7 @@
       <c r="AD428" s="25"/>
       <c r="AE428" s="25"/>
     </row>
-    <row r="429" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="17:31" ht="12.75">
       <c r="Q429" s="25"/>
       <c r="R429" s="25"/>
       <c r="S429" s="25"/>
@@ -11016,7 +11015,7 @@
       <c r="AD429" s="25"/>
       <c r="AE429" s="25"/>
     </row>
-    <row r="430" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="17:31" ht="12.75">
       <c r="Q430" s="25"/>
       <c r="R430" s="25"/>
       <c r="S430" s="25"/>
@@ -11029,7 +11028,7 @@
       <c r="AD430" s="25"/>
       <c r="AE430" s="25"/>
     </row>
-    <row r="431" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="17:31" ht="12.75">
       <c r="Q431" s="25"/>
       <c r="R431" s="25"/>
       <c r="S431" s="25"/>
@@ -11042,7 +11041,7 @@
       <c r="AD431" s="25"/>
       <c r="AE431" s="25"/>
     </row>
-    <row r="432" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="17:31" ht="12.75">
       <c r="Q432" s="25"/>
       <c r="R432" s="25"/>
       <c r="S432" s="25"/>
@@ -11055,7 +11054,7 @@
       <c r="AD432" s="25"/>
       <c r="AE432" s="25"/>
     </row>
-    <row r="433" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="17:31" ht="12.75">
       <c r="Q433" s="25"/>
       <c r="R433" s="25"/>
       <c r="S433" s="25"/>
@@ -11068,7 +11067,7 @@
       <c r="AD433" s="25"/>
       <c r="AE433" s="25"/>
     </row>
-    <row r="434" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="17:31" ht="12.75">
       <c r="Q434" s="25"/>
       <c r="R434" s="25"/>
       <c r="S434" s="25"/>
@@ -11081,7 +11080,7 @@
       <c r="AD434" s="25"/>
       <c r="AE434" s="25"/>
     </row>
-    <row r="435" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="17:31" ht="12.75">
       <c r="Q435" s="25"/>
       <c r="R435" s="25"/>
       <c r="S435" s="25"/>
@@ -11094,7 +11093,7 @@
       <c r="AD435" s="25"/>
       <c r="AE435" s="25"/>
     </row>
-    <row r="436" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="17:31" ht="12.75">
       <c r="Q436" s="25"/>
       <c r="R436" s="25"/>
       <c r="S436" s="25"/>
@@ -11107,7 +11106,7 @@
       <c r="AD436" s="25"/>
       <c r="AE436" s="25"/>
     </row>
-    <row r="437" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="17:31" ht="12.75">
       <c r="Q437" s="25"/>
       <c r="R437" s="25"/>
       <c r="S437" s="25"/>
@@ -11120,7 +11119,7 @@
       <c r="AD437" s="25"/>
       <c r="AE437" s="25"/>
     </row>
-    <row r="438" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="17:31" ht="12.75">
       <c r="Q438" s="25"/>
       <c r="R438" s="25"/>
       <c r="S438" s="25"/>
@@ -11133,7 +11132,7 @@
       <c r="AD438" s="25"/>
       <c r="AE438" s="25"/>
     </row>
-    <row r="439" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="17:31" ht="12.75">
       <c r="Q439" s="25"/>
       <c r="R439" s="25"/>
       <c r="S439" s="25"/>
@@ -11146,7 +11145,7 @@
       <c r="AD439" s="25"/>
       <c r="AE439" s="25"/>
     </row>
-    <row r="440" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="17:31" ht="12.75">
       <c r="Q440" s="25"/>
       <c r="R440" s="25"/>
       <c r="S440" s="25"/>
@@ -11159,7 +11158,7 @@
       <c r="AD440" s="25"/>
       <c r="AE440" s="25"/>
     </row>
-    <row r="441" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="17:31" ht="12.75">
       <c r="Q441" s="25"/>
       <c r="R441" s="25"/>
       <c r="S441" s="25"/>
@@ -11172,7 +11171,7 @@
       <c r="AD441" s="25"/>
       <c r="AE441" s="25"/>
     </row>
-    <row r="442" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="17:31" ht="12.75">
       <c r="Q442" s="25"/>
       <c r="R442" s="25"/>
       <c r="S442" s="25"/>
@@ -11185,7 +11184,7 @@
       <c r="AD442" s="25"/>
       <c r="AE442" s="25"/>
     </row>
-    <row r="443" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="17:31" ht="12.75">
       <c r="Q443" s="25"/>
       <c r="R443" s="25"/>
       <c r="S443" s="25"/>
@@ -11198,7 +11197,7 @@
       <c r="AD443" s="25"/>
       <c r="AE443" s="25"/>
     </row>
-    <row r="444" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="17:31" ht="12.75">
       <c r="Q444" s="25"/>
       <c r="R444" s="25"/>
       <c r="S444" s="25"/>
@@ -11211,7 +11210,7 @@
       <c r="AD444" s="25"/>
       <c r="AE444" s="25"/>
     </row>
-    <row r="445" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="17:31" ht="12.75">
       <c r="Q445" s="25"/>
       <c r="R445" s="25"/>
       <c r="S445" s="25"/>
@@ -11224,7 +11223,7 @@
       <c r="AD445" s="25"/>
       <c r="AE445" s="25"/>
     </row>
-    <row r="446" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="17:31" ht="12.75">
       <c r="Q446" s="25"/>
       <c r="R446" s="25"/>
       <c r="S446" s="25"/>
@@ -11237,7 +11236,7 @@
       <c r="AD446" s="25"/>
       <c r="AE446" s="25"/>
     </row>
-    <row r="447" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="17:31" ht="12.75">
       <c r="Q447" s="25"/>
       <c r="R447" s="25"/>
       <c r="S447" s="25"/>
@@ -11250,7 +11249,7 @@
       <c r="AD447" s="25"/>
       <c r="AE447" s="25"/>
     </row>
-    <row r="448" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="17:31" ht="12.75">
       <c r="Q448" s="25"/>
       <c r="R448" s="25"/>
       <c r="S448" s="25"/>
@@ -11263,7 +11262,7 @@
       <c r="AD448" s="25"/>
       <c r="AE448" s="25"/>
     </row>
-    <row r="449" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="17:31" ht="12.75">
       <c r="Q449" s="25"/>
       <c r="R449" s="25"/>
       <c r="S449" s="25"/>
@@ -11276,7 +11275,7 @@
       <c r="AD449" s="25"/>
       <c r="AE449" s="25"/>
     </row>
-    <row r="450" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="17:31" ht="12.75">
       <c r="Q450" s="25"/>
       <c r="R450" s="25"/>
       <c r="S450" s="25"/>
@@ -11289,7 +11288,7 @@
       <c r="AD450" s="25"/>
       <c r="AE450" s="25"/>
     </row>
-    <row r="451" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="17:31" ht="12.75">
       <c r="Q451" s="25"/>
       <c r="R451" s="25"/>
       <c r="S451" s="25"/>
@@ -11302,7 +11301,7 @@
       <c r="AD451" s="25"/>
       <c r="AE451" s="25"/>
     </row>
-    <row r="452" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="17:31" ht="12.75">
       <c r="Q452" s="25"/>
       <c r="R452" s="25"/>
       <c r="S452" s="25"/>
@@ -11315,7 +11314,7 @@
       <c r="AD452" s="25"/>
       <c r="AE452" s="25"/>
     </row>
-    <row r="453" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="17:31" ht="12.75">
       <c r="Q453" s="25"/>
       <c r="R453" s="25"/>
       <c r="S453" s="25"/>
@@ -11328,7 +11327,7 @@
       <c r="AD453" s="25"/>
       <c r="AE453" s="25"/>
     </row>
-    <row r="454" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="17:31" ht="12.75">
       <c r="Q454" s="25"/>
       <c r="R454" s="25"/>
       <c r="S454" s="25"/>
@@ -11341,7 +11340,7 @@
       <c r="AD454" s="25"/>
       <c r="AE454" s="25"/>
     </row>
-    <row r="455" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="17:31" ht="12.75">
       <c r="Q455" s="25"/>
       <c r="R455" s="25"/>
       <c r="S455" s="25"/>
@@ -11354,7 +11353,7 @@
       <c r="AD455" s="25"/>
       <c r="AE455" s="25"/>
     </row>
-    <row r="456" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="17:31" ht="12.75">
       <c r="Q456" s="25"/>
       <c r="R456" s="25"/>
       <c r="S456" s="25"/>
@@ -11367,7 +11366,7 @@
       <c r="AD456" s="25"/>
       <c r="AE456" s="25"/>
     </row>
-    <row r="457" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="17:31" ht="12.75">
       <c r="Q457" s="25"/>
       <c r="R457" s="25"/>
       <c r="S457" s="25"/>
@@ -11380,7 +11379,7 @@
       <c r="AD457" s="25"/>
       <c r="AE457" s="25"/>
     </row>
-    <row r="458" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="17:31" ht="12.75">
       <c r="Q458" s="25"/>
       <c r="R458" s="25"/>
       <c r="S458" s="25"/>
@@ -11393,7 +11392,7 @@
       <c r="AD458" s="25"/>
       <c r="AE458" s="25"/>
     </row>
-    <row r="459" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="17:31" ht="12.75">
       <c r="Q459" s="25"/>
       <c r="R459" s="25"/>
       <c r="S459" s="25"/>
@@ -11406,7 +11405,7 @@
       <c r="AD459" s="25"/>
       <c r="AE459" s="25"/>
     </row>
-    <row r="460" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="17:31" ht="12.75">
       <c r="Q460" s="25"/>
       <c r="R460" s="25"/>
       <c r="S460" s="25"/>
@@ -11419,7 +11418,7 @@
       <c r="AD460" s="25"/>
       <c r="AE460" s="25"/>
     </row>
-    <row r="461" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="17:31" ht="12.75">
       <c r="Q461" s="25"/>
       <c r="R461" s="25"/>
       <c r="S461" s="25"/>
@@ -11432,7 +11431,7 @@
       <c r="AD461" s="25"/>
       <c r="AE461" s="25"/>
     </row>
-    <row r="462" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="17:31" ht="12.75">
       <c r="Q462" s="25"/>
       <c r="R462" s="25"/>
       <c r="S462" s="25"/>
@@ -11445,7 +11444,7 @@
       <c r="AD462" s="25"/>
       <c r="AE462" s="25"/>
     </row>
-    <row r="463" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="17:31" ht="12.75">
       <c r="Q463" s="25"/>
       <c r="R463" s="25"/>
       <c r="S463" s="25"/>
@@ -11458,7 +11457,7 @@
       <c r="AD463" s="25"/>
       <c r="AE463" s="25"/>
     </row>
-    <row r="464" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="17:31" ht="12.75">
       <c r="Q464" s="25"/>
       <c r="R464" s="25"/>
       <c r="S464" s="25"/>
@@ -11471,7 +11470,7 @@
       <c r="AD464" s="25"/>
       <c r="AE464" s="25"/>
     </row>
-    <row r="465" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="17:31" ht="12.75">
       <c r="Q465" s="25"/>
       <c r="R465" s="25"/>
       <c r="S465" s="25"/>
@@ -11484,7 +11483,7 @@
       <c r="AD465" s="25"/>
       <c r="AE465" s="25"/>
     </row>
-    <row r="466" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="17:31" ht="12.75">
       <c r="Q466" s="25"/>
       <c r="R466" s="25"/>
       <c r="S466" s="25"/>
@@ -11497,7 +11496,7 @@
       <c r="AD466" s="25"/>
       <c r="AE466" s="25"/>
     </row>
-    <row r="467" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="17:31" ht="12.75">
       <c r="Q467" s="25"/>
       <c r="R467" s="25"/>
       <c r="S467" s="25"/>
@@ -11510,7 +11509,7 @@
       <c r="AD467" s="25"/>
       <c r="AE467" s="25"/>
     </row>
-    <row r="468" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="17:31" ht="12.75">
       <c r="Q468" s="25"/>
       <c r="R468" s="25"/>
       <c r="S468" s="25"/>
@@ -11523,7 +11522,7 @@
       <c r="AD468" s="25"/>
       <c r="AE468" s="25"/>
     </row>
-    <row r="469" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="17:31" ht="12.75">
       <c r="Q469" s="25"/>
       <c r="R469" s="25"/>
       <c r="S469" s="25"/>
@@ -11536,7 +11535,7 @@
       <c r="AD469" s="25"/>
       <c r="AE469" s="25"/>
     </row>
-    <row r="470" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="17:31" ht="12.75">
       <c r="Q470" s="25"/>
       <c r="R470" s="25"/>
       <c r="S470" s="25"/>
@@ -11549,7 +11548,7 @@
       <c r="AD470" s="25"/>
       <c r="AE470" s="25"/>
     </row>
-    <row r="471" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="17:31" ht="12.75">
       <c r="Q471" s="25"/>
       <c r="R471" s="25"/>
       <c r="S471" s="25"/>
@@ -11562,7 +11561,7 @@
       <c r="AD471" s="25"/>
       <c r="AE471" s="25"/>
     </row>
-    <row r="472" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="17:31" ht="12.75">
       <c r="Q472" s="25"/>
       <c r="R472" s="25"/>
       <c r="S472" s="25"/>
@@ -11575,7 +11574,7 @@
       <c r="AD472" s="25"/>
       <c r="AE472" s="25"/>
     </row>
-    <row r="473" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="17:31" ht="12.75">
       <c r="Q473" s="25"/>
       <c r="R473" s="25"/>
       <c r="S473" s="25"/>
@@ -11588,7 +11587,7 @@
       <c r="AD473" s="25"/>
       <c r="AE473" s="25"/>
     </row>
-    <row r="474" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="17:31" ht="12.75">
       <c r="Q474" s="25"/>
       <c r="R474" s="25"/>
       <c r="S474" s="25"/>
@@ -11601,7 +11600,7 @@
       <c r="AD474" s="25"/>
       <c r="AE474" s="25"/>
     </row>
-    <row r="475" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="17:31" ht="12.75">
       <c r="Q475" s="25"/>
       <c r="R475" s="25"/>
       <c r="S475" s="25"/>
@@ -11614,7 +11613,7 @@
       <c r="AD475" s="25"/>
       <c r="AE475" s="25"/>
     </row>
-    <row r="476" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="17:31" ht="12.75">
       <c r="Q476" s="25"/>
       <c r="R476" s="25"/>
       <c r="S476" s="25"/>
@@ -11627,7 +11626,7 @@
       <c r="AD476" s="25"/>
       <c r="AE476" s="25"/>
     </row>
-    <row r="477" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="17:31" ht="12.75">
       <c r="Q477" s="25"/>
       <c r="R477" s="25"/>
       <c r="S477" s="25"/>
@@ -11640,7 +11639,7 @@
       <c r="AD477" s="25"/>
       <c r="AE477" s="25"/>
     </row>
-    <row r="478" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="17:31" ht="12.75">
       <c r="Q478" s="25"/>
       <c r="R478" s="25"/>
       <c r="S478" s="25"/>
@@ -11653,7 +11652,7 @@
       <c r="AD478" s="25"/>
       <c r="AE478" s="25"/>
     </row>
-    <row r="479" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="17:31" ht="12.75">
       <c r="Q479" s="25"/>
       <c r="R479" s="25"/>
       <c r="S479" s="25"/>
@@ -11666,7 +11665,7 @@
       <c r="AD479" s="25"/>
       <c r="AE479" s="25"/>
     </row>
-    <row r="480" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="17:31" ht="12.75">
       <c r="Q480" s="25"/>
       <c r="R480" s="25"/>
       <c r="S480" s="25"/>
@@ -11679,7 +11678,7 @@
       <c r="AD480" s="25"/>
       <c r="AE480" s="25"/>
     </row>
-    <row r="481" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="17:31" ht="12.75">
       <c r="Q481" s="25"/>
       <c r="R481" s="25"/>
       <c r="S481" s="25"/>
@@ -11692,7 +11691,7 @@
       <c r="AD481" s="25"/>
       <c r="AE481" s="25"/>
     </row>
-    <row r="482" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="17:31" ht="12.75">
       <c r="Q482" s="25"/>
       <c r="R482" s="25"/>
       <c r="S482" s="25"/>
@@ -11705,7 +11704,7 @@
       <c r="AD482" s="25"/>
       <c r="AE482" s="25"/>
     </row>
-    <row r="483" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="17:31" ht="12.75">
       <c r="Q483" s="25"/>
       <c r="R483" s="25"/>
       <c r="S483" s="25"/>
@@ -11718,7 +11717,7 @@
       <c r="AD483" s="25"/>
       <c r="AE483" s="25"/>
     </row>
-    <row r="484" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="17:31" ht="12.75">
       <c r="Q484" s="25"/>
       <c r="R484" s="25"/>
       <c r="S484" s="25"/>
@@ -11731,7 +11730,7 @@
       <c r="AD484" s="25"/>
       <c r="AE484" s="25"/>
     </row>
-    <row r="485" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="17:31" ht="12.75">
       <c r="Q485" s="25"/>
       <c r="R485" s="25"/>
       <c r="S485" s="25"/>
@@ -11744,7 +11743,7 @@
       <c r="AD485" s="25"/>
       <c r="AE485" s="25"/>
     </row>
-    <row r="486" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="17:31" ht="12.75">
       <c r="Q486" s="25"/>
       <c r="R486" s="25"/>
       <c r="S486" s="25"/>
@@ -11757,7 +11756,7 @@
       <c r="AD486" s="25"/>
       <c r="AE486" s="25"/>
     </row>
-    <row r="487" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="17:31" ht="12.75">
       <c r="Q487" s="25"/>
       <c r="R487" s="25"/>
       <c r="S487" s="25"/>
@@ -11770,7 +11769,7 @@
       <c r="AD487" s="25"/>
       <c r="AE487" s="25"/>
     </row>
-    <row r="488" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="17:31" ht="12.75">
       <c r="Q488" s="25"/>
       <c r="R488" s="25"/>
       <c r="S488" s="25"/>
@@ -11783,7 +11782,7 @@
       <c r="AD488" s="25"/>
       <c r="AE488" s="25"/>
     </row>
-    <row r="489" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="17:31" ht="12.75">
       <c r="Q489" s="25"/>
       <c r="R489" s="25"/>
       <c r="S489" s="25"/>
@@ -11796,7 +11795,7 @@
       <c r="AD489" s="25"/>
       <c r="AE489" s="25"/>
     </row>
-    <row r="490" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="17:31" ht="12.75">
       <c r="Q490" s="25"/>
       <c r="R490" s="25"/>
       <c r="S490" s="25"/>
@@ -11809,7 +11808,7 @@
       <c r="AD490" s="25"/>
       <c r="AE490" s="25"/>
     </row>
-    <row r="491" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="17:31" ht="12.75">
       <c r="Q491" s="25"/>
       <c r="R491" s="25"/>
       <c r="S491" s="25"/>
@@ -11822,7 +11821,7 @@
       <c r="AD491" s="25"/>
       <c r="AE491" s="25"/>
     </row>
-    <row r="492" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="17:31" ht="12.75">
       <c r="Q492" s="25"/>
       <c r="R492" s="25"/>
       <c r="S492" s="25"/>
@@ -11835,7 +11834,7 @@
       <c r="AD492" s="25"/>
       <c r="AE492" s="25"/>
     </row>
-    <row r="493" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="17:31" ht="12.75">
       <c r="Q493" s="25"/>
       <c r="R493" s="25"/>
       <c r="S493" s="25"/>
@@ -11848,7 +11847,7 @@
       <c r="AD493" s="25"/>
       <c r="AE493" s="25"/>
     </row>
-    <row r="494" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="17:31" ht="12.75">
       <c r="Q494" s="25"/>
       <c r="R494" s="25"/>
       <c r="S494" s="25"/>
@@ -11861,7 +11860,7 @@
       <c r="AD494" s="25"/>
       <c r="AE494" s="25"/>
     </row>
-    <row r="495" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="17:31" ht="12.75">
       <c r="Q495" s="25"/>
       <c r="R495" s="25"/>
       <c r="S495" s="25"/>
@@ -11874,7 +11873,7 @@
       <c r="AD495" s="25"/>
       <c r="AE495" s="25"/>
     </row>
-    <row r="496" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="17:31" ht="12.75">
       <c r="Q496" s="25"/>
       <c r="R496" s="25"/>
       <c r="S496" s="25"/>
@@ -11887,7 +11886,7 @@
       <c r="AD496" s="25"/>
       <c r="AE496" s="25"/>
     </row>
-    <row r="497" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="17:31" ht="12.75">
       <c r="Q497" s="25"/>
       <c r="R497" s="25"/>
       <c r="S497" s="25"/>
@@ -11900,7 +11899,7 @@
       <c r="AD497" s="25"/>
       <c r="AE497" s="25"/>
     </row>
-    <row r="498" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="17:31" ht="12.75">
       <c r="Q498" s="25"/>
       <c r="R498" s="25"/>
       <c r="S498" s="25"/>
@@ -11913,7 +11912,7 @@
       <c r="AD498" s="25"/>
       <c r="AE498" s="25"/>
     </row>
-    <row r="499" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="17:31" ht="12.75">
       <c r="Q499" s="25"/>
       <c r="R499" s="25"/>
       <c r="S499" s="25"/>
@@ -11926,7 +11925,7 @@
       <c r="AD499" s="25"/>
       <c r="AE499" s="25"/>
     </row>
-    <row r="500" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="17:31" ht="12.75">
       <c r="Q500" s="25"/>
       <c r="R500" s="25"/>
       <c r="S500" s="25"/>
@@ -11939,7 +11938,7 @@
       <c r="AD500" s="25"/>
       <c r="AE500" s="25"/>
     </row>
-    <row r="501" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="17:31" ht="12.75">
       <c r="Q501" s="25"/>
       <c r="R501" s="25"/>
       <c r="S501" s="25"/>
@@ -11952,7 +11951,7 @@
       <c r="AD501" s="25"/>
       <c r="AE501" s="25"/>
     </row>
-    <row r="502" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="17:31" ht="12.75">
       <c r="Q502" s="25"/>
       <c r="R502" s="25"/>
       <c r="S502" s="25"/>
@@ -11965,7 +11964,7 @@
       <c r="AD502" s="25"/>
       <c r="AE502" s="25"/>
     </row>
-    <row r="503" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="17:31" ht="12.75">
       <c r="Q503" s="25"/>
       <c r="R503" s="25"/>
       <c r="S503" s="25"/>
@@ -11978,7 +11977,7 @@
       <c r="AD503" s="25"/>
       <c r="AE503" s="25"/>
     </row>
-    <row r="504" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="17:31" ht="12.75">
       <c r="Q504" s="25"/>
       <c r="R504" s="25"/>
       <c r="S504" s="25"/>
@@ -11991,7 +11990,7 @@
       <c r="AD504" s="25"/>
       <c r="AE504" s="25"/>
     </row>
-    <row r="505" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="17:31" ht="12.75">
       <c r="Q505" s="25"/>
       <c r="R505" s="25"/>
       <c r="S505" s="25"/>
@@ -12004,7 +12003,7 @@
       <c r="AD505" s="25"/>
       <c r="AE505" s="25"/>
     </row>
-    <row r="506" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="17:31" ht="12.75">
       <c r="Q506" s="25"/>
       <c r="R506" s="25"/>
       <c r="S506" s="25"/>
@@ -12017,7 +12016,7 @@
       <c r="AD506" s="25"/>
       <c r="AE506" s="25"/>
     </row>
-    <row r="507" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="17:31" ht="12.75">
       <c r="Q507" s="25"/>
       <c r="R507" s="25"/>
       <c r="S507" s="25"/>
@@ -12030,7 +12029,7 @@
       <c r="AD507" s="25"/>
       <c r="AE507" s="25"/>
     </row>
-    <row r="508" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="17:31" ht="12.75">
       <c r="Q508" s="25"/>
       <c r="R508" s="25"/>
       <c r="S508" s="25"/>
@@ -12043,7 +12042,7 @@
       <c r="AD508" s="25"/>
       <c r="AE508" s="25"/>
     </row>
-    <row r="509" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="17:31" ht="12.75">
       <c r="Q509" s="25"/>
       <c r="R509" s="25"/>
       <c r="S509" s="25"/>
@@ -12056,7 +12055,7 @@
       <c r="AD509" s="25"/>
       <c r="AE509" s="25"/>
     </row>
-    <row r="510" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="17:31" ht="12.75">
       <c r="Q510" s="25"/>
       <c r="R510" s="25"/>
       <c r="S510" s="25"/>
@@ -12069,7 +12068,7 @@
       <c r="AD510" s="25"/>
       <c r="AE510" s="25"/>
     </row>
-    <row r="511" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="17:31" ht="12.75">
       <c r="Q511" s="25"/>
       <c r="R511" s="25"/>
       <c r="S511" s="25"/>
@@ -12082,7 +12081,7 @@
       <c r="AD511" s="25"/>
       <c r="AE511" s="25"/>
     </row>
-    <row r="512" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="17:31" ht="12.75">
       <c r="Q512" s="25"/>
       <c r="R512" s="25"/>
       <c r="S512" s="25"/>
@@ -12095,7 +12094,7 @@
       <c r="AD512" s="25"/>
       <c r="AE512" s="25"/>
     </row>
-    <row r="513" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="17:31" ht="12.75">
       <c r="Q513" s="25"/>
       <c r="R513" s="25"/>
       <c r="S513" s="25"/>
@@ -12108,7 +12107,7 @@
       <c r="AD513" s="25"/>
       <c r="AE513" s="25"/>
     </row>
-    <row r="514" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="17:31" ht="12.75">
       <c r="Q514" s="25"/>
       <c r="R514" s="25"/>
       <c r="S514" s="25"/>
@@ -12121,7 +12120,7 @@
       <c r="AD514" s="25"/>
       <c r="AE514" s="25"/>
     </row>
-    <row r="515" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="17:31" ht="12.75">
       <c r="Q515" s="25"/>
       <c r="R515" s="25"/>
       <c r="S515" s="25"/>
@@ -12134,7 +12133,7 @@
       <c r="AD515" s="25"/>
       <c r="AE515" s="25"/>
     </row>
-    <row r="516" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="17:31" ht="12.75">
       <c r="Q516" s="25"/>
       <c r="R516" s="25"/>
       <c r="S516" s="25"/>
@@ -12147,7 +12146,7 @@
       <c r="AD516" s="25"/>
       <c r="AE516" s="25"/>
     </row>
-    <row r="517" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="17:31" ht="12.75">
       <c r="Q517" s="25"/>
       <c r="R517" s="25"/>
       <c r="S517" s="25"/>
@@ -12160,7 +12159,7 @@
       <c r="AD517" s="25"/>
       <c r="AE517" s="25"/>
     </row>
-    <row r="518" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="17:31" ht="12.75">
       <c r="Q518" s="25"/>
       <c r="R518" s="25"/>
       <c r="S518" s="25"/>
@@ -12173,7 +12172,7 @@
       <c r="AD518" s="25"/>
       <c r="AE518" s="25"/>
     </row>
-    <row r="519" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="17:31" ht="12.75">
       <c r="Q519" s="25"/>
       <c r="R519" s="25"/>
       <c r="S519" s="25"/>
@@ -12186,7 +12185,7 @@
       <c r="AD519" s="25"/>
       <c r="AE519" s="25"/>
     </row>
-    <row r="520" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="17:31" ht="12.75">
       <c r="Q520" s="25"/>
       <c r="R520" s="25"/>
       <c r="S520" s="25"/>
@@ -12199,7 +12198,7 @@
       <c r="AD520" s="25"/>
       <c r="AE520" s="25"/>
     </row>
-    <row r="521" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="17:31" ht="12.75">
       <c r="Q521" s="25"/>
       <c r="R521" s="25"/>
       <c r="S521" s="25"/>
@@ -12212,7 +12211,7 @@
       <c r="AD521" s="25"/>
       <c r="AE521" s="25"/>
     </row>
-    <row r="522" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="17:31" ht="12.75">
       <c r="Q522" s="25"/>
       <c r="R522" s="25"/>
       <c r="S522" s="25"/>
@@ -12225,7 +12224,7 @@
       <c r="AD522" s="25"/>
       <c r="AE522" s="25"/>
     </row>
-    <row r="523" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="17:31" ht="12.75">
       <c r="Q523" s="25"/>
       <c r="R523" s="25"/>
       <c r="S523" s="25"/>
@@ -12238,7 +12237,7 @@
       <c r="AD523" s="25"/>
       <c r="AE523" s="25"/>
     </row>
-    <row r="524" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="17:31" ht="12.75">
       <c r="Q524" s="25"/>
       <c r="R524" s="25"/>
       <c r="S524" s="25"/>
@@ -12251,7 +12250,7 @@
       <c r="AD524" s="25"/>
       <c r="AE524" s="25"/>
     </row>
-    <row r="525" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="17:31" ht="12.75">
       <c r="Q525" s="25"/>
       <c r="R525" s="25"/>
       <c r="S525" s="25"/>
@@ -12264,7 +12263,7 @@
       <c r="AD525" s="25"/>
       <c r="AE525" s="25"/>
     </row>
-    <row r="526" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="17:31" ht="12.75">
       <c r="Q526" s="25"/>
       <c r="R526" s="25"/>
       <c r="S526" s="25"/>
@@ -12277,7 +12276,7 @@
       <c r="AD526" s="25"/>
       <c r="AE526" s="25"/>
     </row>
-    <row r="527" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="17:31" ht="12.75">
       <c r="Q527" s="25"/>
       <c r="R527" s="25"/>
       <c r="S527" s="25"/>
@@ -12290,7 +12289,7 @@
       <c r="AD527" s="25"/>
       <c r="AE527" s="25"/>
     </row>
-    <row r="528" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="17:31" ht="12.75">
       <c r="Q528" s="25"/>
       <c r="R528" s="25"/>
       <c r="S528" s="25"/>
@@ -12303,7 +12302,7 @@
       <c r="AD528" s="25"/>
       <c r="AE528" s="25"/>
     </row>
-    <row r="529" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="17:31" ht="12.75">
       <c r="Q529" s="25"/>
       <c r="R529" s="25"/>
       <c r="S529" s="25"/>
@@ -12316,7 +12315,7 @@
       <c r="AD529" s="25"/>
       <c r="AE529" s="25"/>
     </row>
-    <row r="530" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="17:31" ht="12.75">
       <c r="Q530" s="25"/>
       <c r="R530" s="25"/>
       <c r="S530" s="25"/>
@@ -12329,7 +12328,7 @@
       <c r="AD530" s="25"/>
       <c r="AE530" s="25"/>
     </row>
-    <row r="531" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="17:31" ht="12.75">
       <c r="Q531" s="25"/>
       <c r="R531" s="25"/>
       <c r="S531" s="25"/>
@@ -12342,7 +12341,7 @@
       <c r="AD531" s="25"/>
       <c r="AE531" s="25"/>
     </row>
-    <row r="532" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="17:31" ht="12.75">
       <c r="Q532" s="25"/>
       <c r="R532" s="25"/>
       <c r="S532" s="25"/>
@@ -12355,7 +12354,7 @@
       <c r="AD532" s="25"/>
       <c r="AE532" s="25"/>
     </row>
-    <row r="533" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="17:31" ht="12.75">
       <c r="Q533" s="25"/>
       <c r="R533" s="25"/>
       <c r="S533" s="25"/>
@@ -12368,7 +12367,7 @@
       <c r="AD533" s="25"/>
       <c r="AE533" s="25"/>
     </row>
-    <row r="534" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="17:31" ht="12.75">
       <c r="Q534" s="25"/>
       <c r="R534" s="25"/>
       <c r="S534" s="25"/>
@@ -12381,7 +12380,7 @@
       <c r="AD534" s="25"/>
       <c r="AE534" s="25"/>
     </row>
-    <row r="535" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="17:31" ht="12.75">
       <c r="Q535" s="25"/>
       <c r="R535" s="25"/>
       <c r="S535" s="25"/>
@@ -12394,7 +12393,7 @@
       <c r="AD535" s="25"/>
       <c r="AE535" s="25"/>
     </row>
-    <row r="536" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="17:31" ht="12.75">
       <c r="Q536" s="25"/>
       <c r="R536" s="25"/>
       <c r="S536" s="25"/>
@@ -12407,7 +12406,7 @@
       <c r="AD536" s="25"/>
       <c r="AE536" s="25"/>
     </row>
-    <row r="537" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="17:31" ht="12.75">
       <c r="Q537" s="25"/>
       <c r="R537" s="25"/>
       <c r="S537" s="25"/>
@@ -12420,7 +12419,7 @@
       <c r="AD537" s="25"/>
       <c r="AE537" s="25"/>
     </row>
-    <row r="538" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="17:31" ht="12.75">
       <c r="Q538" s="25"/>
       <c r="R538" s="25"/>
       <c r="S538" s="25"/>
@@ -12433,7 +12432,7 @@
       <c r="AD538" s="25"/>
       <c r="AE538" s="25"/>
     </row>
-    <row r="539" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="17:31" ht="12.75">
       <c r="Q539" s="25"/>
       <c r="R539" s="25"/>
       <c r="S539" s="25"/>
@@ -12446,7 +12445,7 @@
       <c r="AD539" s="25"/>
       <c r="AE539" s="25"/>
     </row>
-    <row r="540" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="17:31" ht="12.75">
       <c r="Q540" s="25"/>
       <c r="R540" s="25"/>
       <c r="S540" s="25"/>
@@ -12459,7 +12458,7 @@
       <c r="AD540" s="25"/>
       <c r="AE540" s="25"/>
     </row>
-    <row r="541" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="17:31" ht="12.75">
       <c r="Q541" s="25"/>
       <c r="R541" s="25"/>
       <c r="S541" s="25"/>
@@ -12472,7 +12471,7 @@
       <c r="AD541" s="25"/>
       <c r="AE541" s="25"/>
     </row>
-    <row r="542" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="17:31" ht="12.75">
       <c r="Q542" s="25"/>
       <c r="R542" s="25"/>
       <c r="S542" s="25"/>
@@ -12485,7 +12484,7 @@
       <c r="AD542" s="25"/>
       <c r="AE542" s="25"/>
     </row>
-    <row r="543" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="17:31" ht="12.75">
       <c r="Q543" s="25"/>
       <c r="R543" s="25"/>
       <c r="S543" s="25"/>
@@ -12498,7 +12497,7 @@
       <c r="AD543" s="25"/>
       <c r="AE543" s="25"/>
     </row>
-    <row r="544" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="17:31" ht="12.75">
       <c r="Q544" s="25"/>
       <c r="R544" s="25"/>
       <c r="S544" s="25"/>
@@ -12511,7 +12510,7 @@
       <c r="AD544" s="25"/>
       <c r="AE544" s="25"/>
     </row>
-    <row r="545" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="17:31" ht="12.75">
       <c r="Q545" s="25"/>
       <c r="R545" s="25"/>
       <c r="S545" s="25"/>
@@ -12524,7 +12523,7 @@
       <c r="AD545" s="25"/>
       <c r="AE545" s="25"/>
     </row>
-    <row r="546" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="17:31" ht="12.75">
       <c r="Q546" s="25"/>
       <c r="R546" s="25"/>
       <c r="S546" s="25"/>
@@ -12537,7 +12536,7 @@
       <c r="AD546" s="25"/>
       <c r="AE546" s="25"/>
     </row>
-    <row r="547" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="17:31" ht="12.75">
       <c r="Q547" s="25"/>
       <c r="R547" s="25"/>
       <c r="S547" s="25"/>
@@ -12550,7 +12549,7 @@
       <c r="AD547" s="25"/>
       <c r="AE547" s="25"/>
     </row>
-    <row r="548" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="17:31" ht="12.75">
       <c r="Q548" s="25"/>
       <c r="R548" s="25"/>
       <c r="S548" s="25"/>
@@ -12563,7 +12562,7 @@
       <c r="AD548" s="25"/>
       <c r="AE548" s="25"/>
     </row>
-    <row r="549" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="17:31" ht="12.75">
       <c r="Q549" s="25"/>
       <c r="R549" s="25"/>
       <c r="S549" s="25"/>
@@ -12576,7 +12575,7 @@
       <c r="AD549" s="25"/>
       <c r="AE549" s="25"/>
     </row>
-    <row r="550" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="17:31" ht="12.75">
       <c r="Q550" s="25"/>
       <c r="R550" s="25"/>
       <c r="S550" s="25"/>
@@ -12589,7 +12588,7 @@
       <c r="AD550" s="25"/>
       <c r="AE550" s="25"/>
     </row>
-    <row r="551" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="17:31" ht="12.75">
       <c r="Q551" s="25"/>
       <c r="R551" s="25"/>
       <c r="S551" s="25"/>
@@ -12602,7 +12601,7 @@
       <c r="AD551" s="25"/>
       <c r="AE551" s="25"/>
     </row>
-    <row r="552" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="17:31" ht="12.75">
       <c r="Q552" s="25"/>
       <c r="R552" s="25"/>
       <c r="S552" s="25"/>
@@ -12615,7 +12614,7 @@
       <c r="AD552" s="25"/>
       <c r="AE552" s="25"/>
     </row>
-    <row r="553" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="17:31" ht="12.75">
       <c r="Q553" s="25"/>
       <c r="R553" s="25"/>
       <c r="S553" s="25"/>
@@ -12628,7 +12627,7 @@
       <c r="AD553" s="25"/>
       <c r="AE553" s="25"/>
     </row>
-    <row r="554" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="17:31" ht="12.75">
       <c r="Q554" s="25"/>
       <c r="R554" s="25"/>
       <c r="S554" s="25"/>
@@ -12641,7 +12640,7 @@
       <c r="AD554" s="25"/>
       <c r="AE554" s="25"/>
     </row>
-    <row r="555" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="17:31" ht="12.75">
       <c r="Q555" s="25"/>
       <c r="R555" s="25"/>
       <c r="S555" s="25"/>
@@ -12654,7 +12653,7 @@
       <c r="AD555" s="25"/>
       <c r="AE555" s="25"/>
     </row>
-    <row r="556" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="17:31" ht="12.75">
       <c r="Q556" s="25"/>
       <c r="R556" s="25"/>
       <c r="S556" s="25"/>
@@ -12667,7 +12666,7 @@
       <c r="AD556" s="25"/>
       <c r="AE556" s="25"/>
     </row>
-    <row r="557" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="17:31" ht="12.75">
       <c r="Q557" s="25"/>
       <c r="R557" s="25"/>
       <c r="S557" s="25"/>
@@ -12680,7 +12679,7 @@
       <c r="AD557" s="25"/>
       <c r="AE557" s="25"/>
     </row>
-    <row r="558" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="17:31" ht="12.75">
       <c r="Q558" s="25"/>
       <c r="R558" s="25"/>
       <c r="S558" s="25"/>
@@ -12693,7 +12692,7 @@
       <c r="AD558" s="25"/>
       <c r="AE558" s="25"/>
     </row>
-    <row r="559" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="17:31" ht="12.75">
       <c r="Q559" s="25"/>
       <c r="R559" s="25"/>
       <c r="S559" s="25"/>
@@ -12706,7 +12705,7 @@
       <c r="AD559" s="25"/>
       <c r="AE559" s="25"/>
     </row>
-    <row r="560" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="17:31" ht="12.75">
       <c r="Q560" s="25"/>
       <c r="R560" s="25"/>
       <c r="S560" s="25"/>
@@ -12719,7 +12718,7 @@
       <c r="AD560" s="25"/>
       <c r="AE560" s="25"/>
     </row>
-    <row r="561" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="17:31" ht="12.75">
       <c r="Q561" s="25"/>
       <c r="R561" s="25"/>
       <c r="S561" s="25"/>
@@ -12732,7 +12731,7 @@
       <c r="AD561" s="25"/>
       <c r="AE561" s="25"/>
     </row>
-    <row r="562" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="17:31" ht="12.75">
       <c r="Q562" s="25"/>
       <c r="R562" s="25"/>
       <c r="S562" s="25"/>
@@ -12745,7 +12744,7 @@
       <c r="AD562" s="25"/>
       <c r="AE562" s="25"/>
     </row>
-    <row r="563" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="17:31" ht="12.75">
       <c r="Q563" s="25"/>
       <c r="R563" s="25"/>
       <c r="S563" s="25"/>
@@ -12758,7 +12757,7 @@
       <c r="AD563" s="25"/>
       <c r="AE563" s="25"/>
     </row>
-    <row r="564" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="17:31" ht="12.75">
       <c r="Q564" s="25"/>
       <c r="R564" s="25"/>
       <c r="S564" s="25"/>
@@ -12771,7 +12770,7 @@
       <c r="AD564" s="25"/>
       <c r="AE564" s="25"/>
     </row>
-    <row r="565" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="17:31" ht="12.75">
       <c r="Q565" s="25"/>
       <c r="R565" s="25"/>
       <c r="S565" s="25"/>
@@ -12784,7 +12783,7 @@
       <c r="AD565" s="25"/>
       <c r="AE565" s="25"/>
     </row>
-    <row r="566" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="17:31" ht="12.75">
       <c r="Q566" s="25"/>
       <c r="R566" s="25"/>
       <c r="S566" s="25"/>
@@ -12797,7 +12796,7 @@
       <c r="AD566" s="25"/>
       <c r="AE566" s="25"/>
     </row>
-    <row r="567" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="17:31" ht="12.75">
       <c r="Q567" s="25"/>
       <c r="R567" s="25"/>
       <c r="S567" s="25"/>
@@ -12810,7 +12809,7 @@
       <c r="AD567" s="25"/>
       <c r="AE567" s="25"/>
     </row>
-    <row r="568" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="17:31" ht="12.75">
       <c r="Q568" s="25"/>
       <c r="R568" s="25"/>
       <c r="S568" s="25"/>
@@ -12823,7 +12822,7 @@
       <c r="AD568" s="25"/>
       <c r="AE568" s="25"/>
     </row>
-    <row r="569" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="17:31" ht="12.75">
       <c r="Q569" s="25"/>
       <c r="R569" s="25"/>
       <c r="S569" s="25"/>
@@ -12836,7 +12835,7 @@
       <c r="AD569" s="25"/>
       <c r="AE569" s="25"/>
     </row>
-    <row r="570" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="17:31" ht="12.75">
       <c r="Q570" s="25"/>
       <c r="R570" s="25"/>
       <c r="S570" s="25"/>
@@ -12849,7 +12848,7 @@
       <c r="AD570" s="25"/>
       <c r="AE570" s="25"/>
     </row>
-    <row r="571" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="17:31" ht="12.75">
       <c r="Q571" s="25"/>
       <c r="R571" s="25"/>
       <c r="S571" s="25"/>
@@ -12862,7 +12861,7 @@
       <c r="AD571" s="25"/>
       <c r="AE571" s="25"/>
     </row>
-    <row r="572" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="17:31" ht="12.75">
       <c r="Q572" s="25"/>
       <c r="R572" s="25"/>
       <c r="S572" s="25"/>
@@ -12875,7 +12874,7 @@
       <c r="AD572" s="25"/>
       <c r="AE572" s="25"/>
     </row>
-    <row r="573" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="17:31" ht="12.75">
       <c r="Q573" s="25"/>
       <c r="R573" s="25"/>
       <c r="S573" s="25"/>
@@ -12888,7 +12887,7 @@
       <c r="AD573" s="25"/>
       <c r="AE573" s="25"/>
     </row>
-    <row r="574" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="17:31" ht="12.75">
       <c r="Q574" s="25"/>
       <c r="R574" s="25"/>
       <c r="S574" s="25"/>
@@ -12901,7 +12900,7 @@
       <c r="AD574" s="25"/>
       <c r="AE574" s="25"/>
     </row>
-    <row r="575" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="17:31" ht="12.75">
       <c r="Q575" s="25"/>
       <c r="R575" s="25"/>
       <c r="S575" s="25"/>
@@ -12914,7 +12913,7 @@
       <c r="AD575" s="25"/>
       <c r="AE575" s="25"/>
     </row>
-    <row r="576" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="17:31" ht="12.75">
       <c r="Q576" s="25"/>
       <c r="R576" s="25"/>
       <c r="S576" s="25"/>
@@ -12927,7 +12926,7 @@
       <c r="AD576" s="25"/>
       <c r="AE576" s="25"/>
     </row>
-    <row r="577" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="17:31" ht="12.75">
       <c r="Q577" s="25"/>
       <c r="R577" s="25"/>
       <c r="S577" s="25"/>
@@ -12940,7 +12939,7 @@
       <c r="AD577" s="25"/>
       <c r="AE577" s="25"/>
     </row>
-    <row r="578" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="17:31" ht="12.75">
       <c r="Q578" s="25"/>
       <c r="R578" s="25"/>
       <c r="S578" s="25"/>
@@ -12953,7 +12952,7 @@
       <c r="AD578" s="25"/>
       <c r="AE578" s="25"/>
     </row>
-    <row r="579" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="17:31" ht="12.75">
       <c r="Q579" s="25"/>
       <c r="R579" s="25"/>
       <c r="S579" s="25"/>
@@ -12966,7 +12965,7 @@
       <c r="AD579" s="25"/>
       <c r="AE579" s="25"/>
     </row>
-    <row r="580" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="17:31" ht="12.75">
       <c r="Q580" s="25"/>
       <c r="R580" s="25"/>
       <c r="S580" s="25"/>
@@ -12979,7 +12978,7 @@
       <c r="AD580" s="25"/>
       <c r="AE580" s="25"/>
     </row>
-    <row r="581" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="17:31" ht="12.75">
       <c r="Q581" s="25"/>
       <c r="R581" s="25"/>
       <c r="S581" s="25"/>
@@ -12992,7 +12991,7 @@
       <c r="AD581" s="25"/>
       <c r="AE581" s="25"/>
     </row>
-    <row r="582" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="17:31" ht="12.75">
       <c r="Q582" s="25"/>
       <c r="R582" s="25"/>
       <c r="S582" s="25"/>
@@ -13005,7 +13004,7 @@
       <c r="AD582" s="25"/>
       <c r="AE582" s="25"/>
     </row>
-    <row r="583" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="17:31" ht="12.75">
       <c r="Q583" s="25"/>
       <c r="R583" s="25"/>
       <c r="S583" s="25"/>
@@ -13018,7 +13017,7 @@
       <c r="AD583" s="25"/>
       <c r="AE583" s="25"/>
     </row>
-    <row r="584" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="17:31" ht="12.75">
       <c r="Q584" s="25"/>
       <c r="R584" s="25"/>
       <c r="S584" s="25"/>
@@ -13031,7 +13030,7 @@
       <c r="AD584" s="25"/>
       <c r="AE584" s="25"/>
     </row>
-    <row r="585" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="17:31" ht="12.75">
       <c r="Q585" s="25"/>
       <c r="R585" s="25"/>
       <c r="S585" s="25"/>
@@ -13044,7 +13043,7 @@
       <c r="AD585" s="25"/>
       <c r="AE585" s="25"/>
     </row>
-    <row r="586" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="17:31" ht="12.75">
       <c r="Q586" s="25"/>
       <c r="R586" s="25"/>
       <c r="S586" s="25"/>
@@ -13057,7 +13056,7 @@
       <c r="AD586" s="25"/>
       <c r="AE586" s="25"/>
     </row>
-    <row r="587" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="17:31" ht="12.75">
       <c r="Q587" s="25"/>
       <c r="R587" s="25"/>
       <c r="S587" s="25"/>
@@ -13070,7 +13069,7 @@
       <c r="AD587" s="25"/>
       <c r="AE587" s="25"/>
     </row>
-    <row r="588" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="17:31" ht="12.75">
       <c r="Q588" s="25"/>
       <c r="R588" s="25"/>
       <c r="S588" s="25"/>
@@ -13083,7 +13082,7 @@
       <c r="AD588" s="25"/>
       <c r="AE588" s="25"/>
     </row>
-    <row r="589" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="17:31" ht="12.75">
       <c r="Q589" s="25"/>
       <c r="R589" s="25"/>
       <c r="S589" s="25"/>
@@ -13096,7 +13095,7 @@
       <c r="AD589" s="25"/>
       <c r="AE589" s="25"/>
     </row>
-    <row r="590" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="17:31" ht="12.75">
       <c r="Q590" s="25"/>
       <c r="R590" s="25"/>
       <c r="S590" s="25"/>
@@ -13109,7 +13108,7 @@
       <c r="AD590" s="25"/>
       <c r="AE590" s="25"/>
     </row>
-    <row r="591" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="17:31" ht="12.75">
       <c r="Q591" s="25"/>
       <c r="R591" s="25"/>
       <c r="S591" s="25"/>
@@ -13122,7 +13121,7 @@
       <c r="AD591" s="25"/>
       <c r="AE591" s="25"/>
     </row>
-    <row r="592" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="17:31" ht="12.75">
       <c r="Q592" s="25"/>
       <c r="R592" s="25"/>
       <c r="S592" s="25"/>
@@ -13135,7 +13134,7 @@
       <c r="AD592" s="25"/>
       <c r="AE592" s="25"/>
     </row>
-    <row r="593" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="17:31" ht="12.75">
       <c r="Q593" s="25"/>
       <c r="R593" s="25"/>
       <c r="S593" s="25"/>
@@ -13148,7 +13147,7 @@
       <c r="AD593" s="25"/>
       <c r="AE593" s="25"/>
     </row>
-    <row r="594" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="17:31" ht="12.75">
       <c r="Q594" s="25"/>
       <c r="R594" s="25"/>
       <c r="S594" s="25"/>
@@ -13161,7 +13160,7 @@
       <c r="AD594" s="25"/>
       <c r="AE594" s="25"/>
     </row>
-    <row r="595" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="17:31" ht="12.75">
       <c r="Q595" s="25"/>
       <c r="R595" s="25"/>
       <c r="S595" s="25"/>
@@ -13174,7 +13173,7 @@
       <c r="AD595" s="25"/>
       <c r="AE595" s="25"/>
     </row>
-    <row r="596" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="17:31" ht="12.75">
       <c r="Q596" s="25"/>
       <c r="R596" s="25"/>
       <c r="S596" s="25"/>
@@ -13187,7 +13186,7 @@
       <c r="AD596" s="25"/>
       <c r="AE596" s="25"/>
     </row>
-    <row r="597" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="17:31" ht="12.75">
       <c r="Q597" s="25"/>
       <c r="R597" s="25"/>
       <c r="S597" s="25"/>
@@ -13200,7 +13199,7 @@
       <c r="AD597" s="25"/>
       <c r="AE597" s="25"/>
     </row>
-    <row r="598" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="17:31" ht="12.75">
       <c r="Q598" s="25"/>
       <c r="R598" s="25"/>
       <c r="S598" s="25"/>
@@ -13213,7 +13212,7 @@
       <c r="AD598" s="25"/>
       <c r="AE598" s="25"/>
     </row>
-    <row r="599" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="17:31" ht="12.75">
       <c r="Q599" s="25"/>
       <c r="R599" s="25"/>
       <c r="S599" s="25"/>
@@ -13226,7 +13225,7 @@
       <c r="AD599" s="25"/>
       <c r="AE599" s="25"/>
     </row>
-    <row r="600" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="17:31" ht="12.75">
       <c r="Q600" s="25"/>
       <c r="R600" s="25"/>
       <c r="S600" s="25"/>
@@ -13239,7 +13238,7 @@
       <c r="AD600" s="25"/>
       <c r="AE600" s="25"/>
     </row>
-    <row r="601" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="17:31" ht="12.75">
       <c r="Q601" s="25"/>
       <c r="R601" s="25"/>
       <c r="S601" s="25"/>
@@ -13252,7 +13251,7 @@
       <c r="AD601" s="25"/>
       <c r="AE601" s="25"/>
     </row>
-    <row r="602" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="17:31" ht="12.75">
       <c r="Q602" s="25"/>
       <c r="R602" s="25"/>
       <c r="S602" s="25"/>
@@ -13265,7 +13264,7 @@
       <c r="AD602" s="25"/>
       <c r="AE602" s="25"/>
     </row>
-    <row r="603" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="17:31" ht="12.75">
       <c r="Q603" s="25"/>
       <c r="R603" s="25"/>
       <c r="S603" s="25"/>
@@ -13278,7 +13277,7 @@
       <c r="AD603" s="25"/>
       <c r="AE603" s="25"/>
     </row>
-    <row r="604" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="17:31" ht="12.75">
       <c r="Q604" s="25"/>
       <c r="R604" s="25"/>
       <c r="S604" s="25"/>
@@ -13291,7 +13290,7 @@
       <c r="AD604" s="25"/>
       <c r="AE604" s="25"/>
     </row>
-    <row r="605" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="17:31" ht="12.75">
       <c r="Q605" s="25"/>
       <c r="R605" s="25"/>
       <c r="S605" s="25"/>
@@ -13304,7 +13303,7 @@
       <c r="AD605" s="25"/>
       <c r="AE605" s="25"/>
     </row>
-    <row r="606" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="17:31" ht="12.75">
       <c r="Q606" s="25"/>
       <c r="R606" s="25"/>
       <c r="S606" s="25"/>
@@ -13317,7 +13316,7 @@
       <c r="AD606" s="25"/>
       <c r="AE606" s="25"/>
     </row>
-    <row r="607" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="17:31" ht="12.75">
       <c r="Q607" s="25"/>
       <c r="R607" s="25"/>
       <c r="S607" s="25"/>
@@ -13330,7 +13329,7 @@
       <c r="AD607" s="25"/>
       <c r="AE607" s="25"/>
     </row>
-    <row r="608" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="17:31" ht="12.75">
       <c r="Q608" s="25"/>
       <c r="R608" s="25"/>
       <c r="S608" s="25"/>
@@ -13343,7 +13342,7 @@
       <c r="AD608" s="25"/>
       <c r="AE608" s="25"/>
     </row>
-    <row r="609" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="17:31" ht="12.75">
       <c r="Q609" s="25"/>
       <c r="R609" s="25"/>
       <c r="S609" s="25"/>
@@ -13356,7 +13355,7 @@
       <c r="AD609" s="25"/>
       <c r="AE609" s="25"/>
     </row>
-    <row r="610" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="17:31" ht="12.75">
       <c r="Q610" s="25"/>
       <c r="R610" s="25"/>
       <c r="S610" s="25"/>
@@ -13369,7 +13368,7 @@
       <c r="AD610" s="25"/>
       <c r="AE610" s="25"/>
     </row>
-    <row r="611" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="17:31" ht="12.75">
       <c r="Q611" s="25"/>
       <c r="R611" s="25"/>
       <c r="S611" s="25"/>
@@ -13382,7 +13381,7 @@
       <c r="AD611" s="25"/>
       <c r="AE611" s="25"/>
     </row>
-    <row r="612" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="17:31" ht="12.75">
       <c r="Q612" s="25"/>
       <c r="R612" s="25"/>
       <c r="S612" s="25"/>
@@ -13395,7 +13394,7 @@
       <c r="AD612" s="25"/>
       <c r="AE612" s="25"/>
     </row>
-    <row r="613" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="17:31" ht="12.75">
       <c r="Q613" s="25"/>
       <c r="R613" s="25"/>
       <c r="S613" s="25"/>
@@ -13408,7 +13407,7 @@
       <c r="AD613" s="25"/>
       <c r="AE613" s="25"/>
     </row>
-    <row r="614" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="17:31" ht="12.75">
       <c r="Q614" s="25"/>
       <c r="R614" s="25"/>
       <c r="S614" s="25"/>
@@ -13421,7 +13420,7 @@
       <c r="AD614" s="25"/>
       <c r="AE614" s="25"/>
     </row>
-    <row r="615" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="17:31" ht="12.75">
       <c r="Q615" s="25"/>
       <c r="R615" s="25"/>
       <c r="S615" s="25"/>
@@ -13434,7 +13433,7 @@
       <c r="AD615" s="25"/>
       <c r="AE615" s="25"/>
     </row>
-    <row r="616" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="17:31" ht="12.75">
       <c r="Q616" s="25"/>
       <c r="R616" s="25"/>
       <c r="S616" s="25"/>
@@ -13447,7 +13446,7 @@
       <c r="AD616" s="25"/>
       <c r="AE616" s="25"/>
     </row>
-    <row r="617" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="17:31" ht="12.75">
       <c r="Q617" s="25"/>
       <c r="R617" s="25"/>
       <c r="S617" s="25"/>
@@ -13460,7 +13459,7 @@
       <c r="AD617" s="25"/>
       <c r="AE617" s="25"/>
     </row>
-    <row r="618" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="17:31" ht="12.75">
       <c r="Q618" s="25"/>
       <c r="R618" s="25"/>
       <c r="S618" s="25"/>
@@ -13473,7 +13472,7 @@
       <c r="AD618" s="25"/>
       <c r="AE618" s="25"/>
     </row>
-    <row r="619" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="17:31" ht="12.75">
       <c r="Q619" s="25"/>
       <c r="R619" s="25"/>
       <c r="S619" s="25"/>
@@ -13486,7 +13485,7 @@
       <c r="AD619" s="25"/>
       <c r="AE619" s="25"/>
     </row>
-    <row r="620" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="17:31" ht="12.75">
       <c r="Q620" s="25"/>
       <c r="R620" s="25"/>
       <c r="S620" s="25"/>
@@ -13499,7 +13498,7 @@
       <c r="AD620" s="25"/>
       <c r="AE620" s="25"/>
     </row>
-    <row r="621" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="17:31" ht="12.75">
       <c r="Q621" s="25"/>
       <c r="R621" s="25"/>
       <c r="S621" s="25"/>
@@ -13512,7 +13511,7 @@
       <c r="AD621" s="25"/>
       <c r="AE621" s="25"/>
     </row>
-    <row r="622" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="17:31" ht="12.75">
       <c r="Q622" s="25"/>
       <c r="R622" s="25"/>
       <c r="S622" s="25"/>
@@ -13525,7 +13524,7 @@
       <c r="AD622" s="25"/>
       <c r="AE622" s="25"/>
     </row>
-    <row r="623" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="17:31" ht="12.75">
       <c r="Q623" s="25"/>
       <c r="R623" s="25"/>
       <c r="S623" s="25"/>
@@ -13538,7 +13537,7 @@
       <c r="AD623" s="25"/>
       <c r="AE623" s="25"/>
     </row>
-    <row r="624" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="17:31" ht="12.75">
       <c r="Q624" s="25"/>
       <c r="R624" s="25"/>
       <c r="S624" s="25"/>
@@ -13551,7 +13550,7 @@
       <c r="AD624" s="25"/>
       <c r="AE624" s="25"/>
     </row>
-    <row r="625" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="17:31" ht="12.75">
       <c r="Q625" s="25"/>
       <c r="R625" s="25"/>
       <c r="S625" s="25"/>
@@ -13564,7 +13563,7 @@
       <c r="AD625" s="25"/>
       <c r="AE625" s="25"/>
     </row>
-    <row r="626" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="17:31" ht="12.75">
       <c r="Q626" s="25"/>
       <c r="R626" s="25"/>
       <c r="S626" s="25"/>
@@ -13577,7 +13576,7 @@
       <c r="AD626" s="25"/>
       <c r="AE626" s="25"/>
     </row>
-    <row r="627" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="17:31" ht="12.75">
       <c r="Q627" s="25"/>
       <c r="R627" s="25"/>
       <c r="S627" s="25"/>
@@ -13590,7 +13589,7 @@
       <c r="AD627" s="25"/>
       <c r="AE627" s="25"/>
     </row>
-    <row r="628" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="17:31" ht="12.75">
       <c r="Q628" s="25"/>
       <c r="R628" s="25"/>
       <c r="S628" s="25"/>
@@ -13603,7 +13602,7 @@
       <c r="AD628" s="25"/>
       <c r="AE628" s="25"/>
     </row>
-    <row r="629" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="17:31" ht="12.75">
       <c r="Q629" s="25"/>
       <c r="R629" s="25"/>
       <c r="S629" s="25"/>
@@ -13616,7 +13615,7 @@
       <c r="AD629" s="25"/>
       <c r="AE629" s="25"/>
     </row>
-    <row r="630" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="17:31" ht="12.75">
       <c r="Q630" s="25"/>
       <c r="R630" s="25"/>
       <c r="S630" s="25"/>
@@ -13629,7 +13628,7 @@
       <c r="AD630" s="25"/>
       <c r="AE630" s="25"/>
     </row>
-    <row r="631" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="17:31" ht="12.75">
       <c r="Q631" s="25"/>
       <c r="R631" s="25"/>
       <c r="S631" s="25"/>
@@ -13642,7 +13641,7 @@
       <c r="AD631" s="25"/>
       <c r="AE631" s="25"/>
     </row>
-    <row r="632" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="17:31" ht="12.75">
       <c r="Q632" s="25"/>
       <c r="R632" s="25"/>
       <c r="S632" s="25"/>
@@ -13655,7 +13654,7 @@
       <c r="AD632" s="25"/>
       <c r="AE632" s="25"/>
     </row>
-    <row r="633" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="17:31" ht="12.75">
       <c r="Q633" s="25"/>
       <c r="R633" s="25"/>
       <c r="S633" s="25"/>
@@ -13668,7 +13667,7 @@
       <c r="AD633" s="25"/>
       <c r="AE633" s="25"/>
     </row>
-    <row r="634" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="17:31" ht="12.75">
       <c r="Q634" s="25"/>
       <c r="R634" s="25"/>
       <c r="S634" s="25"/>
@@ -13681,7 +13680,7 @@
       <c r="AD634" s="25"/>
       <c r="AE634" s="25"/>
     </row>
-    <row r="635" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="17:31" ht="12.75">
       <c r="Q635" s="25"/>
       <c r="R635" s="25"/>
       <c r="S635" s="25"/>
@@ -13694,7 +13693,7 @@
       <c r="AD635" s="25"/>
       <c r="AE635" s="25"/>
     </row>
-    <row r="636" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="17:31" ht="12.75">
       <c r="Q636" s="25"/>
       <c r="R636" s="25"/>
       <c r="S636" s="25"/>
@@ -13707,7 +13706,7 @@
       <c r="AD636" s="25"/>
       <c r="AE636" s="25"/>
     </row>
-    <row r="637" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="17:31" ht="12.75">
       <c r="Q637" s="25"/>
       <c r="R637" s="25"/>
       <c r="S637" s="25"/>
@@ -13720,7 +13719,7 @@
       <c r="AD637" s="25"/>
       <c r="AE637" s="25"/>
     </row>
-    <row r="638" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="17:31" ht="12.75">
       <c r="Q638" s="25"/>
       <c r="R638" s="25"/>
       <c r="S638" s="25"/>
@@ -13733,7 +13732,7 @@
       <c r="AD638" s="25"/>
       <c r="AE638" s="25"/>
     </row>
-    <row r="639" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="17:31" ht="12.75">
       <c r="Q639" s="25"/>
       <c r="R639" s="25"/>
       <c r="S639" s="25"/>
@@ -13746,7 +13745,7 @@
       <c r="AD639" s="25"/>
       <c r="AE639" s="25"/>
     </row>
-    <row r="640" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="17:31" ht="12.75">
       <c r="Q640" s="25"/>
       <c r="R640" s="25"/>
       <c r="S640" s="25"/>
@@ -13759,7 +13758,7 @@
       <c r="AD640" s="25"/>
       <c r="AE640" s="25"/>
     </row>
-    <row r="641" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="17:31" ht="12.75">
       <c r="Q641" s="25"/>
       <c r="R641" s="25"/>
       <c r="S641" s="25"/>
@@ -13772,7 +13771,7 @@
       <c r="AD641" s="25"/>
       <c r="AE641" s="25"/>
     </row>
-    <row r="642" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="17:31" ht="12.75">
       <c r="Q642" s="25"/>
       <c r="R642" s="25"/>
       <c r="S642" s="25"/>
@@ -13785,7 +13784,7 @@
       <c r="AD642" s="25"/>
       <c r="AE642" s="25"/>
     </row>
-    <row r="643" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="17:31" ht="12.75">
       <c r="Q643" s="25"/>
       <c r="R643" s="25"/>
       <c r="S643" s="25"/>
@@ -13798,7 +13797,7 @@
       <c r="AD643" s="25"/>
       <c r="AE643" s="25"/>
     </row>
-    <row r="644" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="17:31" ht="12.75">
       <c r="Q644" s="25"/>
       <c r="R644" s="25"/>
       <c r="S644" s="25"/>
@@ -13811,7 +13810,7 @@
       <c r="AD644" s="25"/>
       <c r="AE644" s="25"/>
     </row>
-    <row r="645" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="17:31" ht="12.75">
       <c r="Q645" s="25"/>
       <c r="R645" s="25"/>
       <c r="S645" s="25"/>
@@ -13824,7 +13823,7 @@
       <c r="AD645" s="25"/>
       <c r="AE645" s="25"/>
     </row>
-    <row r="646" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="17:31" ht="12.75">
       <c r="Q646" s="25"/>
       <c r="R646" s="25"/>
       <c r="S646" s="25"/>
@@ -13837,7 +13836,7 @@
       <c r="AD646" s="25"/>
       <c r="AE646" s="25"/>
     </row>
-    <row r="647" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="17:31" ht="12.75">
       <c r="Q647" s="25"/>
       <c r="R647" s="25"/>
       <c r="S647" s="25"/>
@@ -13850,7 +13849,7 @@
       <c r="AD647" s="25"/>
       <c r="AE647" s="25"/>
     </row>
-    <row r="648" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="17:31" ht="12.75">
       <c r="Q648" s="25"/>
       <c r="R648" s="25"/>
       <c r="S648" s="25"/>
@@ -13863,7 +13862,7 @@
       <c r="AD648" s="25"/>
       <c r="AE648" s="25"/>
     </row>
-    <row r="649" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="17:31" ht="12.75">
       <c r="Q649" s="25"/>
       <c r="R649" s="25"/>
       <c r="S649" s="25"/>
@@ -13876,7 +13875,7 @@
       <c r="AD649" s="25"/>
       <c r="AE649" s="25"/>
     </row>
-    <row r="650" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="17:31" ht="12.75">
       <c r="Q650" s="25"/>
       <c r="R650" s="25"/>
       <c r="S650" s="25"/>
@@ -13889,7 +13888,7 @@
       <c r="AD650" s="25"/>
       <c r="AE650" s="25"/>
     </row>
-    <row r="651" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="17:31" ht="12.75">
       <c r="Q651" s="25"/>
       <c r="R651" s="25"/>
       <c r="S651" s="25"/>
@@ -13902,7 +13901,7 @@
       <c r="AD651" s="25"/>
       <c r="AE651" s="25"/>
     </row>
-    <row r="652" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="17:31" ht="12.75">
       <c r="Q652" s="25"/>
       <c r="R652" s="25"/>
       <c r="S652" s="25"/>
@@ -13915,7 +13914,7 @@
       <c r="AD652" s="25"/>
       <c r="AE652" s="25"/>
     </row>
-    <row r="653" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="17:31" ht="12.75">
       <c r="Q653" s="25"/>
       <c r="R653" s="25"/>
       <c r="S653" s="25"/>
@@ -13928,7 +13927,7 @@
       <c r="AD653" s="25"/>
       <c r="AE653" s="25"/>
     </row>
-    <row r="654" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="17:31" ht="12.75">
       <c r="Q654" s="25"/>
       <c r="R654" s="25"/>
       <c r="S654" s="25"/>
@@ -13941,7 +13940,7 @@
       <c r="AD654" s="25"/>
       <c r="AE654" s="25"/>
     </row>
-    <row r="655" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="17:31" ht="12.75">
       <c r="Q655" s="25"/>
       <c r="R655" s="25"/>
       <c r="S655" s="25"/>
@@ -13954,7 +13953,7 @@
       <c r="AD655" s="25"/>
       <c r="AE655" s="25"/>
     </row>
-    <row r="656" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="17:31" ht="12.75">
       <c r="Q656" s="25"/>
       <c r="R656" s="25"/>
       <c r="S656" s="25"/>
@@ -13967,7 +13966,7 @@
       <c r="AD656" s="25"/>
       <c r="AE656" s="25"/>
     </row>
-    <row r="657" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="17:31" ht="12.75">
       <c r="Q657" s="25"/>
       <c r="R657" s="25"/>
       <c r="S657" s="25"/>
@@ -13980,7 +13979,7 @@
       <c r="AD657" s="25"/>
       <c r="AE657" s="25"/>
     </row>
-    <row r="658" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="17:31" ht="12.75">
       <c r="Q658" s="25"/>
       <c r="R658" s="25"/>
       <c r="S658" s="25"/>
@@ -13993,7 +13992,7 @@
       <c r="AD658" s="25"/>
       <c r="AE658" s="25"/>
     </row>
-    <row r="659" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="17:31" ht="12.75">
       <c r="Q659" s="25"/>
       <c r="R659" s="25"/>
       <c r="S659" s="25"/>
@@ -14006,7 +14005,7 @@
       <c r="AD659" s="25"/>
       <c r="AE659" s="25"/>
     </row>
-    <row r="660" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="17:31" ht="12.75">
       <c r="Q660" s="25"/>
       <c r="R660" s="25"/>
       <c r="S660" s="25"/>
@@ -14019,7 +14018,7 @@
       <c r="AD660" s="25"/>
       <c r="AE660" s="25"/>
     </row>
-    <row r="661" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="17:31" ht="12.75">
       <c r="Q661" s="25"/>
       <c r="R661" s="25"/>
       <c r="S661" s="25"/>
@@ -14032,7 +14031,7 @@
       <c r="AD661" s="25"/>
       <c r="AE661" s="25"/>
     </row>
-    <row r="662" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="17:31" ht="12.75">
       <c r="Q662" s="25"/>
       <c r="R662" s="25"/>
       <c r="S662" s="25"/>
@@ -14045,7 +14044,7 @@
       <c r="AD662" s="25"/>
       <c r="AE662" s="25"/>
     </row>
-    <row r="663" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="17:31" ht="12.75">
       <c r="Q663" s="25"/>
       <c r="R663" s="25"/>
       <c r="S663" s="25"/>
@@ -14058,7 +14057,7 @@
       <c r="AD663" s="25"/>
       <c r="AE663" s="25"/>
     </row>
-    <row r="664" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="17:31" ht="12.75">
       <c r="Q664" s="25"/>
       <c r="R664" s="25"/>
       <c r="S664" s="25"/>
@@ -14071,7 +14070,7 @@
       <c r="AD664" s="25"/>
       <c r="AE664" s="25"/>
     </row>
-    <row r="665" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="17:31" ht="12.75">
       <c r="Q665" s="25"/>
       <c r="R665" s="25"/>
       <c r="S665" s="25"/>
@@ -14084,7 +14083,7 @@
       <c r="AD665" s="25"/>
       <c r="AE665" s="25"/>
     </row>
-    <row r="666" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="17:31" ht="12.75">
       <c r="Q666" s="25"/>
       <c r="R666" s="25"/>
       <c r="S666" s="25"/>
@@ -14097,7 +14096,7 @@
       <c r="AD666" s="25"/>
       <c r="AE666" s="25"/>
     </row>
-    <row r="667" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="17:31" ht="12.75">
       <c r="Q667" s="25"/>
       <c r="R667" s="25"/>
       <c r="S667" s="25"/>
@@ -14110,7 +14109,7 @@
       <c r="AD667" s="25"/>
       <c r="AE667" s="25"/>
     </row>
-    <row r="668" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="17:31" ht="12.75">
       <c r="Q668" s="25"/>
       <c r="R668" s="25"/>
       <c r="S668" s="25"/>
@@ -14123,7 +14122,7 @@
       <c r="AD668" s="25"/>
       <c r="AE668" s="25"/>
     </row>
-    <row r="669" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="17:31" ht="12.75">
       <c r="Q669" s="25"/>
       <c r="R669" s="25"/>
       <c r="S669" s="25"/>
@@ -14136,7 +14135,7 @@
       <c r="AD669" s="25"/>
       <c r="AE669" s="25"/>
     </row>
-    <row r="670" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="17:31" ht="12.75">
       <c r="Q670" s="25"/>
       <c r="R670" s="25"/>
       <c r="S670" s="25"/>
@@ -14149,7 +14148,7 @@
       <c r="AD670" s="25"/>
       <c r="AE670" s="25"/>
     </row>
-    <row r="671" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="17:31" ht="12.75">
       <c r="Q671" s="25"/>
       <c r="R671" s="25"/>
       <c r="S671" s="25"/>
@@ -14162,7 +14161,7 @@
       <c r="AD671" s="25"/>
       <c r="AE671" s="25"/>
     </row>
-    <row r="672" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="17:31" ht="12.75">
       <c r="Q672" s="25"/>
       <c r="R672" s="25"/>
       <c r="S672" s="25"/>
@@ -14175,7 +14174,7 @@
       <c r="AD672" s="25"/>
       <c r="AE672" s="25"/>
     </row>
-    <row r="673" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="17:31" ht="12.75">
       <c r="Q673" s="25"/>
       <c r="R673" s="25"/>
       <c r="S673" s="25"/>
@@ -14188,7 +14187,7 @@
       <c r="AD673" s="25"/>
       <c r="AE673" s="25"/>
     </row>
-    <row r="674" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="17:31" ht="12.75">
       <c r="Q674" s="25"/>
       <c r="R674" s="25"/>
       <c r="S674" s="25"/>
@@ -14201,7 +14200,7 @@
       <c r="AD674" s="25"/>
       <c r="AE674" s="25"/>
     </row>
-    <row r="675" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="17:31" ht="12.75">
       <c r="Q675" s="25"/>
       <c r="R675" s="25"/>
       <c r="S675" s="25"/>
@@ -14214,7 +14213,7 @@
       <c r="AD675" s="25"/>
       <c r="AE675" s="25"/>
     </row>
-    <row r="676" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="17:31" ht="12.75">
       <c r="Q676" s="25"/>
       <c r="R676" s="25"/>
       <c r="S676" s="25"/>
@@ -14227,7 +14226,7 @@
       <c r="AD676" s="25"/>
       <c r="AE676" s="25"/>
     </row>
-    <row r="677" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="17:31" ht="12.75">
       <c r="Q677" s="25"/>
       <c r="R677" s="25"/>
       <c r="S677" s="25"/>
@@ -14240,7 +14239,7 @@
       <c r="AD677" s="25"/>
       <c r="AE677" s="25"/>
     </row>
-    <row r="678" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="17:31" ht="12.75">
       <c r="Q678" s="25"/>
       <c r="R678" s="25"/>
       <c r="S678" s="25"/>
@@ -14253,7 +14252,7 @@
       <c r="AD678" s="25"/>
       <c r="AE678" s="25"/>
     </row>
-    <row r="679" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="17:31" ht="12.75">
       <c r="Q679" s="25"/>
       <c r="R679" s="25"/>
       <c r="S679" s="25"/>
@@ -14266,7 +14265,7 @@
       <c r="AD679" s="25"/>
       <c r="AE679" s="25"/>
     </row>
-    <row r="680" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="17:31" ht="12.75">
       <c r="Q680" s="25"/>
       <c r="R680" s="25"/>
       <c r="S680" s="25"/>
@@ -14279,7 +14278,7 @@
       <c r="AD680" s="25"/>
       <c r="AE680" s="25"/>
     </row>
-    <row r="681" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="17:31" ht="12.75">
       <c r="Q681" s="25"/>
       <c r="R681" s="25"/>
       <c r="S681" s="25"/>
@@ -14292,7 +14291,7 @@
       <c r="AD681" s="25"/>
       <c r="AE681" s="25"/>
     </row>
-    <row r="682" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="17:31" ht="12.75">
       <c r="Q682" s="25"/>
       <c r="R682" s="25"/>
       <c r="S682" s="25"/>
@@ -14305,7 +14304,7 @@
       <c r="AD682" s="25"/>
       <c r="AE682" s="25"/>
     </row>
-    <row r="683" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="17:31" ht="12.75">
       <c r="Q683" s="25"/>
       <c r="R683" s="25"/>
       <c r="S683" s="25"/>
@@ -14318,7 +14317,7 @@
       <c r="AD683" s="25"/>
       <c r="AE683" s="25"/>
     </row>
-    <row r="684" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="17:31" ht="12.75">
       <c r="Q684" s="25"/>
       <c r="R684" s="25"/>
       <c r="S684" s="25"/>
@@ -14331,7 +14330,7 @@
       <c r="AD684" s="25"/>
       <c r="AE684" s="25"/>
     </row>
-    <row r="685" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="17:31" ht="12.75">
       <c r="Q685" s="25"/>
       <c r="R685" s="25"/>
       <c r="S685" s="25"/>
@@ -14344,7 +14343,7 @@
       <c r="AD685" s="25"/>
       <c r="AE685" s="25"/>
     </row>
-    <row r="686" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="17:31" ht="12.75">
       <c r="Q686" s="25"/>
       <c r="R686" s="25"/>
       <c r="S686" s="25"/>
@@ -14357,7 +14356,7 @@
       <c r="AD686" s="25"/>
       <c r="AE686" s="25"/>
     </row>
-    <row r="687" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="17:31" ht="12.75">
       <c r="Q687" s="25"/>
       <c r="R687" s="25"/>
       <c r="S687" s="25"/>
@@ -14370,7 +14369,7 @@
       <c r="AD687" s="25"/>
       <c r="AE687" s="25"/>
     </row>
-    <row r="688" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="17:31" ht="12.75">
       <c r="Q688" s="25"/>
       <c r="R688" s="25"/>
       <c r="S688" s="25"/>
@@ -14383,7 +14382,7 @@
       <c r="AD688" s="25"/>
       <c r="AE688" s="25"/>
     </row>
-    <row r="689" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="17:31" ht="12.75">
       <c r="Q689" s="25"/>
       <c r="R689" s="25"/>
       <c r="S689" s="25"/>
@@ -14396,7 +14395,7 @@
       <c r="AD689" s="25"/>
       <c r="AE689" s="25"/>
     </row>
-    <row r="690" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="17:31" ht="12.75">
       <c r="Q690" s="25"/>
       <c r="R690" s="25"/>
       <c r="S690" s="25"/>
@@ -14409,7 +14408,7 @@
       <c r="AD690" s="25"/>
       <c r="AE690" s="25"/>
     </row>
-    <row r="691" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="17:31" ht="12.75">
       <c r="Q691" s="25"/>
       <c r="R691" s="25"/>
       <c r="S691" s="25"/>
@@ -14422,7 +14421,7 @@
       <c r="AD691" s="25"/>
       <c r="AE691" s="25"/>
     </row>
-    <row r="692" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="17:31" ht="12.75">
       <c r="Q692" s="25"/>
       <c r="R692" s="25"/>
       <c r="S692" s="25"/>
@@ -14435,7 +14434,7 @@
       <c r="AD692" s="25"/>
       <c r="AE692" s="25"/>
     </row>
-    <row r="693" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="17:31" ht="12.75">
       <c r="Q693" s="25"/>
       <c r="R693" s="25"/>
       <c r="S693" s="25"/>
@@ -14448,7 +14447,7 @@
       <c r="AD693" s="25"/>
       <c r="AE693" s="25"/>
     </row>
-    <row r="694" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="17:31" ht="12.75">
       <c r="Q694" s="25"/>
       <c r="R694" s="25"/>
       <c r="S694" s="25"/>
@@ -14461,7 +14460,7 @@
       <c r="AD694" s="25"/>
       <c r="AE694" s="25"/>
     </row>
-    <row r="695" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="17:31" ht="12.75">
       <c r="Q695" s="25"/>
       <c r="R695" s="25"/>
       <c r="S695" s="25"/>
@@ -14474,7 +14473,7 @@
       <c r="AD695" s="25"/>
       <c r="AE695" s="25"/>
     </row>
-    <row r="696" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="17:31" ht="12.75">
       <c r="Q696" s="25"/>
       <c r="R696" s="25"/>
       <c r="S696" s="25"/>
@@ -14487,7 +14486,7 @@
       <c r="AD696" s="25"/>
       <c r="AE696" s="25"/>
     </row>
-    <row r="697" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="17:31" ht="12.75">
       <c r="Q697" s="25"/>
       <c r="R697" s="25"/>
       <c r="S697" s="25"/>
@@ -14500,7 +14499,7 @@
       <c r="AD697" s="25"/>
       <c r="AE697" s="25"/>
     </row>
-    <row r="698" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="17:31" ht="12.75">
       <c r="Q698" s="25"/>
       <c r="R698" s="25"/>
       <c r="S698" s="25"/>
@@ -14513,7 +14512,7 @@
       <c r="AD698" s="25"/>
       <c r="AE698" s="25"/>
     </row>
-    <row r="699" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="17:31" ht="12.75">
       <c r="Q699" s="25"/>
       <c r="R699" s="25"/>
       <c r="S699" s="25"/>
@@ -14526,7 +14525,7 @@
       <c r="AD699" s="25"/>
       <c r="AE699" s="25"/>
     </row>
-    <row r="700" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="17:31" ht="12.75">
       <c r="Q700" s="25"/>
       <c r="R700" s="25"/>
       <c r="S700" s="25"/>
@@ -14539,7 +14538,7 @@
       <c r="AD700" s="25"/>
       <c r="AE700" s="25"/>
     </row>
-    <row r="701" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="17:31" ht="12.75">
       <c r="Q701" s="25"/>
       <c r="R701" s="25"/>
       <c r="S701" s="25"/>
@@ -14552,7 +14551,7 @@
       <c r="AD701" s="25"/>
       <c r="AE701" s="25"/>
     </row>
-    <row r="702" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="17:31" ht="12.75">
       <c r="Q702" s="25"/>
       <c r="R702" s="25"/>
       <c r="S702" s="25"/>
@@ -14565,7 +14564,7 @@
       <c r="AD702" s="25"/>
       <c r="AE702" s="25"/>
     </row>
-    <row r="703" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="17:31" ht="12.75">
       <c r="Q703" s="25"/>
       <c r="R703" s="25"/>
       <c r="S703" s="25"/>
@@ -14578,7 +14577,7 @@
       <c r="AD703" s="25"/>
       <c r="AE703" s="25"/>
     </row>
-    <row r="704" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="17:31" ht="12.75">
       <c r="Q704" s="25"/>
       <c r="R704" s="25"/>
       <c r="S704" s="25"/>
@@ -14591,7 +14590,7 @@
       <c r="AD704" s="25"/>
       <c r="AE704" s="25"/>
     </row>
-    <row r="705" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="17:31" ht="12.75">
       <c r="Q705" s="25"/>
       <c r="R705" s="25"/>
       <c r="S705" s="25"/>
@@ -14604,7 +14603,7 @@
       <c r="AD705" s="25"/>
       <c r="AE705" s="25"/>
     </row>
-    <row r="706" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="17:31" ht="12.75">
       <c r="Q706" s="25"/>
       <c r="R706" s="25"/>
       <c r="S706" s="25"/>
@@ -14617,7 +14616,7 @@
       <c r="AD706" s="25"/>
       <c r="AE706" s="25"/>
     </row>
-    <row r="707" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="17:31" ht="12.75">
       <c r="Q707" s="25"/>
       <c r="R707" s="25"/>
       <c r="S707" s="25"/>
@@ -14630,7 +14629,7 @@
       <c r="AD707" s="25"/>
       <c r="AE707" s="25"/>
     </row>
-    <row r="708" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="17:31" ht="12.75">
       <c r="Q708" s="25"/>
       <c r="R708" s="25"/>
       <c r="S708" s="25"/>
@@ -14643,7 +14642,7 @@
       <c r="AD708" s="25"/>
       <c r="AE708" s="25"/>
     </row>
-    <row r="709" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="17:31" ht="12.75">
       <c r="Q709" s="25"/>
       <c r="R709" s="25"/>
       <c r="S709" s="25"/>
@@ -14656,7 +14655,7 @@
       <c r="AD709" s="25"/>
       <c r="AE709" s="25"/>
     </row>
-    <row r="710" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="17:31" ht="12.75">
       <c r="Q710" s="25"/>
       <c r="R710" s="25"/>
       <c r="S710" s="25"/>
@@ -14669,7 +14668,7 @@
       <c r="AD710" s="25"/>
       <c r="AE710" s="25"/>
     </row>
-    <row r="711" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="17:31" ht="12.75">
       <c r="Q711" s="25"/>
       <c r="R711" s="25"/>
       <c r="S711" s="25"/>
@@ -14682,7 +14681,7 @@
       <c r="AD711" s="25"/>
       <c r="AE711" s="25"/>
     </row>
-    <row r="712" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="17:31" ht="12.75">
       <c r="Q712" s="25"/>
       <c r="R712" s="25"/>
       <c r="S712" s="25"/>
@@ -14695,7 +14694,7 @@
       <c r="AD712" s="25"/>
       <c r="AE712" s="25"/>
     </row>
-    <row r="713" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="17:31" ht="12.75">
       <c r="Q713" s="25"/>
       <c r="R713" s="25"/>
       <c r="S713" s="25"/>
@@ -14708,7 +14707,7 @@
       <c r="AD713" s="25"/>
       <c r="AE713" s="25"/>
     </row>
-    <row r="714" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="17:31" ht="12.75">
       <c r="Q714" s="25"/>
       <c r="R714" s="25"/>
       <c r="S714" s="25"/>
@@ -14721,7 +14720,7 @@
       <c r="AD714" s="25"/>
       <c r="AE714" s="25"/>
     </row>
-    <row r="715" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="17:31" ht="12.75">
       <c r="Q715" s="25"/>
       <c r="R715" s="25"/>
       <c r="S715" s="25"/>
@@ -14734,7 +14733,7 @@
       <c r="AD715" s="25"/>
       <c r="AE715" s="25"/>
     </row>
-    <row r="716" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="17:31" ht="12.75">
       <c r="Q716" s="25"/>
       <c r="R716" s="25"/>
       <c r="S716" s="25"/>
@@ -14747,7 +14746,7 @@
       <c r="AD716" s="25"/>
       <c r="AE716" s="25"/>
     </row>
-    <row r="717" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="17:31" ht="12.75">
       <c r="Q717" s="25"/>
       <c r="R717" s="25"/>
       <c r="S717" s="25"/>
@@ -14760,7 +14759,7 @@
       <c r="AD717" s="25"/>
       <c r="AE717" s="25"/>
     </row>
-    <row r="718" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="17:31" ht="12.75">
       <c r="Q718" s="25"/>
       <c r="R718" s="25"/>
       <c r="S718" s="25"/>
@@ -14773,7 +14772,7 @@
       <c r="AD718" s="25"/>
       <c r="AE718" s="25"/>
     </row>
-    <row r="719" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="17:31" ht="12.75">
       <c r="Q719" s="25"/>
       <c r="R719" s="25"/>
       <c r="S719" s="25"/>
@@ -14786,7 +14785,7 @@
       <c r="AD719" s="25"/>
       <c r="AE719" s="25"/>
     </row>
-    <row r="720" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="17:31" ht="12.75">
       <c r="Q720" s="25"/>
       <c r="R720" s="25"/>
       <c r="S720" s="25"/>
@@ -14799,7 +14798,7 @@
       <c r="AD720" s="25"/>
       <c r="AE720" s="25"/>
     </row>
-    <row r="721" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="17:31" ht="12.75">
       <c r="Q721" s="25"/>
       <c r="R721" s="25"/>
       <c r="S721" s="25"/>
@@ -14812,7 +14811,7 @@
       <c r="AD721" s="25"/>
       <c r="AE721" s="25"/>
     </row>
-    <row r="722" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="17:31" ht="12.75">
       <c r="Q722" s="25"/>
       <c r="R722" s="25"/>
       <c r="S722" s="25"/>
@@ -14825,7 +14824,7 @@
       <c r="AD722" s="25"/>
       <c r="AE722" s="25"/>
     </row>
-    <row r="723" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="17:31" ht="12.75">
       <c r="Q723" s="25"/>
       <c r="R723" s="25"/>
       <c r="S723" s="25"/>
@@ -14838,7 +14837,7 @@
       <c r="AD723" s="25"/>
       <c r="AE723" s="25"/>
     </row>
-    <row r="724" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="17:31" ht="12.75">
       <c r="Q724" s="25"/>
       <c r="R724" s="25"/>
       <c r="S724" s="25"/>
@@ -14851,7 +14850,7 @@
       <c r="AD724" s="25"/>
       <c r="AE724" s="25"/>
     </row>
-    <row r="725" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="17:31" ht="12.75">
       <c r="Q725" s="25"/>
       <c r="R725" s="25"/>
       <c r="S725" s="25"/>
@@ -14864,7 +14863,7 @@
       <c r="AD725" s="25"/>
       <c r="AE725" s="25"/>
     </row>
-    <row r="726" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="17:31" ht="12.75">
       <c r="Q726" s="25"/>
       <c r="R726" s="25"/>
       <c r="S726" s="25"/>
@@ -14877,7 +14876,7 @@
       <c r="AD726" s="25"/>
       <c r="AE726" s="25"/>
     </row>
-    <row r="727" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="17:31" ht="12.75">
       <c r="Q727" s="25"/>
       <c r="R727" s="25"/>
       <c r="S727" s="25"/>
@@ -14890,7 +14889,7 @@
       <c r="AD727" s="25"/>
       <c r="AE727" s="25"/>
     </row>
-    <row r="728" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="17:31" ht="12.75">
       <c r="Q728" s="25"/>
       <c r="R728" s="25"/>
       <c r="S728" s="25"/>
@@ -14903,7 +14902,7 @@
       <c r="AD728" s="25"/>
       <c r="AE728" s="25"/>
     </row>
-    <row r="729" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="17:31" ht="12.75">
       <c r="Q729" s="25"/>
       <c r="R729" s="25"/>
       <c r="S729" s="25"/>
@@ -14916,7 +14915,7 @@
       <c r="AD729" s="25"/>
       <c r="AE729" s="25"/>
     </row>
-    <row r="730" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="17:31" ht="12.75">
       <c r="Q730" s="25"/>
       <c r="R730" s="25"/>
       <c r="S730" s="25"/>
@@ -14929,7 +14928,7 @@
       <c r="AD730" s="25"/>
       <c r="AE730" s="25"/>
     </row>
-    <row r="731" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="17:31" ht="12.75">
       <c r="Q731" s="25"/>
       <c r="R731" s="25"/>
       <c r="S731" s="25"/>
@@ -14942,7 +14941,7 @@
       <c r="AD731" s="25"/>
       <c r="AE731" s="25"/>
     </row>
-    <row r="732" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="17:31" ht="12.75">
       <c r="Q732" s="25"/>
       <c r="R732" s="25"/>
       <c r="S732" s="25"/>
@@ -14955,7 +14954,7 @@
       <c r="AD732" s="25"/>
       <c r="AE732" s="25"/>
     </row>
-    <row r="733" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="17:31" ht="12.75">
       <c r="Q733" s="25"/>
       <c r="R733" s="25"/>
       <c r="S733" s="25"/>
@@ -14968,7 +14967,7 @@
       <c r="AD733" s="25"/>
       <c r="AE733" s="25"/>
     </row>
-    <row r="734" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="17:31" ht="12.75">
       <c r="Q734" s="25"/>
       <c r="R734" s="25"/>
       <c r="S734" s="25"/>
@@ -14981,7 +14980,7 @@
       <c r="AD734" s="25"/>
       <c r="AE734" s="25"/>
     </row>
-    <row r="735" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="17:31" ht="12.75">
       <c r="Q735" s="25"/>
       <c r="R735" s="25"/>
       <c r="S735" s="25"/>
@@ -14994,7 +14993,7 @@
       <c r="AD735" s="25"/>
       <c r="AE735" s="25"/>
     </row>
-    <row r="736" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="17:31" ht="12.75">
       <c r="Q736" s="25"/>
       <c r="R736" s="25"/>
       <c r="S736" s="25"/>
@@ -15007,7 +15006,7 @@
       <c r="AD736" s="25"/>
       <c r="AE736" s="25"/>
     </row>
-    <row r="737" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="17:31" ht="12.75">
       <c r="Q737" s="25"/>
       <c r="R737" s="25"/>
       <c r="S737" s="25"/>
@@ -15020,7 +15019,7 @@
       <c r="AD737" s="25"/>
       <c r="AE737" s="25"/>
     </row>
-    <row r="738" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="17:31" ht="12.75">
       <c r="Q738" s="25"/>
       <c r="R738" s="25"/>
       <c r="S738" s="25"/>
@@ -15033,7 +15032,7 @@
       <c r="AD738" s="25"/>
       <c r="AE738" s="25"/>
     </row>
-    <row r="739" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="17:31" ht="12.75">
       <c r="Q739" s="25"/>
       <c r="R739" s="25"/>
       <c r="S739" s="25"/>
@@ -15046,7 +15045,7 @@
       <c r="AD739" s="25"/>
       <c r="AE739" s="25"/>
     </row>
-    <row r="740" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="17:31" ht="12.75">
       <c r="Q740" s="25"/>
       <c r="R740" s="25"/>
       <c r="S740" s="25"/>
@@ -15059,7 +15058,7 @@
       <c r="AD740" s="25"/>
       <c r="AE740" s="25"/>
     </row>
-    <row r="741" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="17:31" ht="12.75">
       <c r="Q741" s="25"/>
       <c r="R741" s="25"/>
       <c r="S741" s="25"/>
@@ -15072,7 +15071,7 @@
       <c r="AD741" s="25"/>
       <c r="AE741" s="25"/>
     </row>
-    <row r="742" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="17:31" ht="12.75">
       <c r="Q742" s="25"/>
       <c r="R742" s="25"/>
       <c r="S742" s="25"/>
@@ -15085,7 +15084,7 @@
       <c r="AD742" s="25"/>
       <c r="AE742" s="25"/>
     </row>
-    <row r="743" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="17:31" ht="12.75">
       <c r="Q743" s="25"/>
       <c r="R743" s="25"/>
       <c r="S743" s="25"/>
@@ -15098,7 +15097,7 @@
       <c r="AD743" s="25"/>
       <c r="AE743" s="25"/>
     </row>
-    <row r="744" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="17:31" ht="12.75">
       <c r="Q744" s="25"/>
       <c r="R744" s="25"/>
       <c r="S744" s="25"/>
@@ -15111,7 +15110,7 @@
       <c r="AD744" s="25"/>
       <c r="AE744" s="25"/>
     </row>
-    <row r="745" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="17:31" ht="12.75">
       <c r="Q745" s="25"/>
       <c r="R745" s="25"/>
       <c r="S745" s="25"/>
@@ -15124,7 +15123,7 @@
       <c r="AD745" s="25"/>
       <c r="AE745" s="25"/>
     </row>
-    <row r="746" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="17:31" ht="12.75">
       <c r="Q746" s="25"/>
       <c r="R746" s="25"/>
       <c r="S746" s="25"/>
@@ -15137,7 +15136,7 @@
       <c r="AD746" s="25"/>
       <c r="AE746" s="25"/>
     </row>
-    <row r="747" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="17:31" ht="12.75">
       <c r="Q747" s="25"/>
       <c r="R747" s="25"/>
       <c r="S747" s="25"/>
@@ -15150,7 +15149,7 @@
       <c r="AD747" s="25"/>
       <c r="AE747" s="25"/>
     </row>
-    <row r="748" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="17:31" ht="12.75">
       <c r="Q748" s="25"/>
       <c r="R748" s="25"/>
       <c r="S748" s="25"/>
@@ -15163,7 +15162,7 @@
       <c r="AD748" s="25"/>
       <c r="AE748" s="25"/>
     </row>
-    <row r="749" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="17:31" ht="12.75">
       <c r="Q749" s="25"/>
       <c r="R749" s="25"/>
       <c r="S749" s="25"/>
@@ -15176,7 +15175,7 @@
       <c r="AD749" s="25"/>
       <c r="AE749" s="25"/>
     </row>
-    <row r="750" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="17:31" ht="12.75">
       <c r="Q750" s="25"/>
       <c r="R750" s="25"/>
       <c r="S750" s="25"/>
@@ -15189,7 +15188,7 @@
       <c r="AD750" s="25"/>
       <c r="AE750" s="25"/>
     </row>
-    <row r="751" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="17:31" ht="12.75">
       <c r="Q751" s="25"/>
       <c r="R751" s="25"/>
       <c r="S751" s="25"/>
@@ -15202,7 +15201,7 @@
       <c r="AD751" s="25"/>
       <c r="AE751" s="25"/>
     </row>
-    <row r="752" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="17:31" ht="12.75">
       <c r="Q752" s="25"/>
       <c r="R752" s="25"/>
       <c r="S752" s="25"/>
@@ -15215,7 +15214,7 @@
       <c r="AD752" s="25"/>
       <c r="AE752" s="25"/>
     </row>
-    <row r="753" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="17:31" ht="12.75">
       <c r="Q753" s="25"/>
       <c r="R753" s="25"/>
       <c r="S753" s="25"/>
@@ -15228,7 +15227,7 @@
       <c r="AD753" s="25"/>
       <c r="AE753" s="25"/>
     </row>
-    <row r="754" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="17:31" ht="12.75">
       <c r="Q754" s="25"/>
       <c r="R754" s="25"/>
       <c r="S754" s="25"/>
@@ -15241,7 +15240,7 @@
       <c r="AD754" s="25"/>
       <c r="AE754" s="25"/>
     </row>
-    <row r="755" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="17:31" ht="12.75">
       <c r="Q755" s="25"/>
       <c r="R755" s="25"/>
       <c r="S755" s="25"/>
@@ -15254,7 +15253,7 @@
       <c r="AD755" s="25"/>
       <c r="AE755" s="25"/>
     </row>
-    <row r="756" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="17:31" ht="12.75">
       <c r="Q756" s="25"/>
       <c r="R756" s="25"/>
       <c r="S756" s="25"/>
@@ -15267,7 +15266,7 @@
       <c r="AD756" s="25"/>
       <c r="AE756" s="25"/>
     </row>
-    <row r="757" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="17:31" ht="12.75">
       <c r="Q757" s="25"/>
       <c r="R757" s="25"/>
       <c r="S757" s="25"/>
@@ -15280,7 +15279,7 @@
       <c r="AD757" s="25"/>
       <c r="AE757" s="25"/>
     </row>
-    <row r="758" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="17:31" ht="12.75">
       <c r="Q758" s="25"/>
       <c r="R758" s="25"/>
       <c r="S758" s="25"/>
@@ -15293,7 +15292,7 @@
       <c r="AD758" s="25"/>
       <c r="AE758" s="25"/>
     </row>
-    <row r="759" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="17:31" ht="12.75">
       <c r="Q759" s="25"/>
       <c r="R759" s="25"/>
       <c r="S759" s="25"/>
@@ -15306,7 +15305,7 @@
       <c r="AD759" s="25"/>
       <c r="AE759" s="25"/>
     </row>
-    <row r="760" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="17:31" ht="12.75">
       <c r="Q760" s="25"/>
       <c r="R760" s="25"/>
       <c r="S760" s="25"/>
@@ -15319,7 +15318,7 @@
       <c r="AD760" s="25"/>
       <c r="AE760" s="25"/>
     </row>
-    <row r="761" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="17:31" ht="12.75">
       <c r="Q761" s="25"/>
       <c r="R761" s="25"/>
       <c r="S761" s="25"/>
@@ -15332,7 +15331,7 @@
       <c r="AD761" s="25"/>
       <c r="AE761" s="25"/>
     </row>
-    <row r="762" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="17:31" ht="12.75">
       <c r="Q762" s="25"/>
       <c r="R762" s="25"/>
       <c r="S762" s="25"/>
@@ -15345,7 +15344,7 @@
       <c r="AD762" s="25"/>
       <c r="AE762" s="25"/>
     </row>
-    <row r="763" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="17:31" ht="12.75">
       <c r="Q763" s="25"/>
       <c r="R763" s="25"/>
       <c r="S763" s="25"/>
@@ -15358,7 +15357,7 @@
       <c r="AD763" s="25"/>
       <c r="AE763" s="25"/>
     </row>
-    <row r="764" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="17:31" ht="12.75">
       <c r="Q764" s="25"/>
       <c r="R764" s="25"/>
       <c r="S764" s="25"/>
@@ -15371,7 +15370,7 @@
       <c r="AD764" s="25"/>
       <c r="AE764" s="25"/>
     </row>
-    <row r="765" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="17:31" ht="12.75">
       <c r="Q765" s="25"/>
       <c r="R765" s="25"/>
       <c r="S765" s="25"/>
@@ -15384,7 +15383,7 @@
       <c r="AD765" s="25"/>
       <c r="AE765" s="25"/>
     </row>
-    <row r="766" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="17:31" ht="12.75">
       <c r="Q766" s="25"/>
       <c r="R766" s="25"/>
       <c r="S766" s="25"/>
@@ -15397,7 +15396,7 @@
       <c r="AD766" s="25"/>
       <c r="AE766" s="25"/>
     </row>
-    <row r="767" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="17:31" ht="12.75">
       <c r="Q767" s="25"/>
       <c r="R767" s="25"/>
       <c r="S767" s="25"/>
@@ -15410,7 +15409,7 @@
       <c r="AD767" s="25"/>
       <c r="AE767" s="25"/>
     </row>
-    <row r="768" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="17:31" ht="12.75">
       <c r="Q768" s="25"/>
       <c r="R768" s="25"/>
       <c r="S768" s="25"/>
@@ -15423,7 +15422,7 @@
       <c r="AD768" s="25"/>
       <c r="AE768" s="25"/>
     </row>
-    <row r="769" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="17:31" ht="12.75">
       <c r="Q769" s="25"/>
       <c r="R769" s="25"/>
       <c r="S769" s="25"/>
@@ -15436,7 +15435,7 @@
       <c r="AD769" s="25"/>
       <c r="AE769" s="25"/>
     </row>
-    <row r="770" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="17:31" ht="12.75">
       <c r="Q770" s="25"/>
       <c r="R770" s="25"/>
       <c r="S770" s="25"/>
@@ -15449,7 +15448,7 @@
       <c r="AD770" s="25"/>
       <c r="AE770" s="25"/>
     </row>
-    <row r="771" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="17:31" ht="12.75">
       <c r="Q771" s="25"/>
       <c r="R771" s="25"/>
       <c r="S771" s="25"/>
@@ -15462,7 +15461,7 @@
       <c r="AD771" s="25"/>
       <c r="AE771" s="25"/>
     </row>
-    <row r="772" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="17:31" ht="12.75">
       <c r="Q772" s="25"/>
       <c r="R772" s="25"/>
       <c r="S772" s="25"/>
@@ -15475,7 +15474,7 @@
       <c r="AD772" s="25"/>
       <c r="AE772" s="25"/>
     </row>
-    <row r="773" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="17:31" ht="12.75">
       <c r="Q773" s="25"/>
       <c r="R773" s="25"/>
       <c r="S773" s="25"/>
@@ -15488,7 +15487,7 @@
       <c r="AD773" s="25"/>
       <c r="AE773" s="25"/>
     </row>
-    <row r="774" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="17:31" ht="12.75">
       <c r="Q774" s="25"/>
       <c r="R774" s="25"/>
       <c r="S774" s="25"/>
@@ -15501,7 +15500,7 @@
       <c r="AD774" s="25"/>
       <c r="AE774" s="25"/>
     </row>
-    <row r="775" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="17:31" ht="12.75">
       <c r="Q775" s="25"/>
       <c r="R775" s="25"/>
       <c r="S775" s="25"/>
@@ -15514,7 +15513,7 @@
       <c r="AD775" s="25"/>
       <c r="AE775" s="25"/>
     </row>
-    <row r="776" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="17:31" ht="12.75">
       <c r="Q776" s="25"/>
       <c r="R776" s="25"/>
       <c r="S776" s="25"/>
@@ -15527,7 +15526,7 @@
       <c r="AD776" s="25"/>
       <c r="AE776" s="25"/>
     </row>
-    <row r="777" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="17:31" ht="12.75">
       <c r="Q777" s="25"/>
       <c r="R777" s="25"/>
       <c r="S777" s="25"/>
@@ -15540,7 +15539,7 @@
       <c r="AD777" s="25"/>
       <c r="AE777" s="25"/>
     </row>
-    <row r="778" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="17:31" ht="12.75">
       <c r="Q778" s="25"/>
       <c r="R778" s="25"/>
       <c r="S778" s="25"/>
@@ -15553,7 +15552,7 @@
       <c r="AD778" s="25"/>
       <c r="AE778" s="25"/>
     </row>
-    <row r="779" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="17:31" ht="12.75">
       <c r="Q779" s="25"/>
       <c r="R779" s="25"/>
       <c r="S779" s="25"/>
@@ -15566,7 +15565,7 @@
       <c r="AD779" s="25"/>
       <c r="AE779" s="25"/>
     </row>
-    <row r="780" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="17:31" ht="12.75">
       <c r="Q780" s="25"/>
       <c r="R780" s="25"/>
       <c r="S780" s="25"/>
@@ -15579,7 +15578,7 @@
       <c r="AD780" s="25"/>
       <c r="AE780" s="25"/>
     </row>
-    <row r="781" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="17:31" ht="12.75">
       <c r="Q781" s="25"/>
       <c r="R781" s="25"/>
       <c r="S781" s="25"/>
@@ -15592,7 +15591,7 @@
       <c r="AD781" s="25"/>
       <c r="AE781" s="25"/>
     </row>
-    <row r="782" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="17:31" ht="12.75">
       <c r="Q782" s="25"/>
       <c r="R782" s="25"/>
       <c r="S782" s="25"/>
@@ -15605,7 +15604,7 @@
       <c r="AD782" s="25"/>
       <c r="AE782" s="25"/>
     </row>
-    <row r="783" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="17:31" ht="12.75">
       <c r="Q783" s="25"/>
       <c r="R783" s="25"/>
       <c r="S783" s="25"/>
@@ -15618,7 +15617,7 @@
       <c r="AD783" s="25"/>
       <c r="AE783" s="25"/>
     </row>
-    <row r="784" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="17:31" ht="12.75">
       <c r="Q784" s="25"/>
       <c r="R784" s="25"/>
       <c r="S784" s="25"/>
@@ -15631,7 +15630,7 @@
       <c r="AD784" s="25"/>
       <c r="AE784" s="25"/>
     </row>
-    <row r="785" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="17:31" ht="12.75">
       <c r="Q785" s="25"/>
       <c r="R785" s="25"/>
       <c r="S785" s="25"/>
@@ -15644,7 +15643,7 @@
       <c r="AD785" s="25"/>
       <c r="AE785" s="25"/>
     </row>
-    <row r="786" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="17:31" ht="12.75">
       <c r="Q786" s="25"/>
       <c r="R786" s="25"/>
       <c r="S786" s="25"/>
@@ -15657,7 +15656,7 @@
       <c r="AD786" s="25"/>
       <c r="AE786" s="25"/>
     </row>
-    <row r="787" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="17:31" ht="12.75">
       <c r="Q787" s="25"/>
       <c r="R787" s="25"/>
       <c r="S787" s="25"/>
@@ -15670,7 +15669,7 @@
       <c r="AD787" s="25"/>
       <c r="AE787" s="25"/>
     </row>
-    <row r="788" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="17:31" ht="12.75">
       <c r="Q788" s="25"/>
       <c r="R788" s="25"/>
       <c r="S788" s="25"/>
@@ -15683,7 +15682,7 @@
       <c r="AD788" s="25"/>
       <c r="AE788" s="25"/>
     </row>
-    <row r="789" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="17:31" ht="12.75">
       <c r="Q789" s="25"/>
       <c r="R789" s="25"/>
       <c r="S789" s="25"/>
@@ -15696,7 +15695,7 @@
       <c r="AD789" s="25"/>
       <c r="AE789" s="25"/>
     </row>
-    <row r="790" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="17:31" ht="12.75">
       <c r="Q790" s="25"/>
       <c r="R790" s="25"/>
       <c r="S790" s="25"/>
@@ -15709,7 +15708,7 @@
       <c r="AD790" s="25"/>
       <c r="AE790" s="25"/>
     </row>
-    <row r="791" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="17:31" ht="12.75">
       <c r="Q791" s="25"/>
       <c r="R791" s="25"/>
       <c r="S791" s="25"/>
@@ -15722,7 +15721,7 @@
       <c r="AD791" s="25"/>
       <c r="AE791" s="25"/>
     </row>
-    <row r="792" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="17:31" ht="12.75">
       <c r="Q792" s="25"/>
       <c r="R792" s="25"/>
       <c r="S792" s="25"/>
@@ -15735,7 +15734,7 @@
       <c r="AD792" s="25"/>
       <c r="AE792" s="25"/>
     </row>
-    <row r="793" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="17:31" ht="12.75">
       <c r="Q793" s="25"/>
       <c r="R793" s="25"/>
       <c r="S793" s="25"/>
@@ -15748,7 +15747,7 @@
       <c r="AD793" s="25"/>
       <c r="AE793" s="25"/>
     </row>
-    <row r="794" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="17:31" ht="12.75">
       <c r="Q794" s="25"/>
       <c r="R794" s="25"/>
       <c r="S794" s="25"/>
@@ -15761,7 +15760,7 @@
       <c r="AD794" s="25"/>
       <c r="AE794" s="25"/>
     </row>
-    <row r="795" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="17:31" ht="12.75">
       <c r="Q795" s="25"/>
       <c r="R795" s="25"/>
       <c r="S795" s="25"/>
@@ -15774,7 +15773,7 @@
       <c r="AD795" s="25"/>
       <c r="AE795" s="25"/>
     </row>
-    <row r="796" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="17:31" ht="12.75">
       <c r="Q796" s="25"/>
       <c r="R796" s="25"/>
       <c r="S796" s="25"/>
@@ -15787,7 +15786,7 @@
       <c r="AD796" s="25"/>
       <c r="AE796" s="25"/>
     </row>
-    <row r="797" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="17:31" ht="12.75">
       <c r="Q797" s="25"/>
       <c r="R797" s="25"/>
       <c r="S797" s="25"/>
@@ -15800,7 +15799,7 @@
       <c r="AD797" s="25"/>
       <c r="AE797" s="25"/>
     </row>
-    <row r="798" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="17:31" ht="12.75">
       <c r="Q798" s="25"/>
       <c r="R798" s="25"/>
       <c r="S798" s="25"/>
@@ -15813,7 +15812,7 @@
       <c r="AD798" s="25"/>
       <c r="AE798" s="25"/>
     </row>
-    <row r="799" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="17:31" ht="12.75">
       <c r="Q799" s="25"/>
       <c r="R799" s="25"/>
       <c r="S799" s="25"/>
@@ -15826,7 +15825,7 @@
       <c r="AD799" s="25"/>
       <c r="AE799" s="25"/>
     </row>
-    <row r="800" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="17:31" ht="12.75">
       <c r="Q800" s="25"/>
       <c r="R800" s="25"/>
       <c r="S800" s="25"/>
@@ -15839,7 +15838,7 @@
       <c r="AD800" s="25"/>
       <c r="AE800" s="25"/>
     </row>
-    <row r="801" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="17:31" ht="12.75">
       <c r="Q801" s="25"/>
       <c r="R801" s="25"/>
       <c r="S801" s="25"/>
@@ -15852,7 +15851,7 @@
       <c r="AD801" s="25"/>
       <c r="AE801" s="25"/>
     </row>
-    <row r="802" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="17:31" ht="12.75">
       <c r="Q802" s="25"/>
       <c r="R802" s="25"/>
       <c r="S802" s="25"/>
@@ -15865,7 +15864,7 @@
       <c r="AD802" s="25"/>
       <c r="AE802" s="25"/>
     </row>
-    <row r="803" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="17:31" ht="12.75">
       <c r="Q803" s="25"/>
       <c r="R803" s="25"/>
       <c r="S803" s="25"/>
@@ -15878,7 +15877,7 @@
       <c r="AD803" s="25"/>
       <c r="AE803" s="25"/>
     </row>
-    <row r="804" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="17:31" ht="12.75">
       <c r="Q804" s="25"/>
       <c r="R804" s="25"/>
       <c r="S804" s="25"/>
@@ -15891,7 +15890,7 @@
       <c r="AD804" s="25"/>
       <c r="AE804" s="25"/>
     </row>
-    <row r="805" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="17:31" ht="12.75">
       <c r="Q805" s="25"/>
       <c r="R805" s="25"/>
       <c r="S805" s="25"/>
@@ -15904,7 +15903,7 @@
       <c r="AD805" s="25"/>
       <c r="AE805" s="25"/>
     </row>
-    <row r="806" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="17:31" ht="12.75">
       <c r="Q806" s="25"/>
       <c r="R806" s="25"/>
       <c r="S806" s="25"/>
@@ -15917,7 +15916,7 @@
       <c r="AD806" s="25"/>
       <c r="AE806" s="25"/>
     </row>
-    <row r="807" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="17:31" ht="12.75">
       <c r="Q807" s="25"/>
       <c r="R807" s="25"/>
       <c r="S807" s="25"/>
@@ -15930,7 +15929,7 @@
       <c r="AD807" s="25"/>
       <c r="AE807" s="25"/>
     </row>
-    <row r="808" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="17:31" ht="12.75">
       <c r="Q808" s="25"/>
       <c r="R808" s="25"/>
       <c r="S808" s="25"/>
@@ -15943,7 +15942,7 @@
       <c r="AD808" s="25"/>
       <c r="AE808" s="25"/>
     </row>
-    <row r="809" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="17:31" ht="12.75">
       <c r="Q809" s="25"/>
       <c r="R809" s="25"/>
       <c r="S809" s="25"/>
@@ -15956,7 +15955,7 @@
       <c r="AD809" s="25"/>
       <c r="AE809" s="25"/>
     </row>
-    <row r="810" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="17:31" ht="12.75">
       <c r="Q810" s="25"/>
       <c r="R810" s="25"/>
       <c r="S810" s="25"/>
@@ -15969,7 +15968,7 @@
       <c r="AD810" s="25"/>
       <c r="AE810" s="25"/>
     </row>
-    <row r="811" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="17:31" ht="12.75">
       <c r="Q811" s="25"/>
       <c r="R811" s="25"/>
       <c r="S811" s="25"/>
@@ -15982,7 +15981,7 @@
       <c r="AD811" s="25"/>
       <c r="AE811" s="25"/>
     </row>
-    <row r="812" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="17:31" ht="12.75">
       <c r="Q812" s="25"/>
       <c r="R812" s="25"/>
       <c r="S812" s="25"/>
@@ -15995,7 +15994,7 @@
       <c r="AD812" s="25"/>
       <c r="AE812" s="25"/>
     </row>
-    <row r="813" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="17:31" ht="12.75">
       <c r="Q813" s="25"/>
       <c r="R813" s="25"/>
       <c r="S813" s="25"/>
@@ -16008,7 +16007,7 @@
       <c r="AD813" s="25"/>
       <c r="AE813" s="25"/>
     </row>
-    <row r="814" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="17:31" ht="12.75">
       <c r="Q814" s="25"/>
       <c r="R814" s="25"/>
       <c r="S814" s="25"/>
@@ -16021,7 +16020,7 @@
       <c r="AD814" s="25"/>
       <c r="AE814" s="25"/>
     </row>
-    <row r="815" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="17:31" ht="12.75">
       <c r="Q815" s="25"/>
       <c r="R815" s="25"/>
       <c r="S815" s="25"/>
@@ -16034,7 +16033,7 @@
       <c r="AD815" s="25"/>
       <c r="AE815" s="25"/>
     </row>
-    <row r="816" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="17:31" ht="12.75">
       <c r="Q816" s="25"/>
       <c r="R816" s="25"/>
       <c r="S816" s="25"/>
@@ -16047,7 +16046,7 @@
       <c r="AD816" s="25"/>
       <c r="AE816" s="25"/>
     </row>
-    <row r="817" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="17:31" ht="12.75">
       <c r="Q817" s="25"/>
       <c r="R817" s="25"/>
       <c r="S817" s="25"/>
@@ -16060,7 +16059,7 @@
       <c r="AD817" s="25"/>
       <c r="AE817" s="25"/>
     </row>
-    <row r="818" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="17:31" ht="12.75">
       <c r="Q818" s="25"/>
       <c r="R818" s="25"/>
       <c r="S818" s="25"/>
@@ -16073,7 +16072,7 @@
       <c r="AD818" s="25"/>
       <c r="AE818" s="25"/>
     </row>
-    <row r="819" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="17:31" ht="12.75">
       <c r="Q819" s="25"/>
       <c r="R819" s="25"/>
       <c r="S819" s="25"/>
@@ -16086,7 +16085,7 @@
       <c r="AD819" s="25"/>
       <c r="AE819" s="25"/>
     </row>
-    <row r="820" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="17:31" ht="12.75">
       <c r="Q820" s="25"/>
       <c r="R820" s="25"/>
       <c r="S820" s="25"/>
@@ -16099,7 +16098,7 @@
       <c r="AD820" s="25"/>
       <c r="AE820" s="25"/>
     </row>
-    <row r="821" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="17:31" ht="12.75">
       <c r="Q821" s="25"/>
       <c r="R821" s="25"/>
       <c r="S821" s="25"/>
@@ -16112,7 +16111,7 @@
       <c r="AD821" s="25"/>
       <c r="AE821" s="25"/>
     </row>
-    <row r="822" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="17:31" ht="12.75">
       <c r="Q822" s="25"/>
       <c r="R822" s="25"/>
       <c r="S822" s="25"/>
@@ -16125,7 +16124,7 @@
       <c r="AD822" s="25"/>
       <c r="AE822" s="25"/>
     </row>
-    <row r="823" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="17:31" ht="12.75">
       <c r="Q823" s="25"/>
       <c r="R823" s="25"/>
       <c r="S823" s="25"/>
@@ -16138,7 +16137,7 @@
       <c r="AD823" s="25"/>
       <c r="AE823" s="25"/>
     </row>
-    <row r="824" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="17:31" ht="12.75">
       <c r="Q824" s="25"/>
       <c r="R824" s="25"/>
       <c r="S824" s="25"/>
@@ -16151,7 +16150,7 @@
       <c r="AD824" s="25"/>
       <c r="AE824" s="25"/>
     </row>
-    <row r="825" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="17:31" ht="12.75">
       <c r="Q825" s="25"/>
       <c r="R825" s="25"/>
       <c r="S825" s="25"/>
@@ -16164,7 +16163,7 @@
       <c r="AD825" s="25"/>
       <c r="AE825" s="25"/>
     </row>
-    <row r="826" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="17:31" ht="12.75">
       <c r="Q826" s="25"/>
       <c r="R826" s="25"/>
       <c r="S826" s="25"/>
@@ -16177,7 +16176,7 @@
       <c r="AD826" s="25"/>
       <c r="AE826" s="25"/>
     </row>
-    <row r="827" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="17:31" ht="12.75">
       <c r="Q827" s="25"/>
       <c r="R827" s="25"/>
       <c r="S827" s="25"/>
@@ -16190,7 +16189,7 @@
       <c r="AD827" s="25"/>
       <c r="AE827" s="25"/>
     </row>
-    <row r="828" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="17:31" ht="12.75">
       <c r="Q828" s="25"/>
       <c r="R828" s="25"/>
       <c r="S828" s="25"/>
@@ -16203,7 +16202,7 @@
       <c r="AD828" s="25"/>
       <c r="AE828" s="25"/>
     </row>
-    <row r="829" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="17:31" ht="12.75">
       <c r="Q829" s="25"/>
       <c r="R829" s="25"/>
       <c r="S829" s="25"/>
@@ -16216,7 +16215,7 @@
       <c r="AD829" s="25"/>
       <c r="AE829" s="25"/>
     </row>
-    <row r="830" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="17:31" ht="12.75">
       <c r="Q830" s="25"/>
       <c r="R830" s="25"/>
       <c r="S830" s="25"/>
@@ -16229,7 +16228,7 @@
       <c r="AD830" s="25"/>
       <c r="AE830" s="25"/>
     </row>
-    <row r="831" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="17:31" ht="12.75">
       <c r="Q831" s="25"/>
       <c r="R831" s="25"/>
       <c r="S831" s="25"/>
@@ -16242,7 +16241,7 @@
       <c r="AD831" s="25"/>
       <c r="AE831" s="25"/>
     </row>
-    <row r="832" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="17:31" ht="12.75">
       <c r="Q832" s="25"/>
       <c r="R832" s="25"/>
       <c r="S832" s="25"/>
@@ -16255,7 +16254,7 @@
       <c r="AD832" s="25"/>
       <c r="AE832" s="25"/>
     </row>
-    <row r="833" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="17:31" ht="12.75">
       <c r="Q833" s="25"/>
       <c r="R833" s="25"/>
       <c r="S833" s="25"/>
@@ -16268,7 +16267,7 @@
       <c r="AD833" s="25"/>
       <c r="AE833" s="25"/>
     </row>
-    <row r="834" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="17:31" ht="12.75">
       <c r="Q834" s="25"/>
       <c r="R834" s="25"/>
       <c r="S834" s="25"/>
@@ -16281,7 +16280,7 @@
       <c r="AD834" s="25"/>
       <c r="AE834" s="25"/>
     </row>
-    <row r="835" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="17:31" ht="12.75">
       <c r="Q835" s="25"/>
       <c r="R835" s="25"/>
       <c r="S835" s="25"/>
@@ -16294,7 +16293,7 @@
       <c r="AD835" s="25"/>
       <c r="AE835" s="25"/>
     </row>
-    <row r="836" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="17:31" ht="12.75">
       <c r="Q836" s="25"/>
       <c r="R836" s="25"/>
       <c r="S836" s="25"/>
@@ -16307,7 +16306,7 @@
       <c r="AD836" s="25"/>
       <c r="AE836" s="25"/>
     </row>
-    <row r="837" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="17:31" ht="12.75">
       <c r="Q837" s="25"/>
       <c r="R837" s="25"/>
       <c r="S837" s="25"/>
@@ -16320,7 +16319,7 @@
       <c r="AD837" s="25"/>
       <c r="AE837" s="25"/>
     </row>
-    <row r="838" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="17:31" ht="12.75">
       <c r="Q838" s="25"/>
       <c r="R838" s="25"/>
       <c r="S838" s="25"/>
@@ -16333,7 +16332,7 @@
       <c r="AD838" s="25"/>
       <c r="AE838" s="25"/>
     </row>
-    <row r="839" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="17:31" ht="12.75">
       <c r="Q839" s="25"/>
       <c r="R839" s="25"/>
       <c r="S839" s="25"/>
@@ -16346,7 +16345,7 @@
       <c r="AD839" s="25"/>
       <c r="AE839" s="25"/>
     </row>
-    <row r="840" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="17:31" ht="12.75">
       <c r="Q840" s="25"/>
       <c r="R840" s="25"/>
       <c r="S840" s="25"/>
@@ -16359,7 +16358,7 @@
       <c r="AD840" s="25"/>
       <c r="AE840" s="25"/>
     </row>
-    <row r="841" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="17:31" ht="12.75">
       <c r="Q841" s="25"/>
       <c r="R841" s="25"/>
       <c r="S841" s="25"/>
@@ -16372,7 +16371,7 @@
       <c r="AD841" s="25"/>
       <c r="AE841" s="25"/>
     </row>
-    <row r="842" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="17:31" ht="12.75">
       <c r="Q842" s="25"/>
       <c r="R842" s="25"/>
       <c r="S842" s="25"/>
@@ -16385,7 +16384,7 @@
       <c r="AD842" s="25"/>
       <c r="AE842" s="25"/>
     </row>
-    <row r="843" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="17:31" ht="12.75">
       <c r="Q843" s="25"/>
       <c r="R843" s="25"/>
       <c r="S843" s="25"/>
@@ -16398,7 +16397,7 @@
       <c r="AD843" s="25"/>
       <c r="AE843" s="25"/>
     </row>
-    <row r="844" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="17:31" ht="12.75">
       <c r="Q844" s="25"/>
       <c r="R844" s="25"/>
       <c r="S844" s="25"/>
@@ -16411,7 +16410,7 @@
       <c r="AD844" s="25"/>
       <c r="AE844" s="25"/>
     </row>
-    <row r="845" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="17:31" ht="12.75">
       <c r="Q845" s="25"/>
       <c r="R845" s="25"/>
       <c r="S845" s="25"/>
@@ -16424,7 +16423,7 @@
       <c r="AD845" s="25"/>
       <c r="AE845" s="25"/>
     </row>
-    <row r="846" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="17:31" ht="12.75">
       <c r="Q846" s="25"/>
       <c r="R846" s="25"/>
       <c r="S846" s="25"/>
@@ -16437,7 +16436,7 @@
       <c r="AD846" s="25"/>
       <c r="AE846" s="25"/>
     </row>
-    <row r="847" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="17:31" ht="12.75">
       <c r="Q847" s="25"/>
       <c r="R847" s="25"/>
       <c r="S847" s="25"/>
@@ -16450,7 +16449,7 @@
       <c r="AD847" s="25"/>
       <c r="AE847" s="25"/>
     </row>
-    <row r="848" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="17:31" ht="12.75">
       <c r="Q848" s="25"/>
       <c r="R848" s="25"/>
       <c r="S848" s="25"/>
@@ -16463,7 +16462,7 @@
       <c r="AD848" s="25"/>
       <c r="AE848" s="25"/>
     </row>
-    <row r="849" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="17:31" ht="12.75">
       <c r="Q849" s="25"/>
       <c r="R849" s="25"/>
       <c r="S849" s="25"/>
@@ -16476,7 +16475,7 @@
       <c r="AD849" s="25"/>
       <c r="AE849" s="25"/>
     </row>
-    <row r="850" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="17:31" ht="12.75">
       <c r="Q850" s="25"/>
       <c r="R850" s="25"/>
       <c r="S850" s="25"/>
@@ -16489,7 +16488,7 @@
       <c r="AD850" s="25"/>
       <c r="AE850" s="25"/>
     </row>
-    <row r="851" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="17:31" ht="12.75">
       <c r="Q851" s="25"/>
       <c r="R851" s="25"/>
       <c r="S851" s="25"/>
@@ -16502,7 +16501,7 @@
       <c r="AD851" s="25"/>
       <c r="AE851" s="25"/>
     </row>
-    <row r="852" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="17:31" ht="12.75">
       <c r="Q852" s="25"/>
       <c r="R852" s="25"/>
       <c r="S852" s="25"/>
@@ -16515,7 +16514,7 @@
       <c r="AD852" s="25"/>
       <c r="AE852" s="25"/>
     </row>
-    <row r="853" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="17:31" ht="12.75">
       <c r="Q853" s="25"/>
       <c r="R853" s="25"/>
       <c r="S853" s="25"/>
@@ -16528,7 +16527,7 @@
       <c r="AD853" s="25"/>
       <c r="AE853" s="25"/>
     </row>
-    <row r="854" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="17:31" ht="12.75">
       <c r="Q854" s="25"/>
       <c r="R854" s="25"/>
       <c r="S854" s="25"/>
@@ -16541,7 +16540,7 @@
       <c r="AD854" s="25"/>
       <c r="AE854" s="25"/>
     </row>
-    <row r="855" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="17:31" ht="12.75">
       <c r="Q855" s="25"/>
       <c r="R855" s="25"/>
       <c r="S855" s="25"/>
@@ -16554,7 +16553,7 @@
       <c r="AD855" s="25"/>
       <c r="AE855" s="25"/>
     </row>
-    <row r="856" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="17:31" ht="12.75">
       <c r="Q856" s="25"/>
       <c r="R856" s="25"/>
       <c r="S856" s="25"/>
@@ -16567,7 +16566,7 @@
       <c r="AD856" s="25"/>
       <c r="AE856" s="25"/>
     </row>
-    <row r="857" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="17:31" ht="12.75">
       <c r="Q857" s="25"/>
       <c r="R857" s="25"/>
       <c r="S857" s="25"/>
@@ -16580,7 +16579,7 @@
       <c r="AD857" s="25"/>
       <c r="AE857" s="25"/>
     </row>
-    <row r="858" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="17:31" ht="12.75">
       <c r="Q858" s="25"/>
       <c r="R858" s="25"/>
       <c r="S858" s="25"/>
@@ -16593,7 +16592,7 @@
       <c r="AD858" s="25"/>
       <c r="AE858" s="25"/>
     </row>
-    <row r="859" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="17:31" ht="12.75">
       <c r="Q859" s="25"/>
       <c r="R859" s="25"/>
       <c r="S859" s="25"/>
@@ -16606,7 +16605,7 @@
       <c r="AD859" s="25"/>
       <c r="AE859" s="25"/>
     </row>
-    <row r="860" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="17:31" ht="12.75">
       <c r="Q860" s="25"/>
       <c r="R860" s="25"/>
       <c r="S860" s="25"/>
@@ -16619,7 +16618,7 @@
       <c r="AD860" s="25"/>
       <c r="AE860" s="25"/>
     </row>
-    <row r="861" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="17:31" ht="12.75">
       <c r="Q861" s="25"/>
       <c r="R861" s="25"/>
       <c r="S861" s="25"/>
@@ -16632,7 +16631,7 @@
       <c r="AD861" s="25"/>
       <c r="AE861" s="25"/>
     </row>
-    <row r="862" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="17:31" ht="12.75">
       <c r="Q862" s="25"/>
       <c r="R862" s="25"/>
       <c r="S862" s="25"/>
@@ -16645,7 +16644,7 @@
       <c r="AD862" s="25"/>
       <c r="AE862" s="25"/>
     </row>
-    <row r="863" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="17:31" ht="12.75">
       <c r="Q863" s="25"/>
       <c r="R863" s="25"/>
       <c r="S863" s="25"/>
@@ -16658,7 +16657,7 @@
       <c r="AD863" s="25"/>
       <c r="AE863" s="25"/>
     </row>
-    <row r="864" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="17:31" ht="12.75">
       <c r="Q864" s="25"/>
       <c r="R864" s="25"/>
       <c r="S864" s="25"/>
@@ -16671,7 +16670,7 @@
       <c r="AD864" s="25"/>
       <c r="AE864" s="25"/>
     </row>
-    <row r="865" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="17:31" ht="12.75">
       <c r="Q865" s="25"/>
       <c r="R865" s="25"/>
       <c r="S865" s="25"/>
@@ -16684,7 +16683,7 @@
       <c r="AD865" s="25"/>
       <c r="AE865" s="25"/>
     </row>
-    <row r="866" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="17:31" ht="12.75">
       <c r="Q866" s="25"/>
       <c r="R866" s="25"/>
       <c r="S866" s="25"/>
@@ -16697,7 +16696,7 @@
       <c r="AD866" s="25"/>
       <c r="AE866" s="25"/>
     </row>
-    <row r="867" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="17:31" ht="12.75">
       <c r="Q867" s="25"/>
       <c r="R867" s="25"/>
       <c r="S867" s="25"/>
@@ -16710,7 +16709,7 @@
       <c r="AD867" s="25"/>
       <c r="AE867" s="25"/>
     </row>
-    <row r="868" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="17:31" ht="12.75">
       <c r="Q868" s="25"/>
       <c r="R868" s="25"/>
       <c r="S868" s="25"/>
@@ -16723,7 +16722,7 @@
       <c r="AD868" s="25"/>
       <c r="AE868" s="25"/>
     </row>
-    <row r="869" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="17:31" ht="12.75">
       <c r="Q869" s="25"/>
       <c r="R869" s="25"/>
       <c r="S869" s="25"/>
@@ -16736,7 +16735,7 @@
       <c r="AD869" s="25"/>
       <c r="AE869" s="25"/>
     </row>
-    <row r="870" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="17:31" ht="12.75">
       <c r="Q870" s="25"/>
       <c r="R870" s="25"/>
       <c r="S870" s="25"/>
@@ -16749,7 +16748,7 @@
       <c r="AD870" s="25"/>
       <c r="AE870" s="25"/>
     </row>
-    <row r="871" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="17:31" ht="12.75">
       <c r="Q871" s="25"/>
       <c r="R871" s="25"/>
       <c r="S871" s="25"/>
@@ -16762,7 +16761,7 @@
       <c r="AD871" s="25"/>
       <c r="AE871" s="25"/>
     </row>
-    <row r="872" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="17:31" ht="12.75">
       <c r="Q872" s="25"/>
       <c r="R872" s="25"/>
       <c r="S872" s="25"/>
@@ -16775,7 +16774,7 @@
       <c r="AD872" s="25"/>
       <c r="AE872" s="25"/>
     </row>
-    <row r="873" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="17:31" ht="12.75">
       <c r="Q873" s="25"/>
       <c r="R873" s="25"/>
       <c r="S873" s="25"/>
@@ -16788,7 +16787,7 @@
       <c r="AD873" s="25"/>
       <c r="AE873" s="25"/>
     </row>
-    <row r="874" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="17:31" ht="12.75">
       <c r="Q874" s="25"/>
       <c r="R874" s="25"/>
       <c r="S874" s="25"/>
@@ -16801,7 +16800,7 @@
       <c r="AD874" s="25"/>
       <c r="AE874" s="25"/>
     </row>
-    <row r="875" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="17:31" ht="12.75">
       <c r="Q875" s="25"/>
       <c r="R875" s="25"/>
       <c r="S875" s="25"/>
@@ -16814,7 +16813,7 @@
       <c r="AD875" s="25"/>
       <c r="AE875" s="25"/>
     </row>
-    <row r="876" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="17:31" ht="12.75">
       <c r="Q876" s="25"/>
       <c r="R876" s="25"/>
       <c r="S876" s="25"/>
@@ -16827,7 +16826,7 @@
       <c r="AD876" s="25"/>
       <c r="AE876" s="25"/>
     </row>
-    <row r="877" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="17:31" ht="12.75">
       <c r="Q877" s="25"/>
       <c r="R877" s="25"/>
       <c r="S877" s="25"/>
@@ -16840,7 +16839,7 @@
       <c r="AD877" s="25"/>
       <c r="AE877" s="25"/>
     </row>
-    <row r="878" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="17:31" ht="12.75">
       <c r="Q878" s="25"/>
       <c r="R878" s="25"/>
       <c r="S878" s="25"/>
@@ -16853,7 +16852,7 @@
       <c r="AD878" s="25"/>
       <c r="AE878" s="25"/>
     </row>
-    <row r="879" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="17:31" ht="12.75">
       <c r="Q879" s="25"/>
       <c r="R879" s="25"/>
       <c r="S879" s="25"/>
@@ -16866,7 +16865,7 @@
       <c r="AD879" s="25"/>
       <c r="AE879" s="25"/>
     </row>
-    <row r="880" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="17:31" ht="12.75">
       <c r="Q880" s="25"/>
       <c r="R880" s="25"/>
       <c r="S880" s="25"/>
@@ -16879,7 +16878,7 @@
       <c r="AD880" s="25"/>
       <c r="AE880" s="25"/>
     </row>
-    <row r="881" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="17:31" ht="12.75">
       <c r="Q881" s="25"/>
       <c r="R881" s="25"/>
       <c r="S881" s="25"/>
@@ -16892,7 +16891,7 @@
       <c r="AD881" s="25"/>
       <c r="AE881" s="25"/>
     </row>
-    <row r="882" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="17:31" ht="12.75">
       <c r="Q882" s="25"/>
       <c r="R882" s="25"/>
       <c r="S882" s="25"/>
@@ -16905,7 +16904,7 @@
       <c r="AD882" s="25"/>
       <c r="AE882" s="25"/>
     </row>
-    <row r="883" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="17:31" ht="12.75">
       <c r="Q883" s="25"/>
       <c r="R883" s="25"/>
       <c r="S883" s="25"/>
@@ -16918,7 +16917,7 @@
       <c r="AD883" s="25"/>
       <c r="AE883" s="25"/>
     </row>
-    <row r="884" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="17:31" ht="12.75">
       <c r="Q884" s="25"/>
       <c r="R884" s="25"/>
       <c r="S884" s="25"/>
@@ -16931,7 +16930,7 @@
       <c r="AD884" s="25"/>
       <c r="AE884" s="25"/>
     </row>
-    <row r="885" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="17:31" ht="12.75">
       <c r="Q885" s="25"/>
       <c r="R885" s="25"/>
       <c r="S885" s="25"/>
@@ -16944,7 +16943,7 @@
       <c r="AD885" s="25"/>
       <c r="AE885" s="25"/>
     </row>
-    <row r="886" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="17:31" ht="12.75">
       <c r="Q886" s="25"/>
       <c r="R886" s="25"/>
       <c r="S886" s="25"/>
@@ -16957,7 +16956,7 @@
       <c r="AD886" s="25"/>
       <c r="AE886" s="25"/>
     </row>
-    <row r="887" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="17:31" ht="12.75">
       <c r="Q887" s="25"/>
       <c r="R887" s="25"/>
       <c r="S887" s="25"/>
@@ -16970,7 +16969,7 @@
       <c r="AD887" s="25"/>
       <c r="AE887" s="25"/>
     </row>
-    <row r="888" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="17:31" ht="12.75">
       <c r="Q888" s="25"/>
       <c r="R888" s="25"/>
       <c r="S888" s="25"/>
@@ -16983,7 +16982,7 @@
       <c r="AD888" s="25"/>
       <c r="AE888" s="25"/>
     </row>
-    <row r="889" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="17:31" ht="12.75">
       <c r="Q889" s="25"/>
       <c r="R889" s="25"/>
       <c r="S889" s="25"/>
@@ -16996,7 +16995,7 @@
       <c r="AD889" s="25"/>
       <c r="AE889" s="25"/>
     </row>
-    <row r="890" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="17:31" ht="12.75">
       <c r="Q890" s="25"/>
       <c r="R890" s="25"/>
       <c r="S890" s="25"/>
@@ -17009,7 +17008,7 @@
       <c r="AD890" s="25"/>
       <c r="AE890" s="25"/>
     </row>
-    <row r="891" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="17:31" ht="12.75">
       <c r="Q891" s="25"/>
       <c r="R891" s="25"/>
       <c r="S891" s="25"/>
@@ -17022,7 +17021,7 @@
       <c r="AD891" s="25"/>
       <c r="AE891" s="25"/>
     </row>
-    <row r="892" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="17:31" ht="12.75">
       <c r="Q892" s="25"/>
       <c r="R892" s="25"/>
       <c r="S892" s="25"/>
@@ -17035,7 +17034,7 @@
       <c r="AD892" s="25"/>
       <c r="AE892" s="25"/>
     </row>
-    <row r="893" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="17:31" ht="12.75">
       <c r="Q893" s="25"/>
       <c r="R893" s="25"/>
       <c r="S893" s="25"/>
@@ -17048,7 +17047,7 @@
       <c r="AD893" s="25"/>
       <c r="AE893" s="25"/>
     </row>
-    <row r="894" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="17:31" ht="12.75">
       <c r="Q894" s="25"/>
       <c r="R894" s="25"/>
       <c r="S894" s="25"/>
@@ -17061,7 +17060,7 @@
       <c r="AD894" s="25"/>
       <c r="AE894" s="25"/>
     </row>
-    <row r="895" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="17:31" ht="12.75">
       <c r="Q895" s="25"/>
       <c r="R895" s="25"/>
       <c r="S895" s="25"/>
@@ -17074,7 +17073,7 @@
       <c r="AD895" s="25"/>
       <c r="AE895" s="25"/>
     </row>
-    <row r="896" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="17:31" ht="12.75">
       <c r="Q896" s="25"/>
       <c r="R896" s="25"/>
       <c r="S896" s="25"/>
@@ -17087,7 +17086,7 @@
       <c r="AD896" s="25"/>
       <c r="AE896" s="25"/>
     </row>
-    <row r="897" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="17:31" ht="12.75">
       <c r="Q897" s="25"/>
       <c r="R897" s="25"/>
       <c r="S897" s="25"/>
@@ -17100,7 +17099,7 @@
       <c r="AD897" s="25"/>
       <c r="AE897" s="25"/>
     </row>
-    <row r="898" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="17:31" ht="12.75">
       <c r="Q898" s="25"/>
       <c r="R898" s="25"/>
       <c r="S898" s="25"/>
@@ -17113,7 +17112,7 @@
       <c r="AD898" s="25"/>
       <c r="AE898" s="25"/>
     </row>
-    <row r="899" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="17:31" ht="12.75">
       <c r="Q899" s="25"/>
       <c r="R899" s="25"/>
       <c r="S899" s="25"/>
@@ -17126,7 +17125,7 @@
       <c r="AD899" s="25"/>
       <c r="AE899" s="25"/>
     </row>
-    <row r="900" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="17:31" ht="12.75">
       <c r="Q900" s="25"/>
       <c r="R900" s="25"/>
       <c r="S900" s="25"/>
@@ -17139,7 +17138,7 @@
       <c r="AD900" s="25"/>
       <c r="AE900" s="25"/>
     </row>
-    <row r="901" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="17:31" ht="12.75">
       <c r="Q901" s="25"/>
       <c r="R901" s="25"/>
       <c r="S901" s="25"/>
@@ -17152,7 +17151,7 @@
       <c r="AD901" s="25"/>
       <c r="AE901" s="25"/>
     </row>
-    <row r="902" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="17:31" ht="12.75">
       <c r="Q902" s="25"/>
       <c r="R902" s="25"/>
       <c r="S902" s="25"/>
@@ -17165,7 +17164,7 @@
       <c r="AD902" s="25"/>
       <c r="AE902" s="25"/>
     </row>
-    <row r="903" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="17:31" ht="12.75">
       <c r="Q903" s="25"/>
       <c r="R903" s="25"/>
       <c r="S903" s="25"/>
@@ -17178,7 +17177,7 @@
       <c r="AD903" s="25"/>
       <c r="AE903" s="25"/>
     </row>
-    <row r="904" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="17:31" ht="12.75">
       <c r="Q904" s="25"/>
       <c r="R904" s="25"/>
       <c r="S904" s="25"/>
@@ -17191,7 +17190,7 @@
       <c r="AD904" s="25"/>
       <c r="AE904" s="25"/>
     </row>
-    <row r="905" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="17:31" ht="12.75">
       <c r="Q905" s="25"/>
       <c r="R905" s="25"/>
       <c r="S905" s="25"/>
@@ -17204,7 +17203,7 @@
       <c r="AD905" s="25"/>
       <c r="AE905" s="25"/>
     </row>
-    <row r="906" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="17:31" ht="12.75">
       <c r="Q906" s="25"/>
       <c r="R906" s="25"/>
       <c r="S906" s="25"/>
@@ -17217,7 +17216,7 @@
       <c r="AD906" s="25"/>
       <c r="AE906" s="25"/>
     </row>
-    <row r="907" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="17:31" ht="12.75">
       <c r="Q907" s="25"/>
       <c r="R907" s="25"/>
       <c r="S907" s="25"/>
@@ -17230,7 +17229,7 @@
       <c r="AD907" s="25"/>
       <c r="AE907" s="25"/>
     </row>
-    <row r="908" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="17:31" ht="12.75">
       <c r="Q908" s="25"/>
       <c r="R908" s="25"/>
       <c r="S908" s="25"/>
@@ -17243,7 +17242,7 @@
       <c r="AD908" s="25"/>
       <c r="AE908" s="25"/>
     </row>
-    <row r="909" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="17:31" ht="12.75">
       <c r="Q909" s="25"/>
       <c r="R909" s="25"/>
       <c r="S909" s="25"/>
@@ -17256,7 +17255,7 @@
       <c r="AD909" s="25"/>
       <c r="AE909" s="25"/>
     </row>
-    <row r="910" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="17:31" ht="12.75">
       <c r="Q910" s="25"/>
       <c r="R910" s="25"/>
       <c r="S910" s="25"/>
@@ -17269,7 +17268,7 @@
       <c r="AD910" s="25"/>
       <c r="AE910" s="25"/>
     </row>
-    <row r="911" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="17:31" ht="12.75">
       <c r="Q911" s="25"/>
       <c r="R911" s="25"/>
       <c r="S911" s="25"/>
@@ -17282,7 +17281,7 @@
       <c r="AD911" s="25"/>
       <c r="AE911" s="25"/>
     </row>
-    <row r="912" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="17:31" ht="12.75">
       <c r="Q912" s="25"/>
       <c r="R912" s="25"/>
       <c r="S912" s="25"/>
@@ -17295,7 +17294,7 @@
       <c r="AD912" s="25"/>
       <c r="AE912" s="25"/>
     </row>
-    <row r="913" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="17:31" ht="12.75">
       <c r="Q913" s="25"/>
       <c r="R913" s="25"/>
       <c r="S913" s="25"/>
@@ -17308,7 +17307,7 @@
       <c r="AD913" s="25"/>
       <c r="AE913" s="25"/>
     </row>
-    <row r="914" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="17:31" ht="12.75">
       <c r="Q914" s="25"/>
       <c r="R914" s="25"/>
       <c r="S914" s="25"/>
@@ -17321,7 +17320,7 @@
       <c r="AD914" s="25"/>
       <c r="AE914" s="25"/>
     </row>
-    <row r="915" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="17:31" ht="12.75">
       <c r="Q915" s="25"/>
       <c r="R915" s="25"/>
       <c r="S915" s="25"/>
@@ -17334,7 +17333,7 @@
       <c r="AD915" s="25"/>
       <c r="AE915" s="25"/>
     </row>
-    <row r="916" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="17:31" ht="12.75">
       <c r="Q916" s="25"/>
       <c r="R916" s="25"/>
       <c r="S916" s="25"/>
@@ -17347,7 +17346,7 @@
       <c r="AD916" s="25"/>
       <c r="AE916" s="25"/>
     </row>
-    <row r="917" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="17:31" ht="12.75">
       <c r="Q917" s="25"/>
       <c r="R917" s="25"/>
       <c r="S917" s="25"/>
@@ -17360,7 +17359,7 @@
       <c r="AD917" s="25"/>
       <c r="AE917" s="25"/>
     </row>
-    <row r="918" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="17:31" ht="12.75">
       <c r="Q918" s="25"/>
       <c r="R918" s="25"/>
       <c r="S918" s="25"/>
@@ -17373,7 +17372,7 @@
       <c r="AD918" s="25"/>
       <c r="AE918" s="25"/>
     </row>
-    <row r="919" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="17:31" ht="12.75">
       <c r="Q919" s="25"/>
       <c r="R919" s="25"/>
       <c r="S919" s="25"/>
@@ -17386,7 +17385,7 @@
       <c r="AD919" s="25"/>
       <c r="AE919" s="25"/>
     </row>
-    <row r="920" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="17:31" ht="12.75">
       <c r="Q920" s="25"/>
       <c r="R920" s="25"/>
       <c r="S920" s="25"/>
@@ -17399,7 +17398,7 @@
       <c r="AD920" s="25"/>
       <c r="AE920" s="25"/>
     </row>
-    <row r="921" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="17:31" ht="12.75">
       <c r="Q921" s="25"/>
       <c r="R921" s="25"/>
       <c r="S921" s="25"/>
@@ -17412,7 +17411,7 @@
       <c r="AD921" s="25"/>
       <c r="AE921" s="25"/>
     </row>
-    <row r="922" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="17:31" ht="12.75">
       <c r="Q922" s="25"/>
       <c r="R922" s="25"/>
       <c r="S922" s="25"/>
@@ -17425,7 +17424,7 @@
       <c r="AD922" s="25"/>
       <c r="AE922" s="25"/>
     </row>
-    <row r="923" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="17:31" ht="12.75">
       <c r="Q923" s="25"/>
       <c r="R923" s="25"/>
       <c r="S923" s="25"/>
@@ -17438,7 +17437,7 @@
       <c r="AD923" s="25"/>
       <c r="AE923" s="25"/>
     </row>
-    <row r="924" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="17:31" ht="12.75">
       <c r="Q924" s="25"/>
       <c r="R924" s="25"/>
       <c r="S924" s="25"/>
@@ -17451,7 +17450,7 @@
       <c r="AD924" s="25"/>
       <c r="AE924" s="25"/>
     </row>
-    <row r="925" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="17:31" ht="12.75">
       <c r="Q925" s="25"/>
       <c r="R925" s="25"/>
       <c r="S925" s="25"/>
@@ -17464,7 +17463,7 @@
       <c r="AD925" s="25"/>
       <c r="AE925" s="25"/>
     </row>
-    <row r="926" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="17:31" ht="12.75">
       <c r="Q926" s="25"/>
       <c r="R926" s="25"/>
       <c r="S926" s="25"/>
@@ -17477,7 +17476,7 @@
       <c r="AD926" s="25"/>
       <c r="AE926" s="25"/>
     </row>
-    <row r="927" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="17:31" ht="12.75">
       <c r="Q927" s="25"/>
       <c r="R927" s="25"/>
       <c r="S927" s="25"/>
@@ -17490,7 +17489,7 @@
       <c r="AD927" s="25"/>
       <c r="AE927" s="25"/>
     </row>
-    <row r="928" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="17:31" ht="12.75">
       <c r="Q928" s="25"/>
       <c r="R928" s="25"/>
       <c r="S928" s="25"/>
@@ -17503,7 +17502,7 @@
       <c r="AD928" s="25"/>
       <c r="AE928" s="25"/>
     </row>
-    <row r="929" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="17:31" ht="12.75">
       <c r="Q929" s="25"/>
       <c r="R929" s="25"/>
       <c r="S929" s="25"/>
@@ -17516,7 +17515,7 @@
       <c r="AD929" s="25"/>
       <c r="AE929" s="25"/>
     </row>
-    <row r="930" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="17:31" ht="12.75">
       <c r="Q930" s="25"/>
       <c r="R930" s="25"/>
       <c r="S930" s="25"/>
@@ -17529,7 +17528,7 @@
       <c r="AD930" s="25"/>
       <c r="AE930" s="25"/>
     </row>
-    <row r="931" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="17:31" ht="12.75">
       <c r="Q931" s="25"/>
       <c r="R931" s="25"/>
       <c r="S931" s="25"/>
@@ -17542,7 +17541,7 @@
       <c r="AD931" s="25"/>
       <c r="AE931" s="25"/>
     </row>
-    <row r="932" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="17:31" ht="12.75">
       <c r="Q932" s="25"/>
       <c r="R932" s="25"/>
       <c r="S932" s="25"/>
@@ -17555,7 +17554,7 @@
       <c r="AD932" s="25"/>
       <c r="AE932" s="25"/>
     </row>
-    <row r="933" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="17:31" ht="12.75">
       <c r="Q933" s="25"/>
       <c r="R933" s="25"/>
       <c r="S933" s="25"/>
@@ -17568,7 +17567,7 @@
       <c r="AD933" s="25"/>
       <c r="AE933" s="25"/>
     </row>
-    <row r="934" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="17:31" ht="12.75">
       <c r="Q934" s="25"/>
       <c r="R934" s="25"/>
       <c r="S934" s="25"/>
@@ -17581,7 +17580,7 @@
       <c r="AD934" s="25"/>
       <c r="AE934" s="25"/>
     </row>
-    <row r="935" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="17:31" ht="12.75">
       <c r="Q935" s="25"/>
       <c r="R935" s="25"/>
       <c r="S935" s="25"/>
@@ -17594,7 +17593,7 @@
       <c r="AD935" s="25"/>
       <c r="AE935" s="25"/>
     </row>
-    <row r="936" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="17:31" ht="12.75">
       <c r="Q936" s="25"/>
       <c r="R936" s="25"/>
       <c r="S936" s="25"/>
@@ -17607,7 +17606,7 @@
       <c r="AD936" s="25"/>
       <c r="AE936" s="25"/>
     </row>
-    <row r="937" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="17:31" ht="12.75">
       <c r="Q937" s="25"/>
       <c r="R937" s="25"/>
       <c r="S937" s="25"/>
@@ -17620,7 +17619,7 @@
       <c r="AD937" s="25"/>
       <c r="AE937" s="25"/>
     </row>
-    <row r="938" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="17:31" ht="12.75">
       <c r="Q938" s="25"/>
       <c r="R938" s="25"/>
       <c r="S938" s="25"/>
@@ -17633,7 +17632,7 @@
       <c r="AD938" s="25"/>
       <c r="AE938" s="25"/>
     </row>
-    <row r="939" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="17:31" ht="12.75">
       <c r="Q939" s="25"/>
       <c r="R939" s="25"/>
       <c r="S939" s="25"/>
@@ -17646,7 +17645,7 @@
       <c r="AD939" s="25"/>
       <c r="AE939" s="25"/>
     </row>
-    <row r="940" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="17:31" ht="12.75">
       <c r="Q940" s="25"/>
       <c r="R940" s="25"/>
       <c r="S940" s="25"/>
@@ -17659,7 +17658,7 @@
       <c r="AD940" s="25"/>
       <c r="AE940" s="25"/>
     </row>
-    <row r="941" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="17:31" ht="12.75">
       <c r="Q941" s="25"/>
       <c r="R941" s="25"/>
       <c r="S941" s="25"/>
@@ -17672,7 +17671,7 @@
       <c r="AD941" s="25"/>
       <c r="AE941" s="25"/>
     </row>
-    <row r="942" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="17:31" ht="12.75">
       <c r="Q942" s="25"/>
       <c r="R942" s="25"/>
       <c r="S942" s="25"/>
@@ -17685,7 +17684,7 @@
       <c r="AD942" s="25"/>
       <c r="AE942" s="25"/>
     </row>
-    <row r="943" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="17:31" ht="12.75">
       <c r="Q943" s="25"/>
       <c r="R943" s="25"/>
       <c r="S943" s="25"/>
@@ -17698,7 +17697,7 @@
       <c r="AD943" s="25"/>
       <c r="AE943" s="25"/>
     </row>
-    <row r="944" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="17:31" ht="12.75">
       <c r="Q944" s="25"/>
       <c r="R944" s="25"/>
       <c r="S944" s="25"/>
@@ -17711,7 +17710,7 @@
       <c r="AD944" s="25"/>
       <c r="AE944" s="25"/>
     </row>
-    <row r="945" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="17:31" ht="12.75">
       <c r="Q945" s="25"/>
       <c r="R945" s="25"/>
       <c r="S945" s="25"/>
@@ -17724,7 +17723,7 @@
       <c r="AD945" s="25"/>
       <c r="AE945" s="25"/>
     </row>
-    <row r="946" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="17:31" ht="12.75">
       <c r="Q946" s="25"/>
       <c r="R946" s="25"/>
       <c r="S946" s="25"/>
@@ -17737,7 +17736,7 @@
       <c r="AD946" s="25"/>
       <c r="AE946" s="25"/>
     </row>
-    <row r="947" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="17:31" ht="12.75">
       <c r="Q947" s="25"/>
       <c r="R947" s="25"/>
       <c r="S947" s="25"/>
@@ -17750,7 +17749,7 @@
       <c r="AD947" s="25"/>
       <c r="AE947" s="25"/>
     </row>
-    <row r="948" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="17:31" ht="12.75">
       <c r="Q948" s="25"/>
       <c r="R948" s="25"/>
       <c r="S948" s="25"/>
@@ -17763,7 +17762,7 @@
       <c r="AD948" s="25"/>
       <c r="AE948" s="25"/>
     </row>
-    <row r="949" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="17:31" ht="12.75">
       <c r="Q949" s="25"/>
       <c r="R949" s="25"/>
       <c r="S949" s="25"/>
@@ -17776,7 +17775,7 @@
       <c r="AD949" s="25"/>
       <c r="AE949" s="25"/>
     </row>
-    <row r="950" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="17:31" ht="12.75">
       <c r="Q950" s="25"/>
       <c r="R950" s="25"/>
       <c r="S950" s="25"/>
@@ -17789,7 +17788,7 @@
       <c r="AD950" s="25"/>
       <c r="AE950" s="25"/>
     </row>
-    <row r="951" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="17:31" ht="12.75">
       <c r="Q951" s="25"/>
       <c r="R951" s="25"/>
       <c r="S951" s="25"/>
@@ -17802,7 +17801,7 @@
       <c r="AD951" s="25"/>
       <c r="AE951" s="25"/>
     </row>
-    <row r="952" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="17:31" ht="12.75">
       <c r="Q952" s="25"/>
       <c r="R952" s="25"/>
       <c r="S952" s="25"/>
@@ -17815,7 +17814,7 @@
       <c r="AD952" s="25"/>
       <c r="AE952" s="25"/>
     </row>
-    <row r="953" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="17:31" ht="12.75">
       <c r="Q953" s="25"/>
       <c r="R953" s="25"/>
       <c r="S953" s="25"/>
@@ -17828,7 +17827,7 @@
       <c r="AD953" s="25"/>
       <c r="AE953" s="25"/>
     </row>
-    <row r="954" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="17:31" ht="12.75">
       <c r="Q954" s="25"/>
       <c r="R954" s="25"/>
       <c r="S954" s="25"/>
@@ -17841,7 +17840,7 @@
       <c r="AD954" s="25"/>
       <c r="AE954" s="25"/>
     </row>
-    <row r="955" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="17:31" ht="12.75">
       <c r="Q955" s="25"/>
       <c r="R955" s="25"/>
       <c r="S955" s="25"/>
@@ -17854,7 +17853,7 @@
       <c r="AD955" s="25"/>
       <c r="AE955" s="25"/>
     </row>
-    <row r="956" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="17:31" ht="12.75">
       <c r="Q956" s="25"/>
       <c r="R956" s="25"/>
       <c r="S956" s="25"/>
@@ -17867,7 +17866,7 @@
       <c r="AD956" s="25"/>
       <c r="AE956" s="25"/>
     </row>
-    <row r="957" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="17:31" ht="12.75">
       <c r="Q957" s="25"/>
       <c r="R957" s="25"/>
       <c r="S957" s="25"/>
@@ -17880,7 +17879,7 @@
       <c r="AD957" s="25"/>
       <c r="AE957" s="25"/>
     </row>
-    <row r="958" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="17:31" ht="12.75">
       <c r="Q958" s="25"/>
       <c r="R958" s="25"/>
       <c r="S958" s="25"/>
@@ -17893,7 +17892,7 @@
       <c r="AD958" s="25"/>
       <c r="AE958" s="25"/>
     </row>
-    <row r="959" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="17:31" ht="12.75">
       <c r="Q959" s="25"/>
       <c r="R959" s="25"/>
       <c r="S959" s="25"/>
@@ -17906,7 +17905,7 @@
       <c r="AD959" s="25"/>
       <c r="AE959" s="25"/>
     </row>
-    <row r="960" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="17:31" ht="12.75">
       <c r="Q960" s="25"/>
       <c r="R960" s="25"/>
       <c r="S960" s="25"/>
@@ -17919,7 +17918,7 @@
       <c r="AD960" s="25"/>
       <c r="AE960" s="25"/>
     </row>
-    <row r="961" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="17:31" ht="12.75">
       <c r="Q961" s="25"/>
       <c r="R961" s="25"/>
       <c r="S961" s="25"/>
@@ -17932,7 +17931,7 @@
       <c r="AD961" s="25"/>
       <c r="AE961" s="25"/>
     </row>
-    <row r="962" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="17:31" ht="12.75">
       <c r="Q962" s="25"/>
       <c r="R962" s="25"/>
       <c r="S962" s="25"/>
@@ -17945,7 +17944,7 @@
       <c r="AD962" s="25"/>
       <c r="AE962" s="25"/>
     </row>
-    <row r="963" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="17:31" ht="12.75">
       <c r="Q963" s="25"/>
       <c r="R963" s="25"/>
       <c r="S963" s="25"/>
@@ -17958,7 +17957,7 @@
       <c r="AD963" s="25"/>
       <c r="AE963" s="25"/>
     </row>
-    <row r="964" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="17:31" ht="12.75">
       <c r="Q964" s="25"/>
       <c r="R964" s="25"/>
       <c r="S964" s="25"/>
@@ -17971,7 +17970,7 @@
       <c r="AD964" s="25"/>
       <c r="AE964" s="25"/>
     </row>
-    <row r="965" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="17:31" ht="12.75">
       <c r="Q965" s="25"/>
       <c r="R965" s="25"/>
       <c r="S965" s="25"/>
@@ -17984,7 +17983,7 @@
       <c r="AD965" s="25"/>
       <c r="AE965" s="25"/>
     </row>
-    <row r="966" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="17:31" ht="12.75">
       <c r="Q966" s="25"/>
       <c r="R966" s="25"/>
       <c r="S966" s="25"/>
@@ -17997,7 +17996,7 @@
       <c r="AD966" s="25"/>
       <c r="AE966" s="25"/>
     </row>
-    <row r="967" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="17:31" ht="12.75">
       <c r="Q967" s="25"/>
       <c r="R967" s="25"/>
       <c r="S967" s="25"/>
@@ -18010,7 +18009,7 @@
       <c r="AD967" s="25"/>
       <c r="AE967" s="25"/>
     </row>
-    <row r="968" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="17:31" ht="12.75">
       <c r="Q968" s="25"/>
       <c r="R968" s="25"/>
       <c r="S968" s="25"/>
@@ -18023,7 +18022,7 @@
       <c r="AD968" s="25"/>
       <c r="AE968" s="25"/>
     </row>
-    <row r="969" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="17:31" ht="12.75">
       <c r="Q969" s="25"/>
       <c r="R969" s="25"/>
       <c r="S969" s="25"/>
@@ -18036,7 +18035,7 @@
       <c r="AD969" s="25"/>
       <c r="AE969" s="25"/>
     </row>
-    <row r="970" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="17:31" ht="12.75">
       <c r="Q970" s="25"/>
       <c r="R970" s="25"/>
       <c r="S970" s="25"/>
@@ -18049,7 +18048,7 @@
       <c r="AD970" s="25"/>
       <c r="AE970" s="25"/>
     </row>
-    <row r="971" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="17:31" ht="12.75">
       <c r="Q971" s="25"/>
       <c r="R971" s="25"/>
       <c r="S971" s="25"/>
@@ -18062,7 +18061,7 @@
       <c r="AD971" s="25"/>
       <c r="AE971" s="25"/>
     </row>
-    <row r="972" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="17:31" ht="12.75">
       <c r="Q972" s="25"/>
       <c r="R972" s="25"/>
       <c r="S972" s="25"/>
@@ -18075,7 +18074,7 @@
       <c r="AD972" s="25"/>
       <c r="AE972" s="25"/>
     </row>
-    <row r="973" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="17:31" ht="12.75">
       <c r="Q973" s="25"/>
       <c r="R973" s="25"/>
       <c r="S973" s="25"/>
@@ -18088,7 +18087,7 @@
       <c r="AD973" s="25"/>
       <c r="AE973" s="25"/>
     </row>
-    <row r="974" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="17:31" ht="12.75">
       <c r="Q974" s="25"/>
       <c r="R974" s="25"/>
       <c r="S974" s="25"/>
@@ -18101,7 +18100,7 @@
       <c r="AD974" s="25"/>
       <c r="AE974" s="25"/>
     </row>
-    <row r="975" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="17:31" ht="12.75">
       <c r="Q975" s="25"/>
       <c r="R975" s="25"/>
       <c r="S975" s="25"/>
@@ -18114,7 +18113,7 @@
       <c r="AD975" s="25"/>
       <c r="AE975" s="25"/>
     </row>
-    <row r="976" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="17:31" ht="12.75">
       <c r="Q976" s="25"/>
       <c r="R976" s="25"/>
       <c r="S976" s="25"/>
@@ -18127,7 +18126,7 @@
       <c r="AD976" s="25"/>
       <c r="AE976" s="25"/>
     </row>
-    <row r="977" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="17:31" ht="12.75">
       <c r="Q977" s="25"/>
       <c r="R977" s="25"/>
       <c r="S977" s="25"/>
@@ -18140,7 +18139,7 @@
       <c r="AD977" s="25"/>
       <c r="AE977" s="25"/>
     </row>
-    <row r="978" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="17:31" ht="12.75">
       <c r="Q978" s="25"/>
       <c r="R978" s="25"/>
       <c r="S978" s="25"/>
@@ -18153,7 +18152,7 @@
       <c r="AD978" s="25"/>
       <c r="AE978" s="25"/>
     </row>
-    <row r="979" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="17:31" ht="12.75">
       <c r="Q979" s="25"/>
       <c r="R979" s="25"/>
       <c r="S979" s="25"/>
@@ -18166,7 +18165,7 @@
       <c r="AD979" s="25"/>
       <c r="AE979" s="25"/>
     </row>
-    <row r="980" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="17:31" ht="12.75">
       <c r="Q980" s="25"/>
       <c r="R980" s="25"/>
       <c r="S980" s="25"/>
@@ -18179,7 +18178,7 @@
       <c r="AD980" s="25"/>
       <c r="AE980" s="25"/>
     </row>
-    <row r="981" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="17:31" ht="12.75">
       <c r="Q981" s="25"/>
       <c r="R981" s="25"/>
       <c r="S981" s="25"/>
@@ -18192,7 +18191,7 @@
       <c r="AD981" s="25"/>
       <c r="AE981" s="25"/>
     </row>
-    <row r="982" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="17:31" ht="12.75">
       <c r="Q982" s="25"/>
       <c r="R982" s="25"/>
       <c r="S982" s="25"/>
@@ -18205,7 +18204,7 @@
       <c r="AD982" s="25"/>
       <c r="AE982" s="25"/>
     </row>
-    <row r="983" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="17:31" ht="12.75">
       <c r="Q983" s="25"/>
       <c r="R983" s="25"/>
       <c r="S983" s="25"/>
@@ -18218,7 +18217,7 @@
       <c r="AD983" s="25"/>
       <c r="AE983" s="25"/>
     </row>
-    <row r="984" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="17:31" ht="12.75">
       <c r="Q984" s="25"/>
       <c r="R984" s="25"/>
       <c r="S984" s="25"/>
@@ -18231,7 +18230,7 @@
       <c r="AD984" s="25"/>
       <c r="AE984" s="25"/>
     </row>
-    <row r="985" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="17:31" ht="12.75">
       <c r="Q985" s="25"/>
       <c r="R985" s="25"/>
       <c r="S985" s="25"/>
@@ -18244,7 +18243,7 @@
       <c r="AD985" s="25"/>
       <c r="AE985" s="25"/>
     </row>
-    <row r="986" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="17:31" ht="12.75">
       <c r="Q986" s="25"/>
       <c r="R986" s="25"/>
       <c r="S986" s="25"/>
@@ -18257,7 +18256,7 @@
       <c r="AD986" s="25"/>
       <c r="AE986" s="25"/>
     </row>
-    <row r="987" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="17:31" ht="12.75">
       <c r="Q987" s="25"/>
       <c r="R987" s="25"/>
       <c r="S987" s="25"/>
@@ -18270,7 +18269,7 @@
       <c r="AD987" s="25"/>
       <c r="AE987" s="25"/>
     </row>
-    <row r="988" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="17:31" ht="12.75">
       <c r="Q988" s="25"/>
       <c r="R988" s="25"/>
       <c r="S988" s="25"/>
@@ -18283,7 +18282,7 @@
       <c r="AD988" s="25"/>
       <c r="AE988" s="25"/>
     </row>
-    <row r="989" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="17:31" ht="12.75">
       <c r="Q989" s="25"/>
       <c r="R989" s="25"/>
       <c r="S989" s="25"/>
@@ -18296,7 +18295,7 @@
       <c r="AD989" s="25"/>
       <c r="AE989" s="25"/>
     </row>
-    <row r="990" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="17:31" ht="12.75">
       <c r="Q990" s="25"/>
       <c r="R990" s="25"/>
       <c r="S990" s="25"/>
@@ -18309,7 +18308,7 @@
       <c r="AD990" s="25"/>
       <c r="AE990" s="25"/>
     </row>
-    <row r="991" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="17:31" ht="12.75">
       <c r="Q991" s="25"/>
       <c r="R991" s="25"/>
       <c r="S991" s="25"/>
@@ -18322,7 +18321,7 @@
       <c r="AD991" s="25"/>
       <c r="AE991" s="25"/>
     </row>
-    <row r="992" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="17:31" ht="12.75">
       <c r="Q992" s="25"/>
       <c r="R992" s="25"/>
       <c r="S992" s="25"/>
@@ -18335,7 +18334,7 @@
       <c r="AD992" s="25"/>
       <c r="AE992" s="25"/>
     </row>
-    <row r="993" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="17:31" ht="12.75">
       <c r="Q993" s="25"/>
       <c r="R993" s="25"/>
       <c r="S993" s="25"/>
@@ -18348,7 +18347,7 @@
       <c r="AD993" s="25"/>
       <c r="AE993" s="25"/>
     </row>
-    <row r="994" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="994" spans="17:31" ht="12.75">
       <c r="Q994" s="25"/>
       <c r="R994" s="25"/>
       <c r="S994" s="25"/>
@@ -18361,7 +18360,7 @@
       <c r="AD994" s="25"/>
       <c r="AE994" s="25"/>
     </row>
-    <row r="995" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="995" spans="17:31" ht="12.75">
       <c r="Q995" s="25"/>
       <c r="R995" s="25"/>
       <c r="S995" s="25"/>
@@ -18374,7 +18373,7 @@
       <c r="AD995" s="25"/>
       <c r="AE995" s="25"/>
     </row>
-    <row r="996" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="996" spans="17:31" ht="12.75">
       <c r="Q996" s="25"/>
       <c r="R996" s="25"/>
       <c r="S996" s="25"/>
@@ -18387,7 +18386,7 @@
       <c r="AD996" s="25"/>
       <c r="AE996" s="25"/>
     </row>
-    <row r="997" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="997" spans="17:31" ht="12.75">
       <c r="Q997" s="25"/>
       <c r="R997" s="25"/>
       <c r="S997" s="25"/>
@@ -18400,7 +18399,7 @@
       <c r="AD997" s="25"/>
       <c r="AE997" s="25"/>
     </row>
-    <row r="998" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="998" spans="17:31" ht="12.75">
       <c r="Q998" s="25"/>
       <c r="R998" s="25"/>
       <c r="S998" s="25"/>
@@ -18413,7 +18412,7 @@
       <c r="AD998" s="25"/>
       <c r="AE998" s="25"/>
     </row>
-    <row r="999" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="999" spans="17:31" ht="12.75">
       <c r="Q999" s="25"/>
       <c r="R999" s="25"/>
       <c r="S999" s="25"/>
@@ -18426,7 +18425,7 @@
       <c r="AD999" s="25"/>
       <c r="AE999" s="25"/>
     </row>
-    <row r="1000" spans="17:31" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1000" spans="17:31" ht="12.75">
       <c r="Q1000" s="25"/>
       <c r="R1000" s="25"/>
       <c r="S1000" s="25"/>
@@ -18440,8 +18439,8 @@
       <c r="AE1000" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:AF105" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:AF105">
+  <autoFilter ref="B5:AF105">
+    <sortState ref="B6:AF105">
       <sortCondition ref="B5:B105"/>
     </sortState>
   </autoFilter>
